--- a/PROCESSED FILES/HOA - CORRECT ANSWERS.xlsx
+++ b/PROCESSED FILES/HOA - CORRECT ANSWERS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivans\Desktop\Archi Reviewer\PROCESSED FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FA7420-6518-4401-8F08-DE268B9D0586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DBDC15-79D8-4B91-A261-0C1481F2B9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ultimate Reviewer" sheetId="1" r:id="rId1"/>
@@ -3641,8 +3641,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="B397" sqref="B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>

--- a/PROCESSED FILES/HOA - CORRECT ANSWERS.xlsx
+++ b/PROCESSED FILES/HOA - CORRECT ANSWERS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivans\Desktop\Archi Reviewer\PROCESSED FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DBDC15-79D8-4B91-A261-0C1481F2B9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5CA20D-084B-44C9-959C-E8A11422A55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ultimate Reviewer" sheetId="1" r:id="rId1"/>
@@ -1740,13 +1740,274 @@
     <t>A style of architecture in the Mid 19th century especially in Germany, characterized by the use of motif and combining in various degrees elements from the Early Christianm Byzantine, Romanesque and Early Renaissance Styles (D.K. Ching p. 134) [A] Jugendstil [B] Rundbogenstil [C] Minimalism [D] Brutalism</t>
   </si>
   <si>
+    <t>A lady's private chamber in a medieval castle (D.K. Ching p. 99) [A] Bower [B] Postern [C] Necessarium [D] Brattice</t>
+  </si>
+  <si>
+    <t>It is the italian version of Art Noveaum named after the firm of liberty and co. in London (D.K. Ching p. 134) [A] Jugendstil [B] Stile Liberty [C] Sezession [D] Modernismo</t>
+  </si>
+  <si>
+    <t>The spanish particularly Catalan version of Art Noveau (D.K. Ching p. 134) [A] Jugendstil [B] Stile Liberty [C] Sezession [D] Modernismo</t>
+  </si>
+  <si>
+    <t>A temporary wooden fortification in medieval architecture. Erected at the top of a wall during a siege (D.K. Ching p. 99) [A] Bower [B] Postern [C] Necessarium [D] Brattice</t>
+  </si>
+  <si>
+    <t>The austrian version of Art Noveau, so named because its adherents succeeded from the official academy of art in Viena (D.K. Ching p. 134) [A] Jugendstil [B] Stile Liberty [C] Sezession [D] Modernismo</t>
+  </si>
+  <si>
+    <t>A school of design establish in Welmar Germany in 1919. moved to Dessau in 1926 and closed in 1933 as a result of Nazi Hostility. It characterized by the synthesis of technology, craft and design aesthetics with an emphasis on functionalism. (D.K. Ching p. 135) [A] Art Noveau [B] Bauhaus [C] Art Deco [D] Arts and Crafts</t>
+  </si>
+  <si>
+    <t>A small rear door or gate to a fort or castle (D.K. Ching p. 99) [A] Bower [B] Postern [C] Necessarium [D] Brattice</t>
+  </si>
+  <si>
+    <t>A movement in architecture and decorative arts that developed in 1970's in reaction to the principles and practices of modernism, especially the influence of International Style, encouraging the use of elements from historical vernacular styles and often playful illusion, decoration and complexity (D.K. Ching p. 135) [A] Post Modernism [B] International Style [C] Modernism [D] Abstract Expressionism</t>
+  </si>
+  <si>
+    <t>A deliberate philosophical and practical enstrangement from the past in the arts and literature occuring in the coarse of the 20th century and taking form in any of various innovative movement and styles (D.K. Ching p. 135) [A] Post Modernism [B] International Style [C] Modernism [D] Abstract Expressionism</t>
+  </si>
+  <si>
+    <t>A defensive wall or elevation of earth or stone protecting soldiers from enemy fire (D.K. Ching p. 98) [A] Cordon [B] Parapet [C] Berm [D] Rampart</t>
+  </si>
+  <si>
+    <t>Movement In experimental non representational painting by originating in U.S. at 1940's. embracing many individual styles marked in common by freedom of technique, a preference for dramatically large canvesses and a desire to give spontaneous expression. (D.K. Ching p. 135) [A] Post Modernism [B] International Style [C] Modernism [D] Abstract Expressionism</t>
+  </si>
+  <si>
+    <t>A continuous gangway providing a means of communication behind the rampart and a fortified wall (D.K. Ching p. 99) [A] Bower [B] Postern [C] Chemi de ronde [D] Crenelated</t>
+  </si>
+  <si>
+    <t>The privy of a medieval castle or monastery. Also called as garderobe (D.K. Ching p. 99) [A] Bower [B] Postern [C] Necessarium [D] Brattice</t>
+  </si>
+  <si>
+    <t>A philosophy of architectural design that emerge in the early 20th century, asserting that a building should have a structure and plan that fulfills its functional requirements and harmonize with the natural environment. One prime example of this is "Falling Water" (D.K. Ching p. 135) [A] Organic Architecture [B] Gothic Architecture [C] Vernacular Architecture [D] Medieval Architecture</t>
+  </si>
+  <si>
+    <t>A group of U.S. Architects active c1880 - 1910 and known for major innovations in high rise construction and for the development of modern building construction design (D.K. Ching p. 135) [A] Ecoles Des Beaux Arts [B] Bauhaus [C] Chicago School [D] Liceo De Manila</t>
+  </si>
+  <si>
+    <t>A projecting course of stones below the parapet of a rampart (D.K. Ching p. 98) [A] Cordon [B] Parapet [C] Berm [D] Rampart</t>
+  </si>
+  <si>
+    <t>A design movement that evolved from seceral previous movement in EU in the early 20th century. Advocating the design of buildings, furnishing or the like as direct fullfillment of functional requirements. One great architect in this time is "Louis Sullivan" (D.K. Ching p. 135) [A] Brutalism [B] Minimalism [C] Functionalism [D] Cubism</t>
+  </si>
+  <si>
+    <t>A style of decorative art developed originally in 1920's with a revival in 1960's, marked chiefly by geometric motifs, streamlined and curvilinear forms, sharply defined outlines, often bold colors and use of synthetic materials. It is also called as Style Moderne (D.K. Ching p. 135) [A] Art Noveau [B] Art Deco [C] Arts and Crafts [D] Ecole Des Beaux Arts</t>
+  </si>
+  <si>
+    <t>Metropolitan Theater at Manila is considered as (D.K. Ching p. 135) [A] Art Noveau [B] Art Deco [C] Arts and Crafts [D] Ecole Des Beaux Arts</t>
+  </si>
+  <si>
+    <t>Chysler Tower at New York is considered as (D.K. Ching p. 135) [A] Art Noveau [B] Art Deco [C] Arts and Crafts [D] Ecole Des Beaux Arts</t>
+  </si>
+  <si>
+    <t>Architecture of Quechuan people who migrated into Cuzco area about AD 1100 and ruled Peru until the spanish conquest in the 16th century, characterized specially by strong simple forms of smooth ashlar without the use of iron chisels (D.K. Ching p. 132) (Wikipedia) [A] Aztec Architecture [B] Inca Architecture [C] Mudejar Architecture [D] Saracenic Architecture</t>
+  </si>
+  <si>
+    <t>Architecture of Amerindian people who settled near the shore of Lake Texcoco in Central Mexico c1352. Characterized chiefly by pyramid supporting twin temples on a common platform (D.K. Ching p. 132) (Wikipedia) [A] Aztec Architecture [B] Inca Architecture [C] Mudejar Architecture [D] Saracenic Architecture</t>
+  </si>
+  <si>
+    <t>A ledge between the exterior slope of a rampart and the moat of a fortification (D.K. Ching p. 98) [A] Cordon [B] Parapet [C] Berm [D] Rampart</t>
+  </si>
+  <si>
+    <t>Era that marked the transition from Medieval to Modern World; also notes revival of classical art in literature (D.K. Ching p. 132) [A] Dark Ages [B] Renaissance [C] Iron Age [D] Garden City Era</t>
+  </si>
+  <si>
+    <t>The first of three phases of English Gothic from late 12th Century characterized by Lancet Window and Plate Tracery (D.K. Ching p. 132) [A] Early French Style [B] Flamboyant Style [C] Decorated Style [D] Early English Style</t>
+  </si>
+  <si>
+    <t>The first of three phases of French Gothic characterized by pointed arch and geometric tracery (D.K. Ching p. 132) [A] Early French Style [B] Flamboyant Style [C] Decorated Style [D] Early English Style</t>
+  </si>
+  <si>
+    <t>A V-Shaped outwork outside the main ditch of a fortress, covering the works between two bastions (D.K. Ching p. 98) [A] Outwork [B] Escarp [C] Ravelin [D] Counterscarp</t>
+  </si>
+  <si>
+    <t>An enclosing wall connecting two bastions or towers (D.K. Ching p. 98) [A] Circumvallate [B] Curtain [C] Gorge [D] Terreplain</t>
+  </si>
+  <si>
+    <t>A minor defensive position established beyond a main fortified area (D.K. Ching p. 98) [A] Outwork [B] Escarp [C] Ravelin [D] Counterscarp</t>
+  </si>
+  <si>
+    <t>The rear passageway into a bastion or similar outwork (D.K. Ching p. 98) [A] Circumvallate [B] Curtain [C] Gorge [D] Terreplain</t>
+  </si>
+  <si>
+    <t>The top platform or horizontal surface ofa rampart where guns are mounted (D.K. Ching p. 98) [A] Circumvallate [B] Curtain [C] Gorge [D] Terreplain</t>
+  </si>
+  <si>
+    <t>The part of a bastion the extends from the curtain to the face (D.K. Ching p. 98) [A] Shoulder [B] Face [C] Flank [D] Casemate</t>
+  </si>
+  <si>
+    <t>Either of the two outer sides that form the sallen angle of a bastion (D.K. Ching p. 98) [A] Shoulder [B] Face [C] Flank [D] Casemate</t>
+  </si>
+  <si>
+    <t>The inner slope or wall of the ditch sorrounding a rampart (D.K. Ching p. 98) [A] Outwork [B] Escarp [C] Ravelin [D] Counterscarp</t>
+  </si>
+  <si>
+    <t>A broad embankment of earth raised as a fortification around a place and usually sormounted by a parapet (D.K. Ching p. 98) [A] Cordon [B] Parapet [C] Berm [D] Rampart</t>
+  </si>
+  <si>
+    <t>Sorrounded by or as if by a rampart (D.K. Ching p. 98) [A] Circumvallate [B] Curtain [C] Gorge [D] Terreplain</t>
+  </si>
+  <si>
+    <t>The second of the three phases of English Gothic from late 13th to 14th century, characterized by rich tracery, elaborate onrmanental vaulting and refinement of stone cutting techniques (D.K. Ching p. 132) [A] Early French Style [B] Flamboyant Style [C] Decorated Style [D] Early English Style</t>
+  </si>
+  <si>
+    <t>Final Phase of French Gothic characterized by flamelike tracery, intricacy of detailing and frequent complication of interior space (D.K. Ching p. 132) [A] Early French Style [B] Flamboyant Style [C] Decorated Style [D] Early English Style</t>
+  </si>
+  <si>
+    <t>The exterior slope or wall of the ditch sorrounding a rampart (D.K. Ching p. 98) [A] Outwork [B] Escarp [C] Ravelin [D] Counterscarp</t>
+  </si>
+  <si>
+    <t>Under the second phase of Gothic English Architecture which of the following styles has been developen in this stage?(D.K. Ching p. 132) I. Geometric Style II. Perpendicular Style III. Curvilinear Style IV. Flamboyant Style [A] I and II [B] I and III [C] I and IV [D] II and IV</t>
+  </si>
+  <si>
+    <t>A style in Italian Renaissance art and architecture developed during the 15th century, characterized by development of linear perspective, chlaroscurro and free inventive use of classical details (D.K. Ching p. 132) [A] Early Renaissace [B] High Renaissance [C] Baroque [D] Rococo</t>
+  </si>
+  <si>
+    <t>A style of decorative art that evolved from Baroque, originating in France about 1720 and distinguished by fanciful, curved spatial forms and elaborate profuse designs of shellwork and foliage intended for a delicate overall effect (D.K. Ching p. 132) [A] Early Renaissace [B] High Renaissance [C] Baroque [D] Rococo</t>
+  </si>
+  <si>
+    <t>A style of architecture originatin in Italy in the early 17th century variously prevalent in EU and New World, characterized by free and sculptural use of classical orders and ornament, dynamic opposition and interpretation of spaces and dramatic combined effects of architecture, sculpture, painting and decorative arts (D.K. Ching p. 132) [A] Early Renaissace [B] High Renaissance [C] Baroque [D] Rococo</t>
+  </si>
+  <si>
+    <t>Principles of styles characteristic of culture, art and literature of ancient Greece and Rome (D.K. Ching p. 133) [A] Classicism [B] Minimalism [C] Brutalism [D] Cubism</t>
+  </si>
+  <si>
+    <t>Art and Architecture in the style of Ancient Greece and Rome as that of the Italian Renaissance and Neoclassical Movements in England and U.S. in late 18th and early 19th centuries (D.K. Ching p. 133) [A] Saracenic [B] Classic Revival [C] Medieval [D] Tudor Architecture</t>
+  </si>
+  <si>
+    <t>Transitional Style of English Architecture that developed during the reign of the Royal House of Tudor in second half of 16th century, characterized by Tudor Arch and application of Renaissance Details (D.K. Ching p. 133) [A] Classicism [B] Classic Revival [C] NeoClassicism [D] Tudor Architecture</t>
+  </si>
+  <si>
+    <t>The angle  between the face and the flank of a bastion (D.K. Ching p. 98) [A] Shoulder [B] Face [C] Flank [D] Casemate</t>
+  </si>
+  <si>
+    <t>A prevailing style of architecture, furniture, and crafts current in England and NA colonies, especially from 1714 to 1811, derived from classical, renaissance, and baroque forms. Named after four kings name George who reigned in this period (D.K. Ching p. 133) [A] Elizabethan [B] Georgian [C] Tudor [D] Victorian</t>
+  </si>
+  <si>
+    <t>A transitional style in EU architecture characterized by unconventional use of classical elements. (D.K. Ching p. 133) [A] Cubism [B] Mannerism [C] Functionalism [D] Expressionalism</t>
+  </si>
+  <si>
+    <t>Something beneath, behind or within which a person is protected from storms or other adverse conditions (D.K. Ching p. 136) [A] Shelter [B] Networks [C] Society [D] Nature</t>
+  </si>
+  <si>
+    <t>An american indian dwelling, usually of round or oval shape, formed of poles overlaid with bark, rush mats, or animal skins (D.K. Ching p. 136) [A] Tepee [B] Igloo [C] Wigwam [D] Yurt</t>
+  </si>
+  <si>
+    <t>A parapet having a regular alternation of merlons and crenels, originally for defense but later used as decorative motif. (D.K. Ching p. 99) [A] Merlon [B] Crenels [C] Battlement [D] Portcullis</t>
+  </si>
+  <si>
+    <t>One of the solid parts between the crenels of an embattlement (D.K. Ching p. 99) [A] Merlon [B] Crenels [C] Battlement [D] Portcullis</t>
+  </si>
+  <si>
+    <t>A strong grating of iron or timber hung over the gateway of a fortified place in such a way that it could be lowered quickly to prevent passage (D.K. Ching p. 99) [A] Merlon [B] Crenels [C] Battlement [D] Portcullis</t>
+  </si>
+  <si>
+    <t>A large hall serving as the main or central gathering space of a castle (D.K. Ching p. 99) [A] Chapel [B] Great Hall [C] Ward [D] Keep</t>
+  </si>
+  <si>
+    <t>A bridge that can be raised, let down or drawin aside to preven access or to permit passage between it (D.K. Ching p. 99) [A] Moat [B] Eyelet [C] Drawbridge [D] Loophole</t>
+  </si>
+  <si>
+    <t>A dark, often underground prison or cell as in a mediaval castle (D.K. Ching p. 99) [A] Obliette [B] Machicolation [C] Dungeon [D] Ward</t>
+  </si>
+  <si>
+    <t>A tent of the American Indians, made usually from animal skins laid on a conical frame of long poles and having an opening at the top for ventilation and flap door (D.K. Ching p. 136) [A] Tepee [B] Igloo [C] Wigwam [D] Yurt</t>
+  </si>
+  <si>
+    <t>An eskimo house, usually built of blocks of ice in the shape of a dome (D.K. Ching p. 136) [A] Tepee [B] Igloo [C] Wigwam [D] Yurt</t>
+  </si>
+  <si>
+    <t>A vault or chamber in a rampart, having embrasures for artillery (D.K. Ching p. 98) [A] Shoulder [B] Face [C] Flank [D] Casemate</t>
+  </si>
+  <si>
+    <t>A circular tentlike dwelling of the Mongol nomads of central Asia, consisting of cylindrical wall of poles with a conical roof of poles. (D.K. Ching p. 136) [A] Tepee [B] Igloo [C] Wigwam [D] Yurt</t>
+  </si>
+  <si>
+    <t>A small, simple dwelling or shelter, especially one made of natural materials (D.K. Ching p. 136) [A] Pit Dwelling [B] Hut [C] Longhouse [D] Pueblo</t>
+  </si>
+  <si>
+    <t>A broad, deep ditch usually filled with water, sorrounding the rampart of a fortified town, fortress or castles as protection againsts assault (D.K. Ching p. 99) [A] Moat [B] Eyelet [C] Drawbridge [D] Loophole</t>
+  </si>
+  <si>
+    <t>A small or narrow opening in a wall of a fortification for the discharge of missles (D.K. Ching p. 99) [A] Moat [B] Eyelet [C] Drawbridge [D] Loophole</t>
+  </si>
+  <si>
+    <t>A small aperture in the wall of a medieval castle used as a window or loophole. (D.K. Ching p. 99) [A] Moat [B] Eyelet [C] Drawbridge [D] Loophole</t>
+  </si>
+  <si>
+    <t>A secret dungeon having an opening only in the ceiling though which prisoners were dropped (D.K. Ching p. 99) [A] Obliette [B] Machicolation [C] Dungeon [D] Ward</t>
+  </si>
+  <si>
+    <t>A primitive form of shelter consisting of a pit excavated in earth and roofed over. (D.K. Ching p. 136) [A] Pit Dwelling [B] Hut [C] Longhouse [D] Pueblo</t>
+  </si>
+  <si>
+    <t>A communal dwelling characteristics of many early cultures that of the Iroquols and various other North American Indian peoples, consisting of a wooden bark-covered framework often as much as 100 feet (D.K. Ching p. 136) [A] Pit Dwelling [B] Hut [C] Longhouse [D] Pueblo</t>
+  </si>
+  <si>
+    <t>A communal dwelling and defensive structure of the Pueblo Indians of Southern US built of adobe or stone, typically many storied, and terraced, with entry through the flat roofs (D.K. Ching p. 136) [A] Pit Dwelling [B] Hut [C] Longhouse [D] Pueblo</t>
+  </si>
+  <si>
+    <t>A large, usually rectangular house, constructed of timber plants, built and used by indians and less by eskimos (D.K. Ching p. 136) [A] Trullo [B] Pueblo [C] Igloo [D] Plank House</t>
+  </si>
+  <si>
+    <t>A circular stone shelter of the apulla region of southern italy, roofer with conical constructions of corbeled dry masonry. Usually whitewashed and painted with figures or symbols (D.K. Ching p. 136) [A] Trullo [B] Pueblo [C] Igloo [D] Plank House</t>
+  </si>
+  <si>
+    <t>The main or central inner hall of an ancient roman house, open to the sky at the center and usually having a pool for the collection of rainwater. It is also called as caveadium (D.K. Ching p. 137) [A] Atrium [B] Ambulatory [C] Impluvium [D] Compluvium</t>
+  </si>
+  <si>
+    <t>A colonnade sorrounding a building or a courtyard (D.K. Ching p. 137) [A] Prostyle [B] Peristyle [C] Stylobate [D] Sterobate</t>
+  </si>
+  <si>
+    <t>A roof opening in an ancient roman house though which rainwater discharges into a cistern in the atrium beneath it (D.K. Ching p. 137) [A] Impluvium [B] Compluvium [C] Lacus [D] Salientes</t>
+  </si>
+  <si>
+    <t>A thick straw mat, covered with smooth, finely woven reeds and bound with plain or decorated bands of silk, cotton or hemp. Serving as a floor covering and a standard for designating room size for Japanese Houses (D.K. Ching p. 137) [A] Tatami [B] Engawa [C] Shoji [D] Kakemono</t>
+  </si>
+  <si>
+    <t>Extension of the floor on one or more slides of a japanese style house, usually facing a garden and serving as a passageway or sitting space (D.K. Ching p. 137) [A] Tatami [B] Engawa [C] Shoji [D] Kakemono</t>
+  </si>
+  <si>
+    <t>A vertical hanging scroll containing either text or painting, intended to be viewed on a wall and rolled when not it use (D.K. Ching p. 137) [A] Tatami [B] Engawa [C] Shoji [D] Kakemono</t>
+  </si>
+  <si>
+    <t>One of a series of sliding translucebt panels used in japanese architecture between the exterior and interior, or between two interior spaces, consisting of light wooden framework covered on one side with rice paper. (D.K. Ching p. 137) [A] Tatami [B] Engawa [C] Shoji [D] Kakemono</t>
+  </si>
+  <si>
+    <t>A ceremonial site of japanese residential architecture in the kamakura period, deriving its name from the characteristic of shoin or study bay and mark by heirarchical arrangement of public and private rooms (D.K. Ching p. 137) [A] Zashiki [B] Shoin Zukuri [C] Cha Sit Su [D] Masu Gumi</t>
+  </si>
+  <si>
+    <t>Reception room, the main room of a traditional japanese house, used for receiving and entertaining guests (D.K. Ching p. 137) [A] Zashiki [B] Shoin Zukuri [C] Cha Sit Su [D] Masu Gumi</t>
+  </si>
+  <si>
+    <t>A recess with built in shelving, usually adjoined with Tokonama (D.K. Ching p. 137) [A] Shoin [B] Cha Sit Su [C] Tana [D] Masu Gumi</t>
+  </si>
+  <si>
+    <t>An elevated bay or projected desk for wrting or reading, usually placed at right angle with a tokonama in the reception room of a shoin-zukuri style residence (D.K. Ching p. 137) [A] Shoin [B] Cha Sit Su [C] Tana [D] Masu Gumi</t>
+  </si>
+  <si>
+    <t>A post marking the front of the partition between the tokonama and tana, sometimes of exquisite wood of particular grain and shape (D.K. Ching p. 137) [A] Ken [B] Cha Sit Su [C] Masu Gumi [D] Tokobashira</t>
+  </si>
+  <si>
+    <t>A linear unit for regulating column spacing in traditional japanese construction but later varying according to room width as determined by tatami units (D.K. Ching p. 137) [A] Ken [B] Cha Sit Su [C] Masu Gumi [D] Tokobashira</t>
+  </si>
+  <si>
+    <t>A house having no wall in common with another house (D.K. Ching p. 138) [A] Semi Detach Dwelling [B] Duplex [C] Triplex [D] Detached Building</t>
+  </si>
+  <si>
+    <t>A house joined a party wall to another house or row of houses (D.K. Ching p. 138) [A] Semi Detach Dwelling [B] Duplex [C] Triplex [D] Detached Building</t>
+  </si>
+  <si>
+    <t>A group of nearly 20th century architects, notable Frank Lloyd Wright who designed houses and other buildings with emphasized horizontal lines responding to the flatness of the midwestern prairie (D.K. Ching p. 138) [A] Les Ecoles Beaux Arts [B] Prairie School [C] Bauhaus [D] Chicago School</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Century Gothic"/>
       </rPr>
-      <t xml:space="preserve">A style of fine and appied art current in the late 19th and 20th century, characterized by fluid, undulating motifs, often derived from </t>
+      <t xml:space="preserve">Popular especially in first quarter of 20th century, usually having one or more and half stories, a widely bracketed </t>
     </r>
     <r>
       <rPr>
@@ -1755,7 +2016,7 @@
         <color theme="1"/>
         <rFont val="Century Gothic"/>
       </rPr>
-      <t>natural forms</t>
+      <t>gable roof, a large porch, and often built with rustic metals</t>
     </r>
     <r>
       <rPr>
@@ -1763,34 +2024,1067 @@
         <color theme="1"/>
         <rFont val="Century Gothic"/>
       </rPr>
-      <t xml:space="preserve"> (D.K. Ching p. 134) [A] Arts and Crafts [B] Art Noveau [C] Bauhaus [D] Les Ecoles Beaux Arts</t>
+      <t xml:space="preserve"> (D.K. Ching p. 138) [A] Split Level [B] Duplex [C] Bungalow [D] Apartment</t>
     </r>
   </si>
   <si>
-    <t>A lady's private chamber in a medieval castle (D.K. Ching p. 99) [A] Bower [B] Postern [C] Necessarium [D] Brattice</t>
-  </si>
-  <si>
-    <t>It is the italian version of Art Noveaum named after the firm of liberty and co. in London (D.K. Ching p. 134) [A] Jugendstil [B] Stile Liberty [C] Sezession [D] Modernismo</t>
-  </si>
-  <si>
-    <t>The spanish particularly Catalan version of Art Noveau (D.K. Ching p. 134) [A] Jugendstil [B] Stile Liberty [C] Sezession [D] Modernismo</t>
-  </si>
-  <si>
-    <t>A temporary wooden fortification in medieval architecture. Erected at the top of a wall during a siege (D.K. Ching p. 99) [A] Bower [B] Postern [C] Necessarium [D] Brattice</t>
-  </si>
-  <si>
-    <t>The austrian version of Art Noveau, so named because its adherents succeeded from the official academy of art in Viena (D.K. Ching p. 134) [A] Jugendstil [B] Stile Liberty [C] Sezession [D] Modernismo</t>
-  </si>
-  <si>
-    <t>A school of design establish in Welmar Germany in 1919. moved to Dessau in 1926 and closed in 1933 as a result of Nazi Hostility. It characterized by the synthesis of technology, craft and design aesthetics with an emphasis on functionalism. (D.K. Ching p. 135) [A] Art Noveau [B] Bauhaus [C] Art Deco [D] Arts and Crafts</t>
-  </si>
-  <si>
+    <t>A house having a room or rooms somewhat above or below adjacent rooms, with the floor levels usually differing by approximately half a story (D.K. Ching p. 138) [A] Split Level [B] Duplex [C] Bungalow [D] Apartment</t>
+  </si>
+  <si>
+    <t>A two storey house having the lower level sunken below grade and an entry at grade halfway between the two floor intervals (D.K. Ching p. 138) [A] High Rise [B] Skyscrapper [C] Spilt Level [D] Bi-Level</t>
+  </si>
+  <si>
+    <t>A building having thre apartments, an aparment having three floors or a multiplex of three theaters (D.K. Ching p. 138) [A] Duplex [B] Triplex [C] Split Level [D] Bi-Level</t>
+  </si>
+  <si>
+    <t>A house having separate apartments for two families, especially a two storey house having a complete apartment on each floor and two separate entrances (D.K. Ching p. 138) [A] Duplex [B] Triplex [C] Split Level [D] Bi-Level</t>
+  </si>
+  <si>
+    <t>A house forming part of a real state development, usually having a plan and apperance common to some or all of the houses in the development (D.K. Ching p. 138) [A] Saltbox [B] Cape Code [C] Tract House [D] Rambler</t>
+  </si>
+  <si>
+    <t>One storey house with a low pitched roof especially one built in suburbs (D.K. Ching p. 138) [A] Duplex [B] Triplex [C] Split Level [D] Bi-Level</t>
+  </si>
+  <si>
+    <t>True or False, "Housing Unit" is a house, apartment, suite of rooms, or a single room, occupied or intended for occupancy as separate living quarters (D.K. Ching p. 139) [A] True [B] False</t>
+  </si>
+  <si>
+    <t>An apartment house, office building or other multiple unit complexes, the units of which are individually owned, each owner receiving a recordable deed to the individual unit purchased (D.K. Ching p. 139) [A] Townhouse [B] Condominium [C] Bungalow [D] Duplex</t>
+  </si>
+  <si>
+    <t>One of a row of houses in a cit joined by common sidewalls (D.K. Ching p. 139) [A] Townhouse [B] Condominium [C] Bungalow [D] Duplex</t>
+  </si>
+  <si>
+    <t>One of a row of houses having atleast one sidewall in common with a neighboring unit, and usually uniform or nearly uniform plans, fenestrations, and architectural treatment (D.K. Ching p. 139) [A] Townhouse [B] Condominium [C] Rowhouses [D] Duplex</t>
+  </si>
+  <si>
+    <t>An apartment consisting of a single multifunctional room, a kitchen or kitchenette, and a bathroom. Also called as efficiency apartment (D.K. Ching p. 139) [A] Garden Apartment [B] Studio Apartment [C] Penthouse [D] Flat</t>
+  </si>
+  <si>
+    <t>An apartment or suite of rooms on one floor forming a residence (D.K. Ching p. 139) [A] Garden Apartment [B] Studio Apartment [C] Penthouse [D] Flat</t>
+  </si>
+  <si>
+    <t>An apartment on residence on the top floor or roof of a building. Often set back from the outer walls and opening onto a terrace (D.K. Ching p. 139) [A] Garden Apartment [B] Studio Apartment [C] Penthouse [D] Flat</t>
+  </si>
+  <si>
+    <t>A row of houses or residential street on or near the top of a slope (D.K. Ching p. 139) [A] Crescent [B] Terrace [C] Cluster Housing [D] None of the above</t>
+  </si>
+  <si>
+    <t>The crowning member of a classical cornice, usually a cyma recta (D.K. Ching p. 179) [A] Cornice [B] Stylobate [C] Plinth [D] Cymatium</t>
+  </si>
+  <si>
+    <t>It is the most uppermost member of the classical entablature, consisting of a corona, cymatium and bed moulding (D.K. Ching p. 179) [A] Pediment [B] Frieze [C] Cornice [D] Architrave</t>
+  </si>
+  <si>
+    <t>A horizontal section of a classical order that rests on columns, made up of cornice, architrave and frieze (D.K. Ching p. 179) [A] Entablature [B] Pediment [C] Sterobate [D] Shaft</t>
+  </si>
+  <si>
+    <t>A horizontal part of a classical entablature, rest on the middle of the cornice and the architrave (D.K. Ching p. 179) [A] Frieze [B] Pediment [C] Stylobate [D] Plinth</t>
+  </si>
+  <si>
+    <t>The lower portion of a classical entablature (D.K. Ching p. 179) [A] Pediment [B] Cornice [C] Plinth [D] Architrave</t>
+  </si>
+  <si>
+    <t>It is the central part of a column (D.K. Ching p. 179) [A] Shaft [B] Plinth [C] Base [D] Corona</t>
+  </si>
+  <si>
+    <t>It is the upper end of a column, also noted as a crowning member (D.K. Ching p. 179) [A] Plinth [B] Corona [C] Cornice [D] Capital</t>
+  </si>
+  <si>
+    <t>A cylindrical support member in classical architecture is (D.K. Ching p. 179) [A] Base [B] Pedestal [C] Column [D] Architrave</t>
+  </si>
+  <si>
+    <t>Square slab beneath the base of a column is (D.K. Ching p. 179) [A] Crepidoma [B] Cornice [C] Plinth [D] Podium</t>
+  </si>
+  <si>
+    <t>A construction upon which a column, stature or memorial shaft or the like is elevated  (D.K. Ching p. 179) [A] Base [B] Pedestal [C] Column [D] Architrave</t>
+  </si>
+  <si>
+    <t>The lowest portion of a column, pier or wall is  (D.K. Ching p. 179) [A] Base [B] Pedestal [C] Column [D] Architrave</t>
+  </si>
+  <si>
+    <t>The projecting slablike member of a classical cornice supported by a bed moulding  (D.K. Ching p. 179) [A] Cyma reversa [B] Corona [C] Lattice [D] Frieze</t>
+  </si>
+  <si>
+    <t>Two columns and pilasters closed together, it is: (D.K. Ching p. 179) [A] Intercolumnation [B] Columnation [C] Accouplement [D] Bank</t>
+  </si>
+  <si>
+    <t>Underside of a slab or a beam (D.K. Ching p. 180) [A] Access Flooring [B] Soffit [C] Dropped Ceiling [D] Girder</t>
+  </si>
+  <si>
+    <t>Animal carved figure in a frieze is called: (D.K. Ching p. 180) [A] Mutule [B] Triglyph [C] Zophorus [D] Entasis</t>
+  </si>
+  <si>
+    <t>Any of the panels, either plain or decorated between triglyphs in the doric frieze  (D.K. Ching p. 180) [A] Metope [B] Regula [C] Mutule [D] Voissors</t>
+  </si>
+  <si>
+    <t>A rounded channel or groove, also a decorative mottif in classical orders  (D.K. Ching p. 180) [A] Flute [B] Voussoirs [C] Shaft [D] Mutule</t>
+  </si>
+  <si>
+    <t>Projecting block under the corona of a doric cornice  (D.K. Ching p. 180) [A] Gutta [B] Regula [C] Mutule [D] Flutting</t>
+  </si>
+  <si>
+    <t>A classical order of the romans, characterized by unfluted column and a plain base  (D.K. Ching p. 180) [A] Composite [B] Corinthian [C] Ionic [D] Tuscan</t>
+  </si>
+  <si>
+    <t>A popular order in the renaissance period but made from ancient romans, and is also a modified version of the corinthian order  (D.K. Ching p. 180) [A] Tuscan [B] Etruscan [C] Corinthian [D] Composite</t>
+  </si>
+  <si>
+    <t>Order: 6th century asia minor, introduction of egg and dart mouldings, capital with spiral volutes  (D.K. Ching p. 181) [A] Doric [B] Tuscan [C] Corinthian [D] Ionic</t>
+  </si>
+  <si>
+    <t>Scroll, spiral in shape, usually seen in capitals of ionic, corinthian and composite orders (D.K. Ching p. 181) [A] Cantharus [B] Volutes [C] Voussoirs [D] Echinus</t>
+  </si>
+  <si>
+    <t>Ornamental motif for enrriching an ovolo or echinus, consisting of a closely set, alternating series of oval and pointed forms. (D.K. Ching p. 181) [A] Egg and dart [B] Papyrus [C] Egg and tongue [D] Dentil</t>
+  </si>
+  <si>
+    <t>One of the three horizontal bands making the architrave of the ionic order (D.K. Ching p. 181) [A] Fascia [B] Gutta [C] Tympanum [D] None of the above</t>
+  </si>
+  <si>
+    <t>ornamental bracket, usually in the form of a scroll with acanthus, used in series beneath the corona of a corinthian, composite or roman ionic orders (D.K. Ching p. 181) [A] Mutule [B] Modillion [C] Corona [D] None of the above</t>
+  </si>
+  <si>
+    <t>Circular moldings under the cushions of an ionic capital between the volutes (D.K. Ching p. 181) [A] Abacus [B] Fillet [C] Echinus [D] None of the above</t>
+  </si>
+  <si>
+    <t>narrow part of the surface of a column left between adjoining flutes (D.K. Ching p. 181) [A] Fillet [B] Chamfer [C] Triglyph [D] Metope</t>
+  </si>
+  <si>
+    <t>A large convex, semicircular molding. Commonly found directly above the plinth of the base of a classical column (D.K. Ching p. 181) [A] Stylobate [B] Sterobate [C] Torus [D] Scotia</t>
+  </si>
+  <si>
+    <t>A deep concave moulding between two fillets (D.K. Ching p. 181) [A] Torus [B] Scotia [C] Stylobate [D] Stereobate</t>
+  </si>
+  <si>
+    <t>Ornamental stalks rising between the acanthus leaves of a corinthian capital (D.K. Ching p. 181) [A] Cauliculus [B] Helix [C] Entasis [D] Cymatium</t>
+  </si>
+  <si>
+    <t>In the five orders, it is the most ornate developed by the greeks and used more extensively by the romans (D.K. Ching p. 181) [A] Doric [B] Ionic [C] Corinthian [D] Composite</t>
+  </si>
+  <si>
+    <t>A pictorial sign or symbol is (D.K. Ching p. 182) [A] Mosaic [B] Grafitti [C] Pictograph [D] Relief</t>
+  </si>
+  <si>
+    <t>Ancient drawings or writings scratched on stones, plaster or other hard surface  (D.K. Ching p. 182) [A] grafitti [B] grafitto [C] bas relief [D] mosaic</t>
+  </si>
+  <si>
+    <t>A picture made of little pieces of tile, enamel or glass or even mortar  (D.K. Ching p. 182) [A] Mosaic [B] Heiroglyphics [C] Fresco [D] Mural</t>
+  </si>
+  <si>
+    <t>Projection of a figure or form from the first background on which it is formed  (D.K. Ching p. 182) [A] Bas relief [B] relief [C] Mural [D] fresco</t>
+  </si>
+  <si>
+    <t>scultural relief that projects very slightly from the background  (D.K. Ching p. 182) [A] Bas Relief [B] Grafitti [C] Pictograph [D] Relief</t>
+  </si>
+  <si>
+    <t>large painted pictures on a wall or ceiling surfaces is  (D.K. Ching p. 182) [A] Fresco [B] Murals [C] Lacunaria [D] Cofferdome</t>
+  </si>
+  <si>
+    <t>Gargoyles in gothic architecture are considered what kind of ornament? (D.K. Ching p. 183) [A] Antic [B] Fresco [C] Grafitti [D] Mural</t>
+  </si>
+  <si>
+    <t>Latin cross with a ring in its shaft is:  (D.K. Ching p. 183) [A] Celtic Cross [B] Greek Cross [C] Jerusalem Cross [D] none of the above</t>
+  </si>
+  <si>
+    <t>Any mosaic of regularly cut material  (D.K. Ching p. 182) [A] Opus sectile [B] Opus mixtum [C] Opus recticulatum [D] Opus Alexandrinum</t>
+  </si>
+  <si>
+    <t>A mosaic of tessera arranged in waving lines resembling the form tracks of a worm  (D.K. Ching p. 182) [A] Opus Quadratum [B] Opus recticulatum [C] Opus Mixtum [D] Opus Vermiculatum</t>
+  </si>
+  <si>
+    <t>A kind of cross with a shorter horizontal bar and an upright vertical shaft  (D.K. Ching p. 183) [A] Greek Cross [B] Celtic Cross [C] Latin Cross [D] Jerusalem Cross</t>
+  </si>
+  <si>
+    <t>The symbol of red cross is:  (D.K. Ching p. 183) [A] Jerusalem Cross [B] Greek Cross [C] Latin Cross [D] Celtic Cross</t>
+  </si>
+  <si>
+    <t>a decorative design contained within a band or bonier, consisting of repeated, often geometric features. Also called as fret (D.K. Ching p. 183) [A] Scultured Relief [B] Key Pattern [C] Lotus [D] Papyrus</t>
+  </si>
+  <si>
+    <t>Common ornament used in heraldic bearings for the royal families in francem usually three petaled flowers  (D.K. Ching p. 183) [A] Anthemion [B] Honeysuckle [C] Fleur de Lis [D] Lotus</t>
+  </si>
+  <si>
+    <t>Ornament with palm leaves in a radiating center  (D.K. Ching p. 183) [A] Antefixae [B] Anthemion [C] Acroterion [D] Echinus</t>
+  </si>
+  <si>
+    <t>verious aquatic plants in the water lily family, used as decorative motif in egypt, hindu art and architecture  (D.K. Ching p. 183) [A] Papyrus [B] Lotus [C] Palm [D] Echinus</t>
+  </si>
+  <si>
+    <t>art or technique of painting on a freshly spread, moist plaster surface with pigments ground up in water or limewater mixture  (D.K. Ching p. 183) [A] Bas-Relief [B] Plaster Ground [C] Fresco [D] Grouting</t>
+  </si>
+  <si>
+    <t>Double curve moulding, and also called as gula  (D.K. Ching p. 183) [A] Fillet [B] Trimmer [C] Ogee [D] Cavetto</t>
+  </si>
+  <si>
+    <t>moulding with concave and convex line joints together is:  (D.K. Ching p. 183) [A] Cavetto [B] Cortel [C] Cyma [D] Ogee</t>
+  </si>
+  <si>
+    <t>A cyma having the concave part projecting beyond the convex part is  (D.K. Ching p. 183) [A] Cyma Recta [B] Ogee [C] Astragal [D] Cyma reversa</t>
+  </si>
+  <si>
+    <t>A cyma having the convex part projecting beyond the concave part is  (D.K. Ching p. 183) [A] Astragal [B] Ogee [C] Cyma reversa [D] Cyma recta</t>
+  </si>
+  <si>
+    <t>small convex molding usually semi circular in section  (D.K. Ching p. 183) [A] Astragal [B] Bead [C] Baguette [D] None of the above</t>
+  </si>
+  <si>
+    <t>A convex molding having a profile approximately quarter section of a circle or ellipse  (D.K. Ching p. 183) [A] Ovolo [B] Cavetto [C] Ogee [D] Cyma</t>
+  </si>
+  <si>
+    <t>Smaller than astragal, small convex molding of semi circular section  (D.K. Ching p. 183) [A] Ogee [B] Bead [C] Baguette [D] Astragal</t>
+  </si>
+  <si>
+    <t>An ornamental bracket, usually formed with scrolls and higher than its projection (D.K. Ching p. 186) [A] Plinth [B] Frieze [C] Console [D] Architrave</t>
+  </si>
+  <si>
+    <t>a molded or decoration band framing a rectangular door or window opening  (D.K. Ching p. 186) [A] Pediment [B] Entablature [C] Architrave [D] Base</t>
+  </si>
+  <si>
+    <t>A decorative brand, as one along the top of an interior wall, immediately below the cornice or a sculptured one in a string course on an outside wall  (D.K. Ching p. 186) [A] Cornice [B] Corona [C] Frieze [D] Architrave</t>
+  </si>
+  <si>
+    <t>The man of learning can fearlessly look down upon the troublesome accidents of fortune. But he who thinks himself entrenched in defense not of learning but of luck moves one slippery path, struggling through life unsteadly and insecurely [A] A new archirecture by Frank Lloyd Wright [B] The ten books of Architecture by Marc Vitrivius [C] Space, Time and Architecture by Sigfried Gideon [D] The Poetry of Architecture by John Ruskin</t>
+  </si>
+  <si>
+    <t>PD 957, In design standards for residential condominium Projects, offsite parking is allowed but must not be more how many meters from the building it serves? [A] 31 Meters [B] 50 Meters [C] 100 Meters [D] 150 Meters</t>
+  </si>
+  <si>
+    <t>When the owner hires an architect of firm to coordinate the whole range of comprehensive services it shall constitute [A] Design Build Services [B] Labor Supervision [C] Project Management [D] Construction Management</t>
+  </si>
+  <si>
+    <t>An english architect who prepared plans for london i.e. St, Peter's and St. Paul Cathedral; proposed a network of avenues connecting the main features of London [A] Leonardo Da Vinci [B] Leon Battista Alberti [C] Pierre Charles L` Enfant [D] Sir Christopher Wren</t>
+  </si>
+  <si>
+    <t>It is the third phase of English Gothic Architecture where elaborated ornamental vaulting and refinement of stonecutting techniques [A] Perpendicular Style [B] Reyonnant Style [C] Rococo [D] Decorated Style</t>
+  </si>
+  <si>
+    <t>The memorial column built in the form of tall doric order and made entirely of marble is: [A] Column of Antoninus Pius [B] Trajan's Column [C] Column of Marcus Aurelius [D] Column of Diocletian</t>
+  </si>
+  <si>
+    <t>Pertaining to religious objects, rites or practices, as opposed to the secular or profane (D.K. Ching p. 248) [A] Secular [B] Parliament [C] Sacred [D] All of the above</t>
+  </si>
+  <si>
+    <t>A temple tower pressumed to be the great ziggurat at babylon, which no longer survives, though it was seen and described by the greek historian herodotus in the 5th century BC (D.K. Ching p. 248) [A] Temple of Agamemnon [B] Tower of Babel [C] Hanging Gardens [D] Great Pyramid of Amon Karnak</t>
+  </si>
+  <si>
+    <t>Monumental stone sculptures of human-headed, winged bulls or lines that guard the entrances to mesopotamia palaces and temples (D.K. Ching p. 248) [A] Dragon [B] Lamassu [C] Heiroglyphics [D] Criosphinx</t>
+  </si>
+  <si>
+    <t>A prehistoric monument consisting of two or more large upright stones supporting a horizontal stone slab. Commonly found in Great Britain (D.K. Ching p. 248) [A] Menhir [B] Dolmen [C] Tumuli [D] Stupa</t>
+  </si>
+  <si>
+    <t>A prehistoric monument consisting of an upright magalithic, usually standing alone but sometimes aligned with others (D.K. Ching p. 248) [A] Stupa [B] Tumuli [C] Dolmen [D] Menhir</t>
+  </si>
+  <si>
+    <t>Very large stone used as found or roughly dressed (D.K. Ching p. 248) [A] Monolith [B] Megalith [C] Neolithic [D] Paleolithic</t>
+  </si>
+  <si>
+    <t>Obelisk is one of the elements of muslim architecture, but what kind of stone it is? (D.K. Ching p. 248) [A] Monolith [B] Neolithic [C] Paleolithic [D] Megalith</t>
+  </si>
+  <si>
+    <t>An artificial mound of earth or stone, especially over an ancient grave. (D.K. Ching p. 248) [A] Tumulus [B] Cromlech [C] Menhir [D] Stupa</t>
+  </si>
+  <si>
+    <t>Stonehenge is a circular formation of formed dolmens which was used by our old ancestral humans to determine sunpath, and time. What kind of term should be used for stonehenge? (D.K. Ching p. 248) [A] Menhir [B] Tumulus [C] Cromlech [D] Dromos</t>
+  </si>
+  <si>
+    <t>A long deep passageway into an ancient subterranean tomb (D.K. Ching p. 248) [A] Domus [B] Dromos [C] Aqueducts [D] Cloisters</t>
+  </si>
+  <si>
+    <t>Two upright megaliths supporting a horizontal stone. (D.K. Ching p. 248) [A] Menhir [B] Cromlech [C] Trilithon [D] Dromos</t>
+  </si>
+  <si>
+    <t>The small chamber, underground below a mastaba in egyptian architecture (D.K. Ching p. 249) [A] Dolmen [B] Tumuli [C] Serdab [D] Seraglio</t>
+  </si>
+  <si>
+    <t>A tall four sided shaft of stone that tapers as it rises to a pyramidial point. Originating in ancient egypt as a sacred symbol for the sund god Ra and usually standing in pairs astride temple entrances (D.K. Ching p. 249) [A] Pylons [B] Minarets [C] Serdabs [D] Obelisks</t>
+  </si>
+  <si>
+    <t>A hirstoric burial ground, a large elaborate one of an ancient city. Can be called as "city of the dead" (D.K. Ching p. 249) [A] Acropolis [B] Persepolis [C] Necropolis [D] Heliopolis</t>
+  </si>
+  <si>
+    <t>A concave moulding having an outline that approximates a quartercircle (D.K. Ching p. 249) [A] Cortel [B] Cavetto [C] Cyma Reversa [D] Cyma Recta</t>
+  </si>
+  <si>
+    <t>A monumental gateway for egyptian to ancent temple (D.K. Ching p. 249) [A] Propylaea [B] Torii [C] Goppuram [D] Pylon</t>
+  </si>
+  <si>
+    <t>Noting an ancient egyptian column having as its capital the head of hathor. But who is hathor in the ancient world? (D.K. Ching p. 249) [A] Goddes of War [B] Goddess of Victory [C] Goddess of Love and Happiness [D] Goddess of Fortune</t>
+  </si>
+  <si>
+    <t>A figure of imaginary creature having the body of a lion and the hard of a man, ram or hawk commonly placed un the avenues leading to an ancient temples or tombs (D.K. Ching p. 249) [A] Lamella [B] Sphinx [C] Syrinx [D] Pylons</t>
+  </si>
+  <si>
+    <t>A building or semi independent unit of a building, typically having a rectangular principal chamber with a center hearth and a porch. Commonly in greece and mycenae and is usually formed with doric order columns (D.K. Ching p. 250) [A] Insula [B] Villa [C] Megaron [D] Tumulus</t>
+  </si>
+  <si>
+    <t>A principal chamber or enclosed part of a classical temple, where the cult image was kept. Also called as naos (D.K. Ching p. 250) [A] Cancelli [B] Nave [C] Cella [D] Plinth</t>
+  </si>
+  <si>
+    <t>Greek Temples are designed for: (D.K. Ching p. 250) [A] Internal Effect [B] Internal Worship [C] Dedicated to Greek God or Goddesses [D] All of the above</t>
+  </si>
+  <si>
+    <t>A wide low pitch gable sorrounding a colonnade or a major division of a façade in greek and roman temples (D.K. Ching p. 250) [A] Architrave [B] Entrablature [C] Pediment [D] Tympanum</t>
+  </si>
+  <si>
+    <t>The rear vestibule of a classical temple (D.K. Ching p. 250) [A] Naos [B] Cella [C] Epinaos [D] Temenos</t>
+  </si>
+  <si>
+    <t>The open vestubule before the cella of a classical temple (D.K. Ching p. 250) [A] Naos [B] Epinaos [C] Pronaos [D] Nave</t>
+  </si>
+  <si>
+    <t>An upright stone slab or pillar with a carved or inscribed surfaced, used as a monument or marker (D.K. Ching p. 250) [A] Pylon [B] Menhir [C] Stele [D] Minarets</t>
+  </si>
+  <si>
+    <t>An elevated place or structure where rituals and sacrifices are made (D.K. Ching p. 250) [A] Sanctuary [B] Altar [C] Baldachino [D] Stele</t>
+  </si>
+  <si>
+    <t>It served as a model for early christian basilicas and typically having a high central space lit by clerestory and covered by timbered trusses, and a raised dais in a semi circular apse (D.K. Ching p. 251) [A] Church [B] Basilica [C] Forum [D] Agora</t>
+  </si>
+  <si>
+    <t>It is the center of judicial and business affairs for the ancient roman people. Usually have a temple and a basilica (D.K. Ching p. 251) [A] Agora [B] Stoa [C] Forum [D] Piazza</t>
+  </si>
+  <si>
+    <t>A raised platform in an ancient roman basilica for the seats of magistrates (D.K. Ching p. 251) [A] Skene [B] Exedrae [C] Tribunal [D] Plinth</t>
+  </si>
+  <si>
+    <t>Monumental memorial erected astride the line of march of a victorious army during its campaign (D.K. Ching p. 251) [A] Rostral Column [B] Cenotaphs [C] Triumphal Arch [D] Obelisks</t>
+  </si>
+  <si>
+    <t>A roman  temple which is wholly or partly open to the sky (D.K. Ching p. 251) [A] Cleretory [B] Hypostyle Hall [C] Clerestory [D] Hypethral</t>
+  </si>
+  <si>
+    <t>Temples having engaged columns at its sides (D.K. Ching p. 251) [A] Prostyle [B] Pteroma [C] Pseudo-peripteral [D] Amphi-prostyle</t>
+  </si>
+  <si>
+    <t>temples with 2 rows of columns on all sides (D.K. Ching p. 251) [A] Diastyle [B] Dipteral [C] Prostyle [D] Pteroma</t>
+  </si>
+  <si>
+    <t>having an arrangement of columns suggesting a dipteral structure but without the inner colonade (D.K. Ching p. 251) [A] Pseudo-Dipteral [B] Amphi-Prostyle [C] Diastyle [D] Systyle</t>
+  </si>
+  <si>
+    <t>Having a portico in the front side only (D.K. Ching p. 251) [A] Peripteral [B] Prostyle [C] Picnostyle [D] Areostyle</t>
+  </si>
+  <si>
+    <t>Without colonade along the sides (D.K. Ching p. 251) [A] Amphi-prostyle [B] Dipteral [C] Apteral [D] Eustyle</t>
+  </si>
+  <si>
+    <t>Prostyle on both sides (D.K. Ching p. 251) [A] Pseudo-Dipteral [B] Pseudo-Peripteral [C] Amphi-Prostyle [D] Apteral</t>
+  </si>
+  <si>
+    <t>Masjid in muslim architecture is also called as (D.K. Ching p. 252) [A] Minarets [B] Dromos [C] Mosques [D] Pylons</t>
+  </si>
+  <si>
+    <t>A muslim theological school arranged around a courtyard and attached to a masjid (D.K. Ching p. 252) [A] Minaret [B] Mimbar [C] Madrassah [D] Pylon</t>
+  </si>
+  <si>
+    <t>A large open square of a city used as a market place especially in india (D.K. Ching p. 252) [A] Forum [B] Agora [C] Piazza [D] Meidan</t>
+  </si>
+  <si>
+    <t>A large vaulted opening onto the central courtyard of a mosque (D.K. Ching p. 252) [A] Meidan [B] Iwan [C] Koran [D] Qibla</t>
+  </si>
+  <si>
+    <t>In muslim architecture, it is considered as the pulpit in early christial architecture (D.K. Ching p. 252) [A]Mirhab [B] Mimbar [C] Apse [D] Nave</t>
+  </si>
+  <si>
+    <t>A niche or decorative panel in a mosque designating the qibla (D.K. Ching p. 252) [A] Mimbar [B] Koran [C] Minaret [D] Mihrab</t>
+  </si>
+  <si>
+    <t>The central courtyard of a mosque (D.K. Ching p. 252) [A] Cortel [B] Piazza [C] Sahn [D] Patio</t>
+  </si>
+  <si>
+    <t>Mandira is (D.K. Ching p. 253) [A] Chinese Temple [B] Islamic Temple [C] Hindu Temple [D] Buddhist Temple</t>
+  </si>
+  <si>
+    <t>the oldest sacred writings in hinduism (D.K. Ching p. 253) [A] Heiroglyphics [B] Vedas [C] Alibata [D] Cuneiform</t>
+  </si>
+  <si>
+    <t>A freestanding memorial pillar in indian architecture. (D.K. Ching p. 253) [A] Pylons [B] Obelisks [C] Rostral Column [D] Stambha</t>
+  </si>
+  <si>
+    <t>An elaborately carved, ceremonial gateway in indian buddhist and hindu architecture (D.K. Ching p. 253) [A] Gopuram [B] Torana [C] Torii [D] Pai-Lou</t>
+  </si>
+  <si>
+    <t>Sanctuary of a hindu temple in which a deity is enshrined (D.K. Ching p. 253) [A] Cenotaphs [B] Stupa [C] Vimana [D] Sikhara</t>
+  </si>
+  <si>
+    <t>A tower of hindu temple, usually tapered convexly and capped by an amalaka (D.K. Ching p. 253) [A] Stupa [B] Torana [C] Gopuram [D] Sikhara</t>
+  </si>
+  <si>
+    <t>A monument, usually ornate gateway tower to a hindu temple, especially in southern india (D.K. Ching p. 253) [A] Gopuram [B] Torana [C] Torii [D] Propylaea</t>
+  </si>
+  <si>
+    <t>consist of artificially dome shaped mound raised in a platform, noted as a buddhist memorial mound erected to enshrined a relic. Called as dagoba in ceylon, dagoba in nepal. (D.K. Ching p. 253) [A] Minaret [B] Obelisks [C] Stupa [D] Sikhara</t>
+  </si>
+  <si>
+    <t>8 sided structure, erected as a memorial or to hold relics and is made of wood (D.K. Ching p. 254) [A] Pagoda [B] Stupa [C] Sikhara [D] Pai Lou</t>
+  </si>
+  <si>
+    <t>A monumental, freestanding gateway on the approach of a shinto shrine. Usually having a lintel curving upward (D.K. Ching p. 254) [A] Torana [B] Pai Lou [C] Torii [D] Pylon</t>
+  </si>
+  <si>
+    <t>Assembly hall for monks in a japanese buddhist temple (D.K. Ching p. 254) [A] Cha-Sit-Su [B] Tokonama [C] Kodo [D] Kondo</t>
+  </si>
+  <si>
+    <t>Golden hall, the sanctuary where the main image of worship is kept in. Jodo, Shinsu, and Necheiren sects of buddhism use the term hondo for this sanctuary (D.K. Ching p. 254) [A] Forbidden City [B] Persepolis [C] Kondo [D] Sikhara</t>
+  </si>
+  <si>
+    <t>The covered gallery sorrounding a precint of a japanese temple or shrine (D.K. Ching p. 254) [A] Kairo [B] Cairo [C] Kondo [D] Kodo</t>
+  </si>
+  <si>
+    <t>A structure from which the temple bell is hung in japanese architecture (D.K. Ching p. 254) [A] Spire [B] Shoro [C] Tokonama [D] Pylon</t>
+  </si>
+  <si>
+    <t>the hall of worship inside a shinto shrine (D.K. Ching p. 254) [A] Hikari [B] Kondo [C] Haiden [D] Cha-Sit-Su</t>
+  </si>
+  <si>
+    <t>Main sanctuary of a shinto shrine (D.K. Ching p. 254) [A] Masugumi [B] Tokonama [C] Konden [D] Kokoro</t>
+  </si>
+  <si>
+    <t>Which of the following is not true regarding greek and roman theaters? (D.K. Ching p. 256) [A] Greek theaters are usually located in a slope of a downhill, and Is backed by a skene. [B] Roman Theaters are build on level with ground, having a semi circular orchestra area [C] Greek and Roman theaters are open-air and is usually hollowed out [D] All of the about are true</t>
+  </si>
+  <si>
+    <t>A wedge shaped section of seats between two stepped passageways in an ancient greek theater (D.K. Ching p. 256) [A] Cercis [B] Velarium [C] Podium [D] Skene</t>
+  </si>
+  <si>
+    <t>A canvas awning drawn over an ancient roman amphitheater to protect the audience from rain or sun (D.K. Ching p. 256) [A] Thermae [B] Impluvium [C] Velarium [D] Canopy</t>
+  </si>
+  <si>
+    <t>A raised platform encircling the arena of an ancient roman amphitheater, having seats for privilaged people (D.K. Ching p. 256) [A] Podium [B] Plinth [C] Crepidoma [D] Base</t>
+  </si>
+  <si>
+    <t>What is the architectural style of the Barasoain Church's pediment? [A] Baroque [B] Romanesque [C] Rococo [D] Renaissance</t>
+  </si>
+  <si>
+    <t>What element of the facade (Barasoain Church) has the romanesque style? [A] Pilasters [B] Rose Window [C] Bell Tower [D] Door</t>
+  </si>
+  <si>
+    <t>What is the architectural style of the pilaster in the facade of Barasoain Church? [A] Anglo Saxon [B] Romanesque [C] Baroque [D] Gothic</t>
+  </si>
+  <si>
+    <t>Bernini's Royal Staircase at Vatican City, what is the style of its ceiling? [A] Cross Vault [B] Groin Vault [C] Sexpartite Vault [D] Barrel Vault</t>
+  </si>
+  <si>
+    <t>What type of order was used for the columns of Bermini's Royal Staircase? [A] Doric [B] Corinthian [C] Ionic [D] Composite</t>
+  </si>
+  <si>
+    <t>From what materials are the pyramids? [A] Stones [B] Marble [C] Clay [D] Bricks</t>
+  </si>
+  <si>
+    <t>What did the ancient egyptians used in lifting the materials of the pyramid? [A] Axe and Wooden Wheels [B] Lever [C] Wedge [D] Rope</t>
+  </si>
+  <si>
+    <t>What is the purpose of the flying butresses in Gothic Architecture? [A] Support the truss of the cathedral [B] Support the high wall and transfer the load to the ground [C] For Aesthetics [D] Intricate Favoritism</t>
+  </si>
+  <si>
+    <t>Industrial Revolution [A] 12th to 13th Century [B] 15th to 16th Century [C] 18th to 19th Century [D] 21th Century to the Present</t>
+  </si>
+  <si>
+    <t>Faux Arts is: [A] Decorative Arts [B] Immitation [C] Grandeur [D] Modern Arts</t>
+  </si>
+  <si>
+    <t>Where does muslim architecture originate? [A] Early Christian [B] Roman [C] Greek [D] Byzantine</t>
+  </si>
+  <si>
+    <t>What is the most predominant element feature in Muslim Architecture? [A] Pylons [B] Minarets [C] Ogee [D] Masjid</t>
+  </si>
+  <si>
+    <t>What design element of a Mosque summons the muslims for worship? [A] Qibla [B] Minaret [C] Mimbar [D] Pinnacles</t>
+  </si>
+  <si>
+    <t>It is the pulpit in Muslim Architecture [A] Qibla [B] Minaret [C] Masjid [D] Mimbar</t>
+  </si>
+  <si>
+    <t>Which become the first industrialized area in Manila? [A] Sta. Ana [B] Makati [C] Quezon City [D] Pandacan</t>
+  </si>
+  <si>
+    <t>During the 1900's why does the laborers and workers did not build their house inside Manila? [A] Because of Manila Zoning [B] Because of Himagsikan [C] Because of Local Ordinance [D] Because it's expensive to live there</t>
+  </si>
+  <si>
+    <t>Industrial Revolution [A] Railroads [B] Canal [C] Elevator [D] All of the above</t>
+  </si>
+  <si>
+    <t>Information about Otto Wagner, which is correct? [A] Jugendstil Architect [B] Rumbach St. Budapest [C] Majonga House [D] All of the above</t>
+  </si>
+  <si>
+    <t>What style mostly influences the churches in the philippines [A] Romanesque [B] Post Modern [C] Baroque [D] Renaissance</t>
+  </si>
+  <si>
+    <t>What do you call the recess found in the dome to make the structure lighter? [A] Podium [B] Coffers [C] Pendentive [D] Oculus</t>
+  </si>
+  <si>
+    <t>Tomb of standing stones usually capped with a large horizontal slab? [A] Menhir [B] Cromlech [C] Dolmen [D] Stonehenge</t>
+  </si>
+  <si>
+    <t>What style usually is influenced by Geometric Figures? [A] Renaissance [B] Gothic [C] Romanesque [D] All of the above</t>
+  </si>
+  <si>
+    <t>Who gave the statue of Liberty to the US? [A] Spain [B] France [C] Great Britain [D] Philippines</t>
+  </si>
+  <si>
+    <t>What do you call the corridor that radiates to the center? [A] Concentric [B] Radial [C] Radiocentric [D] Grid</t>
+  </si>
+  <si>
+    <t>What do you call the covered corridor in Bahay na bato? [A] Entrusuelo [B] Balcon [C] Galleria [D] Dapogan</t>
+  </si>
+  <si>
+    <t>The optical correction made in column [A] Plinth [B] Entasis [C] Hypotrachelion [D] Metope</t>
+  </si>
+  <si>
+    <t>In vernacular architecture, it is where the cups, utensils are kept [A] Cusina [B] Bilik [C] Azotea [D] Banguerahan</t>
+  </si>
+  <si>
+    <t>What is the frieze in modern times? [A] Gutter [B] Beam [C] Downspout [D] Architrave</t>
+  </si>
+  <si>
+    <t>It is also designed as a beam, to support [A] Corbels [B] Wall Footing [C] Slab [D] None of the above</t>
+  </si>
+  <si>
+    <t>The intersection at the center of the vault is [A] Key [B] Spandrel [C] Boss [D] Intrados</t>
+  </si>
+  <si>
+    <t>Style that is characterized by horizontal lines and window tracery [A] Gothic [B] Baroque [C] Mannerism [D] Rococo</t>
+  </si>
+  <si>
+    <t>A Spanish Architect who designed the Sagrada Familia [A] Walter Gropius [B] Frank Lloyd Wright [C] Antonio Gaudi [D] Otto Wagner</t>
+  </si>
+  <si>
+    <t>A pritzker prize architect [A] Walter Gropius [B] Otto Wagner [C] Frank Gehry [D] Le Corbusier</t>
+  </si>
+  <si>
+    <t>Guggenheim Museum, what kind of style? [A] International Style [B] Organic Architecture [C] Neoclassism [D] Deconstructivism</t>
+  </si>
+  <si>
+    <t>A semi circular column flushed in the wall [A] Post [B] Composite Column [C] Engaged Column [D] Lally Column</t>
+  </si>
+  <si>
+    <t>A style that is characterized by vertical / parallel and tracery of windows [A] Byzantine [B] Mannerism [C] Early Christian [D] Art Deco</t>
+  </si>
+  <si>
+    <t>What is the purpose of a fortress? [A] A military installation [B] To protect the owner from enemy attack [C] Start of civilization [D] War and tactics</t>
+  </si>
+  <si>
+    <t>A style that is characterized by tracery with foils and usually vertical with spires [A] Gothic [B] Mannerism [C] Early Christian [D] Art Deco</t>
+  </si>
+  <si>
+    <t>A period in architecture where religious structures have simple pediment and a dome on top [A] Byzantine [B] Gothic [C] Early Christian [D] Medieval</t>
+  </si>
+  <si>
+    <t>Where can be the pyramid of cheops be found? [A] Mexico [B] Brazil [C] Iraq [D] Egypt</t>
+  </si>
+  <si>
+    <t>It is the hindu gateway [A] Torana [B] Sikhara [C] Amalaka [D] Gopuram</t>
+  </si>
+  <si>
+    <t>The gateway of the buddhist in Indian Architecture [A] Amalaka [B] Gopuram [C] Torana [D] Sikhara</t>
+  </si>
+  <si>
+    <t>When the spaniards came, they noticed that the house where easily destroyed during typhoons, what type of house was introduced to them? [A] Domus [B] Bahay na Bato [C] Duplex [D] Ifugao House</t>
+  </si>
+  <si>
+    <t>A semi circular area on the end side of a church [A] Nave [B] Ambulatory [C] Apse [D] Naos</t>
+  </si>
+  <si>
+    <t>Mostly found in China and Japan [A] Torii [B] Pagoda [B] Pai Lou [D] All of the above</t>
+  </si>
+  <si>
+    <t>Who was the architect commissioned by French President Francois Mitterrand in 1984 to design the full framed glass structure that will serve as a museum? [A] Tadao Ando [B] IM Pei [C] Kenzo Tange [D] Norman Foster</t>
+  </si>
+  <si>
+    <t>Which is the vernacular term that stands for a house among with the Malay Origins? [A] Casa [B] Bahay [C] Balai [D] Kubo</t>
+  </si>
+  <si>
+    <t>What is the basis of a door which is in the modern today from our past generations? [A] Post and Lintel [B] Arcuated [C] Sober and Dignified [D] Arch and Vault</t>
+  </si>
+  <si>
+    <t>What influecens Contemporary Architecture [A] Building Materials [B] Existing Laws [C] Culture [D] All of the above</t>
+  </si>
+  <si>
+    <t>The nile river is the longest river in the world, stretching north for approximately 4,000 miles from east africa to the mediterranean. What material was used for the construction of the pyramids? [A] Compacted Sand [B] Clay [C] Stones [D] Mud</t>
+  </si>
+  <si>
+    <t>From the ealiest times, the waters of the nile, swollen by monsoon rains from Ehiopia, flooded the sorrounding valleys every year between June and September of the modern calendar. Since most of the egyptians were farmers, when the nile was at its highest, they were utilized to build the pyramids. how did the farmers transfer the materials from the production area to the construction? [A] Axle and Wheels [B] Wooden Wheels [C] Stone Wheels [D] Pulley and Wedge</t>
+  </si>
+  <si>
+    <t>In terms of construction, what is the similiarity of the Pyramid construction with the modern day construction today? [A] The use of Concrete [B] The use of Mechanical Equipment [C] Manual Labor [D] All of the above</t>
+  </si>
+  <si>
+    <t>The Pyramids at Gizeh, what is their dimension? [A] 700 x 500 [B] 730 x 500 [C] 450 x 480 [D] 800 x 600</t>
+  </si>
+  <si>
+    <t>The famous pyramids of egypt are generally considered to be the world's oldest monumental structures and where built as tombs for the pharoahs. The rice terraces of the Philippines are commonly referred as the Eight Wonder of the World and was named as a heritage site in 1995, how are they similar? [A] Both were built by nomads [B] They were both used for religious purposes [C] Both were built around 1000 BC [D] Both employed a unique system of construction</t>
+  </si>
+  <si>
+    <t>Temple of Amon, Karnak: What kind of temple? [A] Mortuary Temple [B] Cult Temple [C] Shrine [D] Mastaba</t>
+  </si>
+  <si>
+    <t>What was the design fo the columns on the Great Hypostyle Hall? [A} Corinthian [B] Palm Capital [C] Papyrus [D] Ionic</t>
+  </si>
+  <si>
+    <t>Columns at the Great Hypostyle Hall were built taller than the rest, why? [A] To direct people to the inner parts of the temple [B] To let in subdued light into the temple [C] To carry the heavy slab [D] For ceremonial purposes</t>
+  </si>
+  <si>
+    <t>What style did the muslim architects patterned their structures? [A] Renaissance [B] Early Christian [C] Gothic [D] Saracenic</t>
+  </si>
+  <si>
+    <t>What was the reason why Otto Wagner veered from being "Classist" to "Modernist"? [A] He wants to reinvent himself [B] He wants to teach his students In "Akadieme der Bildenden Kunste" at Viena Something new [C] He was commissioned for the project by the Government [D] He just wanted to do something with what materials that are available</t>
+  </si>
+  <si>
+    <t>In Germany, how was he influenced by the modern movement? [A] Sezzione [B] Stile Liberty [C] Jugendstil [D] Le Moderne Style</t>
+  </si>
+  <si>
+    <t>What was the greatest effect of Industrial Revolution? [A] Trains and Railways [B] Elevators [C] Suburbanization [D] All of the above</t>
+  </si>
+  <si>
+    <t>How is the Family in a Tawi Tawi Boat arranged to maintain its balance? [A] Single Row [B] By Two's [C] Clustered in the Middle [D] All of the above</t>
+  </si>
+  <si>
+    <t>What is used to balance the boat? [A] Vinta [B] Katig [C] Papag [D] Roof beams where fishnets are attached</t>
+  </si>
+  <si>
+    <t>What is the effect on the people living in the Tawi Tawi Boat? [A] The are short [B] It affected their posture [C] They are not good at verbal communications [D] They are always hungry</t>
+  </si>
+  <si>
+    <t>What kind of vaults was used in Bernini's Royal Staircase? [A] Cloister [B] Fan [C] Barrel [D] Groin</t>
+  </si>
+  <si>
+    <t>What style was used in the facade of the entrance way? (Royal Staircase) [A] Romanesque [B] Renaissance [C] Gothic [D] Gothic Revival</t>
+  </si>
+  <si>
+    <t>Bernini is known for what style? [A] Romanesque [B] Gothic [C] Renaissance [D] Gothic Revival</t>
+  </si>
+  <si>
+    <t>Le Corbusier , also known as Charles Edouard Jeanneret-Gris explicitly used the Golden Ratio in his Modulor System for the scale of Architectural Proportion. How did you describe his architectural style? [A] Modern Classic [B] White Box [C] Neo-Classicism [D] Minimalism</t>
+  </si>
+  <si>
+    <t>Who was the architect of the dome of the rock? [A] Caliph and Al Malik [B] John Utzon [C] Shah Jahan [D] Imhotep</t>
+  </si>
+  <si>
+    <t>Who was the architect of the Robie House? [A] Le Corbusier [B] Frank Lloyd Wright [C] Walter Gropius [D] Micheal Graves</t>
+  </si>
+  <si>
+    <t>Most works of Andrea Palladio are: [A] Radial [B] Symmetrical [C] Clustered [D] None of the above</t>
+  </si>
+  <si>
+    <t>Who was the architect of Seattle Museaum? [A] IM Pei [B] Minoru Yamasaki [C] Robert Venturi [D] Louis Khan</t>
+  </si>
+  <si>
+    <t>Who was the architect of the Bank of China, Louvre Pyramid, and Rock n` Roll Hall of Fame? [A] IM Pei [B] Frank Lloyd Wright [C] Richard Rogers [D] Victor Horta</t>
+  </si>
+  <si>
+    <t>What is the dominant feature of IM Pei's Works? [A] Glass and Steels [B] Squares [C] Triangles [D] Colors</t>
+  </si>
+  <si>
+    <t>What shape is prominent in the Bank of China and Louvre Pyramid? [A] rectangle [B] square [C] Triangle [D] Circle</t>
+  </si>
+  <si>
+    <t>Who was the architect of the Carpenter's Center? [A] Frank Lloyd Wright [B] Le Corbusier [C] IM Pei [D] Minoru Yamasaki</t>
+  </si>
+  <si>
+    <t>Who was the architect of the Tjibao Cultural Center? [A] Francisco Manosa [B] Gabriel Formoso [C] Juan Nakpil [D] Jean Marie Tjibao</t>
+  </si>
+  <si>
+    <t>Who was the architect of the Kuala Lampur Airport? [A] Kisho Kurukh [B] Norman Foster [C] IM Pei [D] Louis Khan</t>
+  </si>
+  <si>
+    <t>Who was the architect of the Quezon Memorial Pylon? [A] Lucio Tan [B] William Coscuella [C] Federico Llustre [D] Palafox</t>
+  </si>
+  <si>
+    <t>Who was the architect of the Chapel of Holy Sacrifice? The First thin shell in the Philippines? [A] Francisco Manosa [B] Gabriel Formoso [C] George Ramos [D] Leandro Locsin</t>
+  </si>
+  <si>
+    <t>Who was the architect of the New Toronto City Hall? [A] Frank Lloyd Wright [B] John Utzon [C] Viljo Revell [C] Frank Gehry</t>
+  </si>
+  <si>
+    <t>Who was the architect of Guggenheim Museum at Bilbao? [A] Otto Wagner [B] Frank Lloyd Wright [C] William Parsons [D] Frank Gehry</t>
+  </si>
+  <si>
+    <t>Who was the Architect of Zentralsparkasse Bank At Viena? [A] Otto Wagner [B] Antonio Gaudi [C] IM Pei [D] Gunther Domeng</t>
+  </si>
+  <si>
+    <t>Who was the architect of Bank Of New York? [A] Louis Sullivan [B] Philip Johnson [C] Voorhees, Gmelin and Walker [D] Skidmore and Owings</t>
+  </si>
+  <si>
+    <t>Who was the Architect of Sony Center? [A] Minoru Yamasaki [B] Norman Foster [C] Helmut Jahn [D] Le Corbusier</t>
+  </si>
+  <si>
+    <t>Who was the architect of the Notre Dame du Raincy? [A] Ludwig Mies Van De Rohe [B] Auguste and Gustave Perret [C] William Morris and John Ruskin [D] Walter Gropius</t>
+  </si>
+  <si>
+    <t>Who was the Architect of TWA Airport and the Dulles Airport? [A] Eero Saarinen [B] Eliel Saarienen [C] Gustave Eiffel [D] Skidmore and Owings</t>
+  </si>
+  <si>
+    <t>A Pritzker Prize Architect Winner on the year 1987 [A] Philip Johnson [B] IM Pei [C] Kenzo Tange [D] Frank Gehry</t>
+  </si>
+  <si>
+    <t>Who is the architect of San Miguel Building? [A] Leandro Locsin [B] Manosa Brothers [C] Gabriel Formoso [D] George Ramos</t>
+  </si>
+  <si>
+    <t>Who was the third Filipino Architect? [A] Carlos Barreto [B] Juan Nakpil [C] Antonio Toledo [D] Tomas Mapua</t>
+  </si>
+  <si>
+    <t>Who designed the Metropolitan Theater of Manila? [A] Juan Arellano [B] Antonio Toledo [C] Tomas Mapua [D] Francisco Manosa</t>
+  </si>
+  <si>
+    <t>What is the Architectural Character of the Metropolitan Theater? [A] Renaissance [B] Art Deco [C] Gothic [D] Art Moderne</t>
+  </si>
+  <si>
+    <t>Deconstructive Theory of Frank Gehry at Bilbao: [A] Opera House [B] Bank of China [C] Falling Water [D] Guggenheim Museum</t>
+  </si>
+  <si>
+    <t>This work is an example of Frank Lloyd Wrights Organic Architecture [A] Falling Water [B] Dulles Airport [C] Petronas Towers [D] Chicago Tribune Tower</t>
+  </si>
+  <si>
+    <t>Distinctive feature of Frank Lloyd Wrights Falling Water [A] Overhanging Slab [B] Cantilever [C] Falling Water [D] Steps</t>
+  </si>
+  <si>
+    <t>In the Falling Water, what is the function of the Overhanging Slab? [A] Terrace [B] Living Room [C] Bedroom [D] Dining</t>
+  </si>
+  <si>
+    <t>IF the greeks introduced the concept of proportion during the classical period, who was the famous architect who introduced the concept of proportion in modern times? [A] Ludwig Mies Van De Rohe [B] Eero Saarinen [C] Le Corbusier [D] Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>Famous structure designed by Le Corbusier in Marseilles France with rough cast concrete as steel frame proved too be expensive in light of post war shortages [A] Villa Savoye [B] Unite D` Habitation [C] Notre Dame Du Haut [D] Pilotis</t>
+  </si>
+  <si>
+    <t>Who was the architect that made the Chek Lap Kok Airport where natural light, tensioned membrane and Anthropometrically correct dimensions were emphasized? [A] Sir Norman Foster [B] Eero Saarinen [C] Richard Rogers [D] Fumihiko Maki</t>
+  </si>
+  <si>
+    <t>Who designed The Sagrada Familia? [A] Antonio Gaudi [B] Pierre Luigi Nervi [C] Leon Batista Alberti [D] Michealangelo</t>
+  </si>
+  <si>
+    <t>Who designed the interlocking thin shell, shark like concept that can be seen on the shore of Sydney, Australia? [A] Eero Saarien [B] Norman Foster [C] Skidmore and Owings [D] Jorn Utzon</t>
+  </si>
+  <si>
+    <t>He is the father of Prestress Concrete [A] Frank Gehry [B] Otto Wagner [C] Romans [D] Eugene Freysinnet</t>
+  </si>
+  <si>
+    <t>The standard size of an Ifugao House [A] 4 x 4 [B] 5 x 5 [C] 3 x 4 [D] 2 x 2</t>
+  </si>
+  <si>
+    <t>The kitchen of Bahay na Bato [A] Banguerahan [B] Cucina [C] Balcon [D] Entrasuelo</t>
+  </si>
+  <si>
+    <t>The mezzanine of Bahay na Bato [A] Aljibe [B] Dapogan [C] Bilik [D] Entrasuelo</t>
+  </si>
+  <si>
+    <t>What do you call the space underneath the Bahay na Bato? [A] Cuadra [B] Silong [C] Batalan [D] Meseta</t>
+  </si>
+  <si>
+    <t>What do you call the space pots, jars, and utensils that are kept in the Bahay na Bato? [A] Batalan [B] Cucina [C] Bangeurahan [D] Zaguan</t>
+  </si>
+  <si>
+    <t>What do you call the storage of rice in Bahay na Bato? [A] Azotea [B] Kamalig [C] Lanai [D] Verandah</t>
+  </si>
+  <si>
+    <t>Why do architects preferred to work in America? [A] Lots of oppurtunities to experiment and showcase their works [B] They need more money to support their families [C] They will be granted License for work in America after being able to serve for a number of years [D] Because Philippines suck</t>
+  </si>
+  <si>
+    <t>Temple with colonade along the front and rear [A] Prostyle [B] Pseudo Dipteral [C] Amphi Prostyle [D] Peripteral</t>
+  </si>
+  <si>
+    <t>The purpose of Rostral Columns [A] Respect to the Fallen Hero [B] For Victorious Campaigns [C] Landmark and Achievement [D] Congelemeration and Trophy</t>
+  </si>
+  <si>
+    <t>What is the structure in Rome where Roman Butresses are prominent? [A] Temple of Venus [B] Forum Romanum [C] Temple of Mars, Utor [D] Pantheon</t>
+  </si>
+  <si>
+    <t>What type of symmetry is prominent in Villa Capra? [A] Formal [B] Informal [C] Radial [D] Bilateral</t>
+  </si>
+  <si>
+    <t>From the image of Villa Capra, what is the focal point? [A] Circle in Center [B] Rectangular Center [C] 4 Columns at Sides [D] All of the above</t>
+  </si>
+  <si>
+    <t>The largest religious structure, beehive shaped towers [A] Borobudur [B] Ankor Wat [C] Stupa [D] Pagoda</t>
+  </si>
+  <si>
+    <t>Standing stones usually capped with Horizontal Slab [A] Menhir [B] Domus [C] Dolmen [D] Cromlech</t>
+  </si>
+  <si>
+    <t>A hindu gateway [A] Torii [B] Pailou [C] Torana [D] Gopuram</t>
+  </si>
+  <si>
+    <t>A cambodian gateway [A] Torii [B] Torana [C] Pailou [D] Propylaea</t>
+  </si>
+  <si>
+    <t>It is characterized by the grouping of small domes or semi enclosed domes around a large central dome [A] Islamic [B] Roman [C] Byzantine [D] Greek</t>
+  </si>
+  <si>
+    <t>During the 18th and 19th century, our country was influenced by what type of architecture? [A] Rococo [B] Renaissance [C] Gothic [D] Baroque</t>
+  </si>
+  <si>
+    <t>How would you describe the character of Romanesque Architecture? [A] Vastness and Ornateness [B] Sober and Dignified [C] Simplicity [D] Intricate Detail</t>
+  </si>
+  <si>
+    <t>How would you describe an Australian Colonial House? [A] Art Nouvea [B] Renaissace [C] Gothic [D] Baroque</t>
+  </si>
+  <si>
+    <t>What is the period which rose in Central Mexico and was destroyed by the Spanish Conquistadors? [A] Mogul Architecture [B] Inca Architecture [C] Aztec Architecture [D] Ottoman Architecture</t>
+  </si>
+  <si>
+    <t>The architectural style that was started at the middle of 16th century [A] Gothic [B] Baroque [C] Renaissance [D] Rococo</t>
+  </si>
+  <si>
+    <t>The oldest architectural style is: [A] Roman [B] Greek [C] Persian [D] China</t>
+  </si>
+  <si>
+    <t>It is the oldest inhabited city [A] Cairo [B] Beijing [C] Damascus [D] Manila</t>
+  </si>
+  <si>
+    <t>It is the most distinct character developed during the Byzantine Architecture [A] Vault [B] Arches [C] Domes [D] Beams</t>
+  </si>
+  <si>
+    <t>A style characterized by horizontal lines and window tracery [A] Minimalism [B] Gothic [C] Mannerism [D] Early Christian</t>
+  </si>
+  <si>
+    <t>A style characterized by vertical and parallel lines with window tracery [A] Gothic [B] Mannerism [C] Early Chrisitan [D] Renaissance</t>
+  </si>
+  <si>
+    <t>The Early Christian period is characterized by [A] Simple Pediment with dome on top [B] Greek Cross Planning [C] Central dome with satellite dome [D] All of the above</t>
+  </si>
+  <si>
+    <t>Structural innovation of the modern movement [A] Pre-Cast Concrete [B] Space Frame [C] Steel and Concrete [D] Glass and Wood</t>
+  </si>
+  <si>
+    <t>What is the architectural style of the Museum of Modern Art? [A] Neo-Classicism [B] Functionalism [C] Constructivism [D] Expressionism</t>
+  </si>
+  <si>
+    <t>Characteristics of Neo-Classical [A] Byzantine [B] Gothic [C] Greek [D] Chinese</t>
+  </si>
+  <si>
+    <t>Which style has moorish elements, excessive ornaments, and a deviation from the greeks and romans? [A] Rococo [B] Byzantine [C] Gothic [D] Early Christian</t>
+  </si>
+  <si>
+    <t>Who said Less Is More? [A] Philip Johnson [B] Ludwig Mies Van De Rohe [C] Minoru Yamasaki [D] Kenzo Tange</t>
+  </si>
+  <si>
+    <t>What style emerged in Constantinople as counterpart of the Roman Architecture in the East? [A] Art Nouveau [B] Byzantine [C] Early Christian [D] Roman</t>
+  </si>
+  <si>
+    <t>What is the similarity between the tracery windows in Early Christian Churches to our modern Churches? [A] Pilasters [B] Apse [C] Stained Glass [D] Doors</t>
+  </si>
+  <si>
+    <t>What do you call the central aisle of an Early Christian Basilican Church? [A] Ambulatory [B] Nave [C] Apse [D] Cella</t>
+  </si>
+  <si>
+    <t>The Basilica de Santa Maria del Fiore is world renonwed and has the largest brick dome every constructed. It is known as: [A] Sienna Cathedral [B] Florence Cathedral [C] Basilica of the Holy Blood [D] Basilica of the Holy Cross</t>
+  </si>
+  <si>
+    <t>Who presented the Greek Cross plan of St. Peter's Basilica? [A] Donato Bramante [B] Michealangelo [C] Rahael Urbino [D] Giuliano De Sangallo</t>
+  </si>
+  <si>
+    <t>It is a collective term for heritage schoolhouses built in the Philippines Between 1907 and 1946 that follow standard plans designed by Architect William Parsons [A] Liceo De Manila [B] University of Santo Tomas [C] Gabaldon School [D] Adamson University</t>
+  </si>
+  <si>
+    <t>It is the ancentral house of the upper class maranao in the lanao region of mindanao. It is the dwelling place of the datu along wtih his wives and children. There could not be any house larger than torogan of the datu within the sultanate, for this signifies rank, prestige and wealth. [A] Bahay Kubo [B] Torogan [C] Ifugao House [D] Antillian House</t>
+  </si>
+  <si>
+    <t>In the bahay na bato, it is where you can find the Dapogan, Bangahan and Batalan [A] Aljibe [B] Zaguan [C] Gilir [D] Cucina</t>
+  </si>
+  <si>
+    <t>Where the term Bahay Kubo came from? [A] Term given by the spaniards [B] Terminology of the Ancient Filipino [C] Vernacular Term from Batangas [D] From Balai for house and Kubo for Cube</t>
+  </si>
+  <si>
+    <t>It is the primary contribution of the Spaniards to the Philippines? [A] Government [B] Religion [C] Bahay na Bato [D] Law of the Indies</t>
+  </si>
+  <si>
+    <t>When the spaniards came, they noticed that the house where easily destroyed during typhoons, what type of house was introduced to them? [A] Bungalo [B] Bahay na Bato [C] Bahay Kubo [D] Teja Romana</t>
+  </si>
+  <si>
+    <t>The influece of Indian Stupa to the Buddhist of Japanese and Chinese Architecture [A] Temple [B] Pagoda [C] Bent Roof [D] Decorated Eaves</t>
+  </si>
+  <si>
+    <t>The similarities of Chinese and Japanese Architecture [A] Temple [B] Pagoda [C] Gateway [D] Civic Buildings</t>
+  </si>
+  <si>
+    <t>What is a japanese gate with 2 vertical post and 2 horizontal bars? [A] Pailou [B] Propylaea [C] Torii [D] Torana</t>
+  </si>
+  <si>
+    <t>Which of the following influecend Classical Architecture? [A] Styles [B] Orders [C] Religion [D] Culture</t>
+  </si>
+  <si>
+    <t>An indian structure inspired the Chinese and Japanese in building the Pagoda [A] Amanalaka [B] Sikhara [C] Stupa [D] Torana</t>
+  </si>
+  <si>
+    <t>A temple tower of the ancienyt assyrians and babylonians having a form of a terraced pyramid of successively receding storeys [A] Mastaba [B] Ziggurats [C] Pyramid [D] Temples</t>
+  </si>
+  <si>
+    <t>Ancient Egpyian Gateway [A] Portico [B] Pai-Lou [C] Torana [D] Pylon</t>
+  </si>
+  <si>
+    <t>Type of tomb in Egypt, which is the burial for the noble and eminent [A] Pyramid [B] Mastaba [C] Ziggurat [D] Cenotaph</t>
+  </si>
+  <si>
+    <t>What is the main purpose of a Medieval Castle? [A] Grandeur [B] Fortification [C] Assault for Warmongers [D] All of the above</t>
+  </si>
+  <si>
+    <t>The distinct feature of a roof that makes it recognizable as a Chinese House [A] Sui [B] Uplifted Roof [C] Curved Roof [D] Pagoda</t>
+  </si>
+  <si>
+    <t>This structure was built during the QIN Dynasty to guard againsts the Northern Invasion [A] Forbidden City [B] Great Wall of China [C] Yellow Turban [D] Underground Caves</t>
+  </si>
+  <si>
+    <t>A type of garden that is often primarily floral plants and completely free form in nature [A] Formal Garden [B] Informal Garden [C] Chinese Garden [D] Japanese Garden</t>
+  </si>
+  <si>
+    <t>A type of garden that is neat, ordered, and laid out in carefully planned geometric and symmetric lines. [A] Formal Garden [B] Informal Garden [C] Chinese Garden [D] Japanese Garden</t>
+  </si>
+  <si>
+    <t>Vermiculture is a simple and unusual way of using kitchen as rich castings for use in a garden. What is its main ingrident? [A] Chicken Manure [B] Red Wriggler Worms [C] Animal and Human Waste [D] All of the above</t>
+  </si>
+  <si>
+    <t>It is the traditional house of most southeast asian countries [A] Cubo [B] Igloo [C] Teepee [D] Balai</t>
+  </si>
+  <si>
+    <t>Type of construction characterized by the use of columns and a beam to carry a load over an opening [A] Arch and Vault [B] Post and Lintel [C] Arcuated [D] Thin Shell</t>
+  </si>
+  <si>
+    <t>A circular window usually of stained glass and decorated with tracery symmetrical about the center [A] Dormer Window [B] Transom Window [C] Rose Window [D] All of the above</t>
+  </si>
+  <si>
+    <t>What do you call the 4-centered gothic window? [A] Victorian Style [B] Decorative Style [C] Tudor Style [D] Rayonnant Style</t>
+  </si>
+  <si>
+    <t>A characteristic of Gothic Construction in which the lateral trusses of a roof or vault are taken up by a straight bar of masonry usually sloping, carried on an arch and a solid pier or butress sufficient to recieve the thrust [A] Pointed Arch [B] Vaults [C] Flying Buttresses [D] Spires</t>
+  </si>
+  <si>
+    <t>It is the pointed arch having two centers and radii greater than the span [A] Equilateral [B] Segmental [C] Lancet [D] None of the above</t>
+  </si>
+  <si>
+    <t>In the early times, what was used to achieve longer horizontal span? [A] Beam [B] Arc [C] Lintel Beam [D] Column</t>
+  </si>
+  <si>
+    <t>In Romanesque Architecture, how are the walls treated? [A] Decorative  Plaster [B] Alternate Columns and Piers [C] Colonnaded [D] Megastructures</t>
+  </si>
+  <si>
+    <t>If the diameter of the column is 0.90m and the intercolumnation would be areostyle, what would be the measurement of the intercolumnation? [A] 2.025m [B] 2.70m [C] 1.35m [D] 3.60m</t>
+  </si>
+  <si>
+    <t>What is the intercolumnation of columns if their clear distance is 1.5m of the diameter of the column? [A] Systyle [B] Eustyle [C] Pycnostyle [D] Areostyle</t>
+  </si>
+  <si>
+    <t>A greek temple has 6 columns in front and at the back. At its side, it has eleven columns, that includes the outermost columns at the front and back. What do you call this kind of temple? [A] Peripteral [B] Pseudodipteral [C] Decastyle [D] Tetrastyle</t>
+  </si>
+  <si>
+    <t>What do you call the style in which the column distance is 4D? [A] Eustyle [B] Systyle [C] Diastyle [D] Areostyle</t>
+  </si>
+  <si>
+    <t>What is systyle intercolumnation? [A] 1.5 x CD [B] 2.5 x CD [C] 2x CD [D] 3-4x CD</t>
+  </si>
+  <si>
+    <t>Intercolumnation of 1.5 Diameter Column [A] Systyle [B] Eustyle [C] Pycnostyle [D] Areostyle</t>
+  </si>
+  <si>
+    <t>Intercolumnation of 2 Diameter Column [A] Systyle [B] Eustyle [C] Pycnostyle [D] Areostyle</t>
+  </si>
+  <si>
+    <t>Intercolumnation of 3 Diameter Column [A] Systyle [B] Diastyle [C] Pycnostyle [D] Areostyle</t>
+  </si>
+  <si>
+    <t>If a greek column as a total of 14 columns whth a breakdown of 4 in front and 4 in the back, and the rest at both sides, what type of temple it is? [A] Peripteral [B] Prostyle [C] Amphiprostyle [D] Dipteral</t>
+  </si>
+  <si>
+    <t>Cubical block of stone above the capitals in a byzantine church, used to carry the arches and vault, the springing of which had a superficial area greatly in excess of the column which carried them. [A] Concrete Hollow Block [B] Titanium Block [C] Marble [D] Dosseret Block</t>
+  </si>
+  <si>
+    <t>What is the purpose of Fortification? [A] Military Installation [B] To Protect the owner from enemy attack [C] To protect the treasures [D] Public gateway</t>
+  </si>
+  <si>
+    <t>What element in classical architecture creates lines and shadows? [A] Roof [B] Moulding [C] People [D] Columns</t>
+  </si>
+  <si>
+    <t>Greatest influence of Chinese Architecture [A] Environment [B] Politics [C] Government [D] Religion</t>
+  </si>
+  <si>
+    <t>How did the romans create structures with great spans? [A] Use of Small Stones [B] Use of manual Labor [C] Use of Arch [D] Use of Power</t>
+  </si>
+  <si>
+    <t>Creation of cities and construction of churches during the roman empire is mostly considered at [A] East Roman [B] West Roman [C] South Roman [D] North Roman</t>
+  </si>
+  <si>
+    <t>Gutter in the modern times is a [A] Pediment [B] Girt [C] Truss [D] Frieze</t>
+  </si>
+  <si>
+    <t>Where did Gothic Architecture Originate? [A] France [B] Italy [C] Spain [D] Germany</t>
+  </si>
+  <si>
+    <t>The third phase of Gothic Architecture [A] Lancet [B] Decorative [C] Rayonnant [D] Flamboyant</t>
+  </si>
+  <si>
+    <t>In gothic architecture, what is the purpose of Flying Buttresses? [A] Aesthetics [B] Support the foundation [C] Support the truss [D] Support the high wall and transfer load</t>
+  </si>
+  <si>
+    <t>Characterized by horizontal elements supported by columns [A] Post [B] Columnar [C] Trabeated [D] Saracenic</t>
+  </si>
+  <si>
+    <t>In the modern day, what is considered as the architrave? [A] Gutter [B] Pediment [C] Lintel [D] Purlins</t>
+  </si>
+  <si>
+    <t>A roman order derived from the Greek's Doric order [A] Composite [B] Corinthian [C] Ionic [D] Tuscan</t>
+  </si>
+  <si>
+    <t>On the following, which is the simplest? [A] Doric [B] Corinthian [C] Tuscan [D] Composite</t>
+  </si>
+  <si>
+    <t>What kind of order was used in the Parthenon? [A] Doric [B] Corinthian [C] Tuscan [D] Composite</t>
+  </si>
+  <si>
+    <t>The classic order characterized by its volutes in capital with its elegant design [A] Ionic [B] Corinthian [C] Tuscan [D] Doric</t>
+  </si>
+  <si>
+    <t>Type of column which represents an inverted bell [A] Doric [B] Corinthian [C] Tuscan [D] Composite</t>
+  </si>
+  <si>
+    <t>What is the purpose of Bahay Kubo's Silong? [A] Ventilation and Drying of Clothes [B] Protection againsts rats and animals [C] Protection againts animals and insects [D] All of the above</t>
+  </si>
+  <si>
+    <t>Le corbusier planned a high density building that was "super building" that contained 337 dwellings in only ten acres of land. What is this structure that supposed to be located at Marseilles? [A] Unite de habitation [B] Brasilia [C] Mile High tower [D] Ecumenopolis</t>
+  </si>
+  <si>
+    <t>Refers to the ancestral dwelling of the sultan or datu in mindanao, symbolizing an exalted status. [A] Samal [B] Yakan [C] Badjao [D] Torogan</t>
+  </si>
+  <si>
+    <t>It is a curved structure for spanning an opening, designed to support a vertical load primarily by axial stress (D.K. Ching p. 12) [A] Voussoir [B] Arch [C] Crown [D] Keystone</t>
+  </si>
+  <si>
+    <t>An Arched structure of timber, steel, or reinforced concrete, constructed as rigid body capable of carrying bending stresses (D.K. Ching p. 13) [A] Fixed Arch [B] Rigid Arch [C] Arch [D] Triangular Arch</t>
+  </si>
+  <si>
+    <t>Early age when humans built rectangular houses and use stones as tool [A] Neolitic [B] Paleolithic [C] Gothic [D] Medieval</t>
+  </si>
+  <si>
+    <t>It is the site of the first human settlement in Southeast Asia [A] Philippines [B] Malaysia [C] Indonesia [D] China</t>
+  </si>
+  <si>
+    <t>Which part of Metro Manila has arcades? [A] Quezon City Memorial Circle [B] Recto [C] Espana [D] San Marcelino</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Forming the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Century Gothic"/>
+      </rPr>
+      <t>imposing entrance to the Acropolis</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Century Gothic"/>
       </rPr>
+      <t xml:space="preserve"> and erected by the Architect Mnesicles is the. [A] Pai Lou [B] Torii [C] Propylaea [D] Torana</t>
+    </r>
+  </si>
+  <si>
+    <t>chysler Tower at New York is considered as (D.K. Ching p. 135) [A] Art Noveau [B] Art Deco [C] Arts and Crafts [D] Ecole Des Beaux Arts</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">A style of </t>
     </r>
     <r>
@@ -1812,18 +3106,7 @@
     </r>
   </si>
   <si>
-    <t>A small rear door or gate to a fort or castle (D.K. Ching p. 99) [A] Bower [B] Postern [C] Necessarium [D] Brattice</t>
-  </si>
-  <si>
-    <t>A movement in architecture and decorative arts that developed in 1970's in reaction to the principles and practices of modernism, especially the influence of International Style, encouraging the use of elements from historical vernacular styles and often playful illusion, decoration and complexity (D.K. Ching p. 135) [A] Post Modernism [B] International Style [C] Modernism [D] Abstract Expressionism</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
       <t xml:space="preserve">A functional architecture devoild of regional characteristics, developed in 1920's and 1930's in Western EU and US and applied throughout the world. Characterized by </t>
     </r>
     <r>
@@ -1845,27 +3128,7 @@
     </r>
   </si>
   <si>
-    <t>A deliberate philosophical and practical enstrangement from the past in the arts and literature occuring in the coarse of the 20th century and taking form in any of various innovative movement and styles (D.K. Ching p. 135) [A] Post Modernism [B] International Style [C] Modernism [D] Abstract Expressionism</t>
-  </si>
-  <si>
-    <t>A defensive wall or elevation of earth or stone protecting soldiers from enemy fire (D.K. Ching p. 98) [A] Cordon [B] Parapet [C] Berm [D] Rampart</t>
-  </si>
-  <si>
-    <t>Movement In experimental non representational painting by originating in U.S. at 1940's. embracing many individual styles marked in common by freedom of technique, a preference for dramatically large canvesses and a desire to give spontaneous expression. (D.K. Ching p. 135) [A] Post Modernism [B] International Style [C] Modernism [D] Abstract Expressionism</t>
-  </si>
-  <si>
-    <t>A continuous gangway providing a means of communication behind the rampart and a fortified wall (D.K. Ching p. 99) [A] Bower [B] Postern [C] Chemi de ronde [D] Crenelated</t>
-  </si>
-  <si>
-    <t>The privy of a medieval castle or monastery. Also called as garderobe (D.K. Ching p. 99) [A] Bower [B] Postern [C] Necessarium [D] Brattice</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
       <t xml:space="preserve">A style of architecture exemplifying the commonest building technique based on the </t>
     </r>
     <r>
@@ -1887,42 +3150,7 @@
     </r>
   </si>
   <si>
-    <t>A philosophy of architectural design that emerge in the early 20th century, asserting that a building should have a structure and plan that fulfills its functional requirements and harmonize with the natural environment. One prime example of this is "Falling Water" (D.K. Ching p. 135) [A] Organic Architecture [B] Gothic Architecture [C] Vernacular Architecture [D] Medieval Architecture</t>
-  </si>
-  <si>
-    <t>A group of U.S. Architects active c1880 - 1910 and known for major innovations in high rise construction and for the development of modern building construction design (D.K. Ching p. 135) [A] Ecoles Des Beaux Arts [B] Bauhaus [C] Chicago School [D] Liceo De Manila</t>
-  </si>
-  <si>
-    <t>A projecting course of stones below the parapet of a rampart (D.K. Ching p. 98) [A] Cordon [B] Parapet [C] Berm [D] Rampart</t>
-  </si>
-  <si>
-    <t>A design movement that evolved from seceral previous movement in EU in the early 20th century. Advocating the design of buildings, furnishing or the like as direct fullfillment of functional requirements. One great architect in this time is "Louis Sullivan" (D.K. Ching p. 135) [A] Brutalism [B] Minimalism [C] Functionalism [D] Cubism</t>
-  </si>
-  <si>
-    <t>A style of decorative art developed originally in 1920's with a revival in 1960's, marked chiefly by geometric motifs, streamlined and curvilinear forms, sharply defined outlines, often bold colors and use of synthetic materials. It is also called as Style Moderne (D.K. Ching p. 135) [A] Art Noveau [B] Art Deco [C] Arts and Crafts [D] Ecole Des Beaux Arts</t>
-  </si>
-  <si>
-    <t>Metropolitan Theater at Manila is considered as (D.K. Ching p. 135) [A] Art Noveau [B] Art Deco [C] Arts and Crafts [D] Ecole Des Beaux Arts</t>
-  </si>
-  <si>
-    <t>Chysler Tower at New York is considered as (D.K. Ching p. 135) [A] Art Noveau [B] Art Deco [C] Arts and Crafts [D] Ecole Des Beaux Arts</t>
-  </si>
-  <si>
-    <t>Architecture of Quechuan people who migrated into Cuzco area about AD 1100 and ruled Peru until the spanish conquest in the 16th century, characterized specially by strong simple forms of smooth ashlar without the use of iron chisels (D.K. Ching p. 132) (Wikipedia) [A] Aztec Architecture [B] Inca Architecture [C] Mudejar Architecture [D] Saracenic Architecture</t>
-  </si>
-  <si>
-    <t>Architecture of Amerindian people who settled near the shore of Lake Texcoco in Central Mexico c1352. Characterized chiefly by pyramid supporting twin temples on a common platform (D.K. Ching p. 132) (Wikipedia) [A] Aztec Architecture [B] Inca Architecture [C] Mudejar Architecture [D] Saracenic Architecture</t>
-  </si>
-  <si>
-    <t>A ledge between the exterior slope of a rampart and the moat of a fortification (D.K. Ching p. 98) [A] Cordon [B] Parapet [C] Berm [D] Rampart</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
       <t xml:space="preserve">The style of architecture originating in France in the 12th century and existing in the western half of EU through the middle of 16th century, characterized by building of great </t>
     </r>
     <r>
@@ -1961,66 +3189,7 @@
     </r>
   </si>
   <si>
-    <t>Era that marked the transition from Medieval to Modern World; also notes revival of classical art in literature (D.K. Ching p. 132) [A] Dark Ages [B] Renaissance [C] Iron Age [D] Garden City Era</t>
-  </si>
-  <si>
-    <t>The first of three phases of English Gothic from late 12th Century characterized by Lancet Window and Plate Tracery (D.K. Ching p. 132) [A] Early French Style [B] Flamboyant Style [C] Decorated Style [D] Early English Style</t>
-  </si>
-  <si>
-    <t>The first of three phases of French Gothic characterized by pointed arch and geometric tracery (D.K. Ching p. 132) [A] Early French Style [B] Flamboyant Style [C] Decorated Style [D] Early English Style</t>
-  </si>
-  <si>
-    <t>A V-Shaped outwork outside the main ditch of a fortress, covering the works between two bastions (D.K. Ching p. 98) [A] Outwork [B] Escarp [C] Ravelin [D] Counterscarp</t>
-  </si>
-  <si>
-    <t>An enclosing wall connecting two bastions or towers (D.K. Ching p. 98) [A] Circumvallate [B] Curtain [C] Gorge [D] Terreplain</t>
-  </si>
-  <si>
-    <t>A minor defensive position established beyond a main fortified area (D.K. Ching p. 98) [A] Outwork [B] Escarp [C] Ravelin [D] Counterscarp</t>
-  </si>
-  <si>
-    <t>The rear passageway into a bastion or similar outwork (D.K. Ching p. 98) [A] Circumvallate [B] Curtain [C] Gorge [D] Terreplain</t>
-  </si>
-  <si>
-    <t>The top platform or horizontal surface ofa rampart where guns are mounted (D.K. Ching p. 98) [A] Circumvallate [B] Curtain [C] Gorge [D] Terreplain</t>
-  </si>
-  <si>
-    <t>The part of a bastion the extends from the curtain to the face (D.K. Ching p. 98) [A] Shoulder [B] Face [C] Flank [D] Casemate</t>
-  </si>
-  <si>
-    <t>Either of the two outer sides that form the sallen angle of a bastion (D.K. Ching p. 98) [A] Shoulder [B] Face [C] Flank [D] Casemate</t>
-  </si>
-  <si>
-    <t>The inner slope or wall of the ditch sorrounding a rampart (D.K. Ching p. 98) [A] Outwork [B] Escarp [C] Ravelin [D] Counterscarp</t>
-  </si>
-  <si>
-    <t>A broad embankment of earth raised as a fortification around a place and usually sormounted by a parapet (D.K. Ching p. 98) [A] Cordon [B] Parapet [C] Berm [D] Rampart</t>
-  </si>
-  <si>
-    <t>Sorrounded by or as if by a rampart (D.K. Ching p. 98) [A] Circumvallate [B] Curtain [C] Gorge [D] Terreplain</t>
-  </si>
-  <si>
-    <t>The second of the three phases of English Gothic from late 13th to 14th century, characterized by rich tracery, elaborate onrmanental vaulting and refinement of stone cutting techniques (D.K. Ching p. 132) [A] Early French Style [B] Flamboyant Style [C] Decorated Style [D] Early English Style</t>
-  </si>
-  <si>
-    <t>Final Phase of French Gothic characterized by flamelike tracery, intricacy of detailing and frequent complication of interior space (D.K. Ching p. 132) [A] Early French Style [B] Flamboyant Style [C] Decorated Style [D] Early English Style</t>
-  </si>
-  <si>
-    <t>The exterior slope or wall of the ditch sorrounding a rampart (D.K. Ching p. 98) [A] Outwork [B] Escarp [C] Ravelin [D] Counterscarp</t>
-  </si>
-  <si>
-    <t>Under the second phase of Gothic English Architecture which of the following styles has been developen in this stage?(D.K. Ching p. 132) I. Geometric Style II. Perpendicular Style III. Curvilinear Style IV. Flamboyant Style [A] I and II [B] I and III [C] I and IV [D] II and IV</t>
-  </si>
-  <si>
-    <t>A style in Italian Renaissance art and architecture developed during the 15th century, characterized by development of linear perspective, chlaroscurro and free inventive use of classical details (D.K. Ching p. 132) [A] Early Renaissace [B] High Renaissance [C] Baroque [D] Rococo</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
       <t xml:space="preserve">A style of Italian Renaissance art and architecture characterized by an emphasis on </t>
     </r>
     <r>
@@ -2042,18 +3211,7 @@
     </r>
   </si>
   <si>
-    <t>A style of decorative art that evolved from Baroque, originating in France about 1720 and distinguished by fanciful, curved spatial forms and elaborate profuse designs of shellwork and foliage intended for a delicate overall effect (D.K. Ching p. 132) [A] Early Renaissace [B] High Renaissance [C] Baroque [D] Rococo</t>
-  </si>
-  <si>
-    <t>A style of architecture originatin in Italy in the early 17th century variously prevalent in EU and New World, characterized by free and sculptural use of classical orders and ornament, dynamic opposition and interpretation of spaces and dramatic combined effects of architecture, sculpture, painting and decorative arts (D.K. Ching p. 132) [A] Early Renaissace [B] High Renaissance [C] Baroque [D] Rococo</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
       <t xml:space="preserve">The classicism prevailing in architecture in EU, America and various EU Colonies during the late 18th and early 19th century, characterized by widespread use of </t>
     </r>
     <r>
@@ -2072,1218 +3230,6 @@
         <rFont val="Century Gothic"/>
       </rPr>
       <t xml:space="preserve"> orders and decorative motifs (D.K. Ching p. 133) [A] Renaissance [B] Georgian [C] NeoClassicism [D] Tudor Architecture</t>
-    </r>
-  </si>
-  <si>
-    <t>Principles of styles characteristic of culture, art and literature of ancient Greece and Rome (D.K. Ching p. 133) [A] Classicism [B] Minimalism [C] Brutalism [D] Cubism</t>
-  </si>
-  <si>
-    <t>Art and Architecture in the style of Ancient Greece and Rome as that of the Italian Renaissance and Neoclassical Movements in England and U.S. in late 18th and early 19th centuries (D.K. Ching p. 133) [A] Saracenic [B] Classic Revival [C] Medieval [D] Tudor Architecture</t>
-  </si>
-  <si>
-    <t>Transitional Style of English Architecture that developed during the reign of the Royal House of Tudor in second half of 16th century, characterized by Tudor Arch and application of Renaissance Details (D.K. Ching p. 133) [A] Classicism [B] Classic Revival [C] NeoClassicism [D] Tudor Architecture</t>
-  </si>
-  <si>
-    <t>The angle  between the face and the flank of a bastion (D.K. Ching p. 98) [A] Shoulder [B] Face [C] Flank [D] Casemate</t>
-  </si>
-  <si>
-    <t>A prevailing style of architecture, furniture, and crafts current in England and NA colonies, especially from 1714 to 1811, derived from classical, renaissance, and baroque forms. Named after four kings name George who reigned in this period (D.K. Ching p. 133) [A] Elizabethan [B] Georgian [C] Tudor [D] Victorian</t>
-  </si>
-  <si>
-    <t>A transitional style in EU architecture characterized by unconventional use of classical elements. (D.K. Ching p. 133) [A] Cubism [B] Mannerism [C] Functionalism [D] Expressionalism</t>
-  </si>
-  <si>
-    <t>Something beneath, behind or within which a person is protected from storms or other adverse conditions (D.K. Ching p. 136) [A] Shelter [B] Networks [C] Society [D] Nature</t>
-  </si>
-  <si>
-    <t>An american indian dwelling, usually of round or oval shape, formed of poles overlaid with bark, rush mats, or animal skins (D.K. Ching p. 136) [A] Tepee [B] Igloo [C] Wigwam [D] Yurt</t>
-  </si>
-  <si>
-    <t>A parapet having a regular alternation of merlons and crenels, originally for defense but later used as decorative motif. (D.K. Ching p. 99) [A] Merlon [B] Crenels [C] Battlement [D] Portcullis</t>
-  </si>
-  <si>
-    <t>One of the solid parts between the crenels of an embattlement (D.K. Ching p. 99) [A] Merlon [B] Crenels [C] Battlement [D] Portcullis</t>
-  </si>
-  <si>
-    <t>A strong grating of iron or timber hung over the gateway of a fortified place in such a way that it could be lowered quickly to prevent passage (D.K. Ching p. 99) [A] Merlon [B] Crenels [C] Battlement [D] Portcullis</t>
-  </si>
-  <si>
-    <t>A large hall serving as the main or central gathering space of a castle (D.K. Ching p. 99) [A] Chapel [B] Great Hall [C] Ward [D] Keep</t>
-  </si>
-  <si>
-    <t>A bridge that can be raised, let down or drawin aside to preven access or to permit passage between it (D.K. Ching p. 99) [A] Moat [B] Eyelet [C] Drawbridge [D] Loophole</t>
-  </si>
-  <si>
-    <t>A dark, often underground prison or cell as in a mediaval castle (D.K. Ching p. 99) [A] Obliette [B] Machicolation [C] Dungeon [D] Ward</t>
-  </si>
-  <si>
-    <t>A tent of the American Indians, made usually from animal skins laid on a conical frame of long poles and having an opening at the top for ventilation and flap door (D.K. Ching p. 136) [A] Tepee [B] Igloo [C] Wigwam [D] Yurt</t>
-  </si>
-  <si>
-    <t>An eskimo house, usually built of blocks of ice in the shape of a dome (D.K. Ching p. 136) [A] Tepee [B] Igloo [C] Wigwam [D] Yurt</t>
-  </si>
-  <si>
-    <t>A vault or chamber in a rampart, having embrasures for artillery (D.K. Ching p. 98) [A] Shoulder [B] Face [C] Flank [D] Casemate</t>
-  </si>
-  <si>
-    <t>A circular tentlike dwelling of the Mongol nomads of central Asia, consisting of cylindrical wall of poles with a conical roof of poles. (D.K. Ching p. 136) [A] Tepee [B] Igloo [C] Wigwam [D] Yurt</t>
-  </si>
-  <si>
-    <t>A small, simple dwelling or shelter, especially one made of natural materials (D.K. Ching p. 136) [A] Pit Dwelling [B] Hut [C] Longhouse [D] Pueblo</t>
-  </si>
-  <si>
-    <t>A broad, deep ditch usually filled with water, sorrounding the rampart of a fortified town, fortress or castles as protection againsts assault (D.K. Ching p. 99) [A] Moat [B] Eyelet [C] Drawbridge [D] Loophole</t>
-  </si>
-  <si>
-    <t>A small or narrow opening in a wall of a fortification for the discharge of missles (D.K. Ching p. 99) [A] Moat [B] Eyelet [C] Drawbridge [D] Loophole</t>
-  </si>
-  <si>
-    <t>A small aperture in the wall of a medieval castle used as a window or loophole. (D.K. Ching p. 99) [A] Moat [B] Eyelet [C] Drawbridge [D] Loophole</t>
-  </si>
-  <si>
-    <t>A secret dungeon having an opening only in the ceiling though which prisoners were dropped (D.K. Ching p. 99) [A] Obliette [B] Machicolation [C] Dungeon [D] Ward</t>
-  </si>
-  <si>
-    <t>A primitive form of shelter consisting of a pit excavated in earth and roofed over. (D.K. Ching p. 136) [A] Pit Dwelling [B] Hut [C] Longhouse [D] Pueblo</t>
-  </si>
-  <si>
-    <t>A communal dwelling characteristics of many early cultures that of the Iroquols and various other North American Indian peoples, consisting of a wooden bark-covered framework often as much as 100 feet (D.K. Ching p. 136) [A] Pit Dwelling [B] Hut [C] Longhouse [D] Pueblo</t>
-  </si>
-  <si>
-    <t>A communal dwelling and defensive structure of the Pueblo Indians of Southern US built of adobe or stone, typically many storied, and terraced, with entry through the flat roofs (D.K. Ching p. 136) [A] Pit Dwelling [B] Hut [C] Longhouse [D] Pueblo</t>
-  </si>
-  <si>
-    <t>A large, usually rectangular house, constructed of timber plants, built and used by indians and less by eskimos (D.K. Ching p. 136) [A] Trullo [B] Pueblo [C] Igloo [D] Plank House</t>
-  </si>
-  <si>
-    <t>A circular stone shelter of the apulla region of southern italy, roofer with conical constructions of corbeled dry masonry. Usually whitewashed and painted with figures or symbols (D.K. Ching p. 136) [A] Trullo [B] Pueblo [C] Igloo [D] Plank House</t>
-  </si>
-  <si>
-    <t>The main or central inner hall of an ancient roman house, open to the sky at the center and usually having a pool for the collection of rainwater. It is also called as caveadium (D.K. Ching p. 137) [A] Atrium [B] Ambulatory [C] Impluvium [D] Compluvium</t>
-  </si>
-  <si>
-    <t>A colonnade sorrounding a building or a courtyard (D.K. Ching p. 137) [A] Prostyle [B] Peristyle [C] Stylobate [D] Sterobate</t>
-  </si>
-  <si>
-    <t>A roof opening in an ancient roman house though which rainwater discharges into a cistern in the atrium beneath it (D.K. Ching p. 137) [A] Impluvium [B] Compluvium [C] Lacus [D] Salientes</t>
-  </si>
-  <si>
-    <t>A thick straw mat, covered with smooth, finely woven reeds and bound with plain or decorated bands of silk, cotton or hemp. Serving as a floor covering and a standard for designating room size for Japanese Houses (D.K. Ching p. 137) [A] Tatami [B] Engawa [C] Shoji [D] Kakemono</t>
-  </si>
-  <si>
-    <t>Extension of the floor on one or more slides of a japanese style house, usually facing a garden and serving as a passageway or sitting space (D.K. Ching p. 137) [A] Tatami [B] Engawa [C] Shoji [D] Kakemono</t>
-  </si>
-  <si>
-    <t>A vertical hanging scroll containing either text or painting, intended to be viewed on a wall and rolled when not it use (D.K. Ching p. 137) [A] Tatami [B] Engawa [C] Shoji [D] Kakemono</t>
-  </si>
-  <si>
-    <t>One of a series of sliding translucebt panels used in japanese architecture between the exterior and interior, or between two interior spaces, consisting of light wooden framework covered on one side with rice paper. (D.K. Ching p. 137) [A] Tatami [B] Engawa [C] Shoji [D] Kakemono</t>
-  </si>
-  <si>
-    <t>A ceremonial site of japanese residential architecture in the kamakura period, deriving its name from the characteristic of shoin or study bay and mark by heirarchical arrangement of public and private rooms (D.K. Ching p. 137) [A] Zashiki [B] Shoin Zukuri [C] Cha Sit Su [D] Masu Gumi</t>
-  </si>
-  <si>
-    <t>Reception room, the main room of a traditional japanese house, used for receiving and entertaining guests (D.K. Ching p. 137) [A] Zashiki [B] Shoin Zukuri [C] Cha Sit Su [D] Masu Gumi</t>
-  </si>
-  <si>
-    <t>A recess with built in shelving, usually adjoined with Tokonama (D.K. Ching p. 137) [A] Shoin [B] Cha Sit Su [C] Tana [D] Masu Gumi</t>
-  </si>
-  <si>
-    <t>An elevated bay or projected desk for wrting or reading, usually placed at right angle with a tokonama in the reception room of a shoin-zukuri style residence (D.K. Ching p. 137) [A] Shoin [B] Cha Sit Su [C] Tana [D] Masu Gumi</t>
-  </si>
-  <si>
-    <t>A post marking the front of the partition between the tokonama and tana, sometimes of exquisite wood of particular grain and shape (D.K. Ching p. 137) [A] Ken [B] Cha Sit Su [C] Masu Gumi [D] Tokobashira</t>
-  </si>
-  <si>
-    <t>A linear unit for regulating column spacing in traditional japanese construction but later varying according to room width as determined by tatami units (D.K. Ching p. 137) [A] Ken [B] Cha Sit Su [C] Masu Gumi [D] Tokobashira</t>
-  </si>
-  <si>
-    <t>A house having no wall in common with another house (D.K. Ching p. 138) [A] Semi Detach Dwelling [B] Duplex [C] Triplex [D] Detached Building</t>
-  </si>
-  <si>
-    <t>A house joined a party wall to another house or row of houses (D.K. Ching p. 138) [A] Semi Detach Dwelling [B] Duplex [C] Triplex [D] Detached Building</t>
-  </si>
-  <si>
-    <t>A group of nearly 20th century architects, notable Frank Lloyd Wright who designed houses and other buildings with emphasized horizontal lines responding to the flatness of the midwestern prairie (D.K. Ching p. 138) [A] Les Ecoles Beaux Arts [B] Prairie School [C] Bauhaus [D] Chicago School</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t xml:space="preserve">Popular especially in first quarter of 20th century, usually having one or more and half stories, a widely bracketed </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t>gable roof, a large porch, and often built with rustic metals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t xml:space="preserve"> (D.K. Ching p. 138) [A] Split Level [B] Duplex [C] Bungalow [D] Apartment</t>
-    </r>
-  </si>
-  <si>
-    <t>A house having a room or rooms somewhat above or below adjacent rooms, with the floor levels usually differing by approximately half a story (D.K. Ching p. 138) [A] Split Level [B] Duplex [C] Bungalow [D] Apartment</t>
-  </si>
-  <si>
-    <t>A two storey house having the lower level sunken below grade and an entry at grade halfway between the two floor intervals (D.K. Ching p. 138) [A] High Rise [B] Skyscrapper [C] Spilt Level [D] Bi-Level</t>
-  </si>
-  <si>
-    <t>A building having thre apartments, an aparment having three floors or a multiplex of three theaters (D.K. Ching p. 138) [A] Duplex [B] Triplex [C] Split Level [D] Bi-Level</t>
-  </si>
-  <si>
-    <t>A house having separate apartments for two families, especially a two storey house having a complete apartment on each floor and two separate entrances (D.K. Ching p. 138) [A] Duplex [B] Triplex [C] Split Level [D] Bi-Level</t>
-  </si>
-  <si>
-    <t>A house forming part of a real state development, usually having a plan and apperance common to some or all of the houses in the development (D.K. Ching p. 138) [A] Saltbox [B] Cape Code [C] Tract House [D] Rambler</t>
-  </si>
-  <si>
-    <t>One storey house with a low pitched roof especially one built in suburbs (D.K. Ching p. 138) [A] Duplex [B] Triplex [C] Split Level [D] Bi-Level</t>
-  </si>
-  <si>
-    <t>True or False, "Housing Unit" is a house, apartment, suite of rooms, or a single room, occupied or intended for occupancy as separate living quarters (D.K. Ching p. 139) [A] True [B] False</t>
-  </si>
-  <si>
-    <t>An apartment house, office building or other multiple unit complexes, the units of which are individually owned, each owner receiving a recordable deed to the individual unit purchased (D.K. Ching p. 139) [A] Townhouse [B] Condominium [C] Bungalow [D] Duplex</t>
-  </si>
-  <si>
-    <t>One of a row of houses in a cit joined by common sidewalls (D.K. Ching p. 139) [A] Townhouse [B] Condominium [C] Bungalow [D] Duplex</t>
-  </si>
-  <si>
-    <t>One of a row of houses having atleast one sidewall in common with a neighboring unit, and usually uniform or nearly uniform plans, fenestrations, and architectural treatment (D.K. Ching p. 139) [A] Townhouse [B] Condominium [C] Rowhouses [D] Duplex</t>
-  </si>
-  <si>
-    <t>An apartment consisting of a single multifunctional room, a kitchen or kitchenette, and a bathroom. Also called as efficiency apartment (D.K. Ching p. 139) [A] Garden Apartment [B] Studio Apartment [C] Penthouse [D] Flat</t>
-  </si>
-  <si>
-    <t>An apartment or suite of rooms on one floor forming a residence (D.K. Ching p. 139) [A] Garden Apartment [B] Studio Apartment [C] Penthouse [D] Flat</t>
-  </si>
-  <si>
-    <t>An apartment on residence on the top floor or roof of a building. Often set back from the outer walls and opening onto a terrace (D.K. Ching p. 139) [A] Garden Apartment [B] Studio Apartment [C] Penthouse [D] Flat</t>
-  </si>
-  <si>
-    <t>A row of houses or residential street on or near the top of a slope (D.K. Ching p. 139) [A] Crescent [B] Terrace [C] Cluster Housing [D] None of the above</t>
-  </si>
-  <si>
-    <t>The crowning member of a classical cornice, usually a cyma recta (D.K. Ching p. 179) [A] Cornice [B] Stylobate [C] Plinth [D] Cymatium</t>
-  </si>
-  <si>
-    <t>It is the most uppermost member of the classical entablature, consisting of a corona, cymatium and bed moulding (D.K. Ching p. 179) [A] Pediment [B] Frieze [C] Cornice [D] Architrave</t>
-  </si>
-  <si>
-    <t>A horizontal section of a classical order that rests on columns, made up of cornice, architrave and frieze (D.K. Ching p. 179) [A] Entablature [B] Pediment [C] Sterobate [D] Shaft</t>
-  </si>
-  <si>
-    <t>A horizontal part of a classical entablature, rest on the middle of the cornice and the architrave (D.K. Ching p. 179) [A] Frieze [B] Pediment [C] Stylobate [D] Plinth</t>
-  </si>
-  <si>
-    <t>The lower portion of a classical entablature (D.K. Ching p. 179) [A] Pediment [B] Cornice [C] Plinth [D] Architrave</t>
-  </si>
-  <si>
-    <t>It is the central part of a column (D.K. Ching p. 179) [A] Shaft [B] Plinth [C] Base [D] Corona</t>
-  </si>
-  <si>
-    <t>It is the upper end of a column, also noted as a crowning member (D.K. Ching p. 179) [A] Plinth [B] Corona [C] Cornice [D] Capital</t>
-  </si>
-  <si>
-    <t>A cylindrical support member in classical architecture is (D.K. Ching p. 179) [A] Base [B] Pedestal [C] Column [D] Architrave</t>
-  </si>
-  <si>
-    <t>Square slab beneath the base of a column is (D.K. Ching p. 179) [A] Crepidoma [B] Cornice [C] Plinth [D] Podium</t>
-  </si>
-  <si>
-    <t>A construction upon which a column, stature or memorial shaft or the like is elevated  (D.K. Ching p. 179) [A] Base [B] Pedestal [C] Column [D] Architrave</t>
-  </si>
-  <si>
-    <t>The lowest portion of a column, pier or wall is  (D.K. Ching p. 179) [A] Base [B] Pedestal [C] Column [D] Architrave</t>
-  </si>
-  <si>
-    <t>The projecting slablike member of a classical cornice supported by a bed moulding  (D.K. Ching p. 179) [A] Cyma reversa [B] Corona [C] Lattice [D] Frieze</t>
-  </si>
-  <si>
-    <t>Two columns and pilasters closed together, it is: (D.K. Ching p. 179) [A] Intercolumnation [B] Columnation [C] Accouplement [D] Bank</t>
-  </si>
-  <si>
-    <t>Underside of a slab or a beam (D.K. Ching p. 180) [A] Access Flooring [B] Soffit [C] Dropped Ceiling [D] Girder</t>
-  </si>
-  <si>
-    <t>Animal carved figure in a frieze is called: (D.K. Ching p. 180) [A] Mutule [B] Triglyph [C] Zophorus [D] Entasis</t>
-  </si>
-  <si>
-    <t>Any of the panels, either plain or decorated between triglyphs in the doric frieze  (D.K. Ching p. 180) [A] Metope [B] Regula [C] Mutule [D] Voissors</t>
-  </si>
-  <si>
-    <t>A rounded channel or groove, also a decorative mottif in classical orders  (D.K. Ching p. 180) [A] Flute [B] Voussoirs [C] Shaft [D] Mutule</t>
-  </si>
-  <si>
-    <t>Projecting block under the corona of a doric cornice  (D.K. Ching p. 180) [A] Gutta [B] Regula [C] Mutule [D] Flutting</t>
-  </si>
-  <si>
-    <t>A classical order of the romans, characterized by unfluted column and a plain base  (D.K. Ching p. 180) [A] Composite [B] Corinthian [C] Ionic [D] Tuscan</t>
-  </si>
-  <si>
-    <t>A popular order in the renaissance period but made from ancient romans, and is also a modified version of the corinthian order  (D.K. Ching p. 180) [A] Tuscan [B] Etruscan [C] Corinthian [D] Composite</t>
-  </si>
-  <si>
-    <t>Order: 6th century asia minor, introduction of egg and dart mouldings, capital with spiral volutes  (D.K. Ching p. 181) [A] Doric [B] Tuscan [C] Corinthian [D] Ionic</t>
-  </si>
-  <si>
-    <t>Scroll, spiral in shape, usually seen in capitals of ionic, corinthian and composite orders (D.K. Ching p. 181) [A] Cantharus [B] Volutes [C] Voussoirs [D] Echinus</t>
-  </si>
-  <si>
-    <t>Ornamental motif for enrriching an ovolo or echinus, consisting of a closely set, alternating series of oval and pointed forms. (D.K. Ching p. 181) [A] Egg and dart [B] Papyrus [C] Egg and tongue [D] Dentil</t>
-  </si>
-  <si>
-    <t>One of the three horizontal bands making the architrave of the ionic order (D.K. Ching p. 181) [A] Fascia [B] Gutta [C] Tympanum [D] None of the above</t>
-  </si>
-  <si>
-    <t>ornamental bracket, usually in the form of a scroll with acanthus, used in series beneath the corona of a corinthian, composite or roman ionic orders (D.K. Ching p. 181) [A] Mutule [B] Modillion [C] Corona [D] None of the above</t>
-  </si>
-  <si>
-    <t>Circular moldings under the cushions of an ionic capital between the volutes (D.K. Ching p. 181) [A] Abacus [B] Fillet [C] Echinus [D] None of the above</t>
-  </si>
-  <si>
-    <t>narrow part of the surface of a column left between adjoining flutes (D.K. Ching p. 181) [A] Fillet [B] Chamfer [C] Triglyph [D] Metope</t>
-  </si>
-  <si>
-    <t>A large convex, semicircular molding. Commonly found directly above the plinth of the base of a classical column (D.K. Ching p. 181) [A] Stylobate [B] Sterobate [C] Torus [D] Scotia</t>
-  </si>
-  <si>
-    <t>A deep concave moulding between two fillets (D.K. Ching p. 181) [A] Torus [B] Scotia [C] Stylobate [D] Stereobate</t>
-  </si>
-  <si>
-    <t>Ornamental stalks rising between the acanthus leaves of a corinthian capital (D.K. Ching p. 181) [A] Cauliculus [B] Helix [C] Entasis [D] Cymatium</t>
-  </si>
-  <si>
-    <t>In the five orders, it is the most ornate developed by the greeks and used more extensively by the romans (D.K. Ching p. 181) [A] Doric [B] Ionic [C] Corinthian [D] Composite</t>
-  </si>
-  <si>
-    <t>A pictorial sign or symbol is (D.K. Ching p. 182) [A] Mosaic [B] Grafitti [C] Pictograph [D] Relief</t>
-  </si>
-  <si>
-    <t>Ancient drawings or writings scratched on stones, plaster or other hard surface  (D.K. Ching p. 182) [A] grafitti [B] grafitto [C] bas relief [D] mosaic</t>
-  </si>
-  <si>
-    <t>A picture made of little pieces of tile, enamel or glass or even mortar  (D.K. Ching p. 182) [A] Mosaic [B] Heiroglyphics [C] Fresco [D] Mural</t>
-  </si>
-  <si>
-    <t>Projection of a figure or form from the first background on which it is formed  (D.K. Ching p. 182) [A] Bas relief [B] relief [C] Mural [D] fresco</t>
-  </si>
-  <si>
-    <t>scultural relief that projects very slightly from the background  (D.K. Ching p. 182) [A] Bas Relief [B] Grafitti [C] Pictograph [D] Relief</t>
-  </si>
-  <si>
-    <t>large painted pictures on a wall or ceiling surfaces is  (D.K. Ching p. 182) [A] Fresco [B] Murals [C] Lacunaria [D] Cofferdome</t>
-  </si>
-  <si>
-    <t>Gargoyles in gothic architecture are considered what kind of ornament? (D.K. Ching p. 183) [A] Antic [B] Fresco [C] Grafitti [D] Mural</t>
-  </si>
-  <si>
-    <t>Latin cross with a ring in its shaft is:  (D.K. Ching p. 183) [A] Celtic Cross [B] Greek Cross [C] Jerusalem Cross [D] none of the above</t>
-  </si>
-  <si>
-    <t>Any mosaic of regularly cut material  (D.K. Ching p. 182) [A] Opus sectile [B] Opus mixtum [C] Opus recticulatum [D] Opus Alexandrinum</t>
-  </si>
-  <si>
-    <t>A mosaic of tessera arranged in waving lines resembling the form tracks of a worm  (D.K. Ching p. 182) [A] Opus Quadratum [B] Opus recticulatum [C] Opus Mixtum [D] Opus Vermiculatum</t>
-  </si>
-  <si>
-    <t>A kind of cross with a shorter horizontal bar and an upright vertical shaft  (D.K. Ching p. 183) [A] Greek Cross [B] Celtic Cross [C] Latin Cross [D] Jerusalem Cross</t>
-  </si>
-  <si>
-    <t>The symbol of red cross is:  (D.K. Ching p. 183) [A] Jerusalem Cross [B] Greek Cross [C] Latin Cross [D] Celtic Cross</t>
-  </si>
-  <si>
-    <t>a decorative design contained within a band or bonier, consisting of repeated, often geometric features. Also called as fret (D.K. Ching p. 183) [A] Scultured Relief [B] Key Pattern [C] Lotus [D] Papyrus</t>
-  </si>
-  <si>
-    <t>Common ornament used in heraldic bearings for the royal families in francem usually three petaled flowers  (D.K. Ching p. 183) [A] Anthemion [B] Honeysuckle [C] Fleur de Lis [D] Lotus</t>
-  </si>
-  <si>
-    <t>Ornament with palm leaves in a radiating center  (D.K. Ching p. 183) [A] Antefixae [B] Anthemion [C] Acroterion [D] Echinus</t>
-  </si>
-  <si>
-    <t>verious aquatic plants in the water lily family, used as decorative motif in egypt, hindu art and architecture  (D.K. Ching p. 183) [A] Papyrus [B] Lotus [C] Palm [D] Echinus</t>
-  </si>
-  <si>
-    <t>art or technique of painting on a freshly spread, moist plaster surface with pigments ground up in water or limewater mixture  (D.K. Ching p. 183) [A] Bas-Relief [B] Plaster Ground [C] Fresco [D] Grouting</t>
-  </si>
-  <si>
-    <t>Double curve moulding, and also called as gula  (D.K. Ching p. 183) [A] Fillet [B] Trimmer [C] Ogee [D] Cavetto</t>
-  </si>
-  <si>
-    <t>moulding with concave and convex line joints together is:  (D.K. Ching p. 183) [A] Cavetto [B] Cortel [C] Cyma [D] Ogee</t>
-  </si>
-  <si>
-    <t>A cyma having the concave part projecting beyond the convex part is  (D.K. Ching p. 183) [A] Cyma Recta [B] Ogee [C] Astragal [D] Cyma reversa</t>
-  </si>
-  <si>
-    <t>A cyma having the convex part projecting beyond the concave part is  (D.K. Ching p. 183) [A] Astragal [B] Ogee [C] Cyma reversa [D] Cyma recta</t>
-  </si>
-  <si>
-    <t>small convex molding usually semi circular in section  (D.K. Ching p. 183) [A] Astragal [B] Bead [C] Baguette [D] None of the above</t>
-  </si>
-  <si>
-    <t>A convex molding having a profile approximately quarter section of a circle or ellipse  (D.K. Ching p. 183) [A] Ovolo [B] Cavetto [C] Ogee [D] Cyma</t>
-  </si>
-  <si>
-    <t>Smaller than astragal, small convex molding of semi circular section  (D.K. Ching p. 183) [A] Ogee [B] Bead [C] Baguette [D] Astragal</t>
-  </si>
-  <si>
-    <t>An ornamental bracket, usually formed with scrolls and higher than its projection (D.K. Ching p. 186) [A] Plinth [B] Frieze [C] Console [D] Architrave</t>
-  </si>
-  <si>
-    <t>a molded or decoration band framing a rectangular door or window opening  (D.K. Ching p. 186) [A] Pediment [B] Entablature [C] Architrave [D] Base</t>
-  </si>
-  <si>
-    <t>A decorative brand, as one along the top of an interior wall, immediately below the cornice or a sculptured one in a string course on an outside wall  (D.K. Ching p. 186) [A] Cornice [B] Corona [C] Frieze [D] Architrave</t>
-  </si>
-  <si>
-    <t>The man of learning can fearlessly look down upon the troublesome accidents of fortune. But he who thinks himself entrenched in defense not of learning but of luck moves one slippery path, struggling through life unsteadly and insecurely [A] A new archirecture by Frank Lloyd Wright [B] The ten books of Architecture by Marc Vitrivius [C] Space, Time and Architecture by Sigfried Gideon [D] The Poetry of Architecture by John Ruskin</t>
-  </si>
-  <si>
-    <t>PD 957, In design standards for residential condominium Projects, offsite parking is allowed but must not be more how many meters from the building it serves? [A] 31 Meters [B] 50 Meters [C] 100 Meters [D] 150 Meters</t>
-  </si>
-  <si>
-    <t>When the owner hires an architect of firm to coordinate the whole range of comprehensive services it shall constitute [A] Design Build Services [B] Labor Supervision [C] Project Management [D] Construction Management</t>
-  </si>
-  <si>
-    <t>An english architect who prepared plans for london i.e. St, Peter's and St. Paul Cathedral; proposed a network of avenues connecting the main features of London [A] Leonardo Da Vinci [B] Leon Battista Alberti [C] Pierre Charles L` Enfant [D] Sir Christopher Wren</t>
-  </si>
-  <si>
-    <t>It is the third phase of English Gothic Architecture where elaborated ornamental vaulting and refinement of stonecutting techniques [A] Perpendicular Style [B] Reyonnant Style [C] Rococo [D] Decorated Style</t>
-  </si>
-  <si>
-    <t>The memorial column built in the form of tall doric order and made entirely of marble is: [A] Column of Antoninus Pius [B] Trajan's Column [C] Column of Marcus Aurelius [D] Column of Diocletian</t>
-  </si>
-  <si>
-    <t>Pertaining to religious objects, rites or practices, as opposed to the secular or profane (D.K. Ching p. 248) [A] Secular [B] Parliament [C] Sacred [D] All of the above</t>
-  </si>
-  <si>
-    <t>A temple tower pressumed to be the great ziggurat at babylon, which no longer survives, though it was seen and described by the greek historian herodotus in the 5th century BC (D.K. Ching p. 248) [A] Temple of Agamemnon [B] Tower of Babel [C] Hanging Gardens [D] Great Pyramid of Amon Karnak</t>
-  </si>
-  <si>
-    <t>Monumental stone sculptures of human-headed, winged bulls or lines that guard the entrances to mesopotamia palaces and temples (D.K. Ching p. 248) [A] Dragon [B] Lamassu [C] Heiroglyphics [D] Criosphinx</t>
-  </si>
-  <si>
-    <t>A prehistoric monument consisting of two or more large upright stones supporting a horizontal stone slab. Commonly found in Great Britain (D.K. Ching p. 248) [A] Menhir [B] Dolmen [C] Tumuli [D] Stupa</t>
-  </si>
-  <si>
-    <t>A prehistoric monument consisting of an upright magalithic, usually standing alone but sometimes aligned with others (D.K. Ching p. 248) [A] Stupa [B] Tumuli [C] Dolmen [D] Menhir</t>
-  </si>
-  <si>
-    <t>Very large stone used as found or roughly dressed (D.K. Ching p. 248) [A] Monolith [B] Megalith [C] Neolithic [D] Paleolithic</t>
-  </si>
-  <si>
-    <t>Obelisk is one of the elements of muslim architecture, but what kind of stone it is? (D.K. Ching p. 248) [A] Monolith [B] Neolithic [C] Paleolithic [D] Megalith</t>
-  </si>
-  <si>
-    <t>An artificial mound of earth or stone, especially over an ancient grave. (D.K. Ching p. 248) [A] Tumulus [B] Cromlech [C] Menhir [D] Stupa</t>
-  </si>
-  <si>
-    <t>Stonehenge is a circular formation of formed dolmens which was used by our old ancestral humans to determine sunpath, and time. What kind of term should be used for stonehenge? (D.K. Ching p. 248) [A] Menhir [B] Tumulus [C] Cromlech [D] Dromos</t>
-  </si>
-  <si>
-    <t>A long deep passageway into an ancient subterranean tomb (D.K. Ching p. 248) [A] Domus [B] Dromos [C] Aqueducts [D] Cloisters</t>
-  </si>
-  <si>
-    <t>Two upright megaliths supporting a horizontal stone. (D.K. Ching p. 248) [A] Menhir [B] Cromlech [C] Trilithon [D] Dromos</t>
-  </si>
-  <si>
-    <t>The small chamber, underground below a mastaba in egyptian architecture (D.K. Ching p. 249) [A] Dolmen [B] Tumuli [C] Serdab [D] Seraglio</t>
-  </si>
-  <si>
-    <t>A tall four sided shaft of stone that tapers as it rises to a pyramidial point. Originating in ancient egypt as a sacred symbol for the sund god Ra and usually standing in pairs astride temple entrances (D.K. Ching p. 249) [A] Pylons [B] Minarets [C] Serdabs [D] Obelisks</t>
-  </si>
-  <si>
-    <t>A hirstoric burial ground, a large elaborate one of an ancient city. Can be called as "city of the dead" (D.K. Ching p. 249) [A] Acropolis [B] Persepolis [C] Necropolis [D] Heliopolis</t>
-  </si>
-  <si>
-    <t>A concave moulding having an outline that approximates a quartercircle (D.K. Ching p. 249) [A] Cortel [B] Cavetto [C] Cyma Reversa [D] Cyma Recta</t>
-  </si>
-  <si>
-    <t>A monumental gateway for egyptian to ancent temple (D.K. Ching p. 249) [A] Propylaea [B] Torii [C] Goppuram [D] Pylon</t>
-  </si>
-  <si>
-    <t>Noting an ancient egyptian column having as its capital the head of hathor. But who is hathor in the ancient world? (D.K. Ching p. 249) [A] Goddes of War [B] Goddess of Victory [C] Goddess of Love and Happiness [D] Goddess of Fortune</t>
-  </si>
-  <si>
-    <t>A figure of imaginary creature having the body of a lion and the hard of a man, ram or hawk commonly placed un the avenues leading to an ancient temples or tombs (D.K. Ching p. 249) [A] Lamella [B] Sphinx [C] Syrinx [D] Pylons</t>
-  </si>
-  <si>
-    <t>A building or semi independent unit of a building, typically having a rectangular principal chamber with a center hearth and a porch. Commonly in greece and mycenae and is usually formed with doric order columns (D.K. Ching p. 250) [A] Insula [B] Villa [C] Megaron [D] Tumulus</t>
-  </si>
-  <si>
-    <t>A principal chamber or enclosed part of a classical temple, where the cult image was kept. Also called as naos (D.K. Ching p. 250) [A] Cancelli [B] Nave [C] Cella [D] Plinth</t>
-  </si>
-  <si>
-    <t>Greek Temples are designed for: (D.K. Ching p. 250) [A] Internal Effect [B] Internal Worship [C] Dedicated to Greek God or Goddesses [D] All of the above</t>
-  </si>
-  <si>
-    <t>A wide low pitch gable sorrounding a colonnade or a major division of a façade in greek and roman temples (D.K. Ching p. 250) [A] Architrave [B] Entrablature [C] Pediment [D] Tympanum</t>
-  </si>
-  <si>
-    <t>The rear vestibule of a classical temple (D.K. Ching p. 250) [A] Naos [B] Cella [C] Epinaos [D] Temenos</t>
-  </si>
-  <si>
-    <t>The open vestubule before the cella of a classical temple (D.K. Ching p. 250) [A] Naos [B] Epinaos [C] Pronaos [D] Nave</t>
-  </si>
-  <si>
-    <t>An upright stone slab or pillar with a carved or inscribed surfaced, used as a monument or marker (D.K. Ching p. 250) [A] Pylon [B] Menhir [C] Stele [D] Minarets</t>
-  </si>
-  <si>
-    <t>An elevated place or structure where rituals and sacrifices are made (D.K. Ching p. 250) [A] Sanctuary [B] Altar [C] Baldachino [D] Stele</t>
-  </si>
-  <si>
-    <t>It served as a model for early christian basilicas and typically having a high central space lit by clerestory and covered by timbered trusses, and a raised dais in a semi circular apse (D.K. Ching p. 251) [A] Church [B] Basilica [C] Forum [D] Agora</t>
-  </si>
-  <si>
-    <t>It is the center of judicial and business affairs for the ancient roman people. Usually have a temple and a basilica (D.K. Ching p. 251) [A] Agora [B] Stoa [C] Forum [D] Piazza</t>
-  </si>
-  <si>
-    <t>A raised platform in an ancient roman basilica for the seats of magistrates (D.K. Ching p. 251) [A] Skene [B] Exedrae [C] Tribunal [D] Plinth</t>
-  </si>
-  <si>
-    <t>Monumental memorial erected astride the line of march of a victorious army during its campaign (D.K. Ching p. 251) [A] Rostral Column [B] Cenotaphs [C] Triumphal Arch [D] Obelisks</t>
-  </si>
-  <si>
-    <t>A roman  temple which is wholly or partly open to the sky (D.K. Ching p. 251) [A] Cleretory [B] Hypostyle Hall [C] Clerestory [D] Hypethral</t>
-  </si>
-  <si>
-    <t>Temples having engaged columns at its sides (D.K. Ching p. 251) [A] Prostyle [B] Pteroma [C] Pseudo-peripteral [D] Amphi-prostyle</t>
-  </si>
-  <si>
-    <t>temples with 2 rows of columns on all sides (D.K. Ching p. 251) [A] Diastyle [B] Dipteral [C] Prostyle [D] Pteroma</t>
-  </si>
-  <si>
-    <t>having an arrangement of columns suggesting a dipteral structure but without the inner colonade (D.K. Ching p. 251) [A] Pseudo-Dipteral [B] Amphi-Prostyle [C] Diastyle [D] Systyle</t>
-  </si>
-  <si>
-    <t>Having a portico in the front side only (D.K. Ching p. 251) [A] Peripteral [B] Prostyle [C] Picnostyle [D] Areostyle</t>
-  </si>
-  <si>
-    <t>Without colonade along the sides (D.K. Ching p. 251) [A] Amphi-prostyle [B] Dipteral [C] Apteral [D] Eustyle</t>
-  </si>
-  <si>
-    <t>Prostyle on both sides (D.K. Ching p. 251) [A] Pseudo-Dipteral [B] Pseudo-Peripteral [C] Amphi-Prostyle [D] Apteral</t>
-  </si>
-  <si>
-    <t>Masjid in muslim architecture is also called as (D.K. Ching p. 252) [A] Minarets [B] Dromos [C] Mosques [D] Pylons</t>
-  </si>
-  <si>
-    <t>A muslim theological school arranged around a courtyard and attached to a masjid (D.K. Ching p. 252) [A] Minaret [B] Mimbar [C] Madrassah [D] Pylon</t>
-  </si>
-  <si>
-    <t>A large open square of a city used as a market place especially in india (D.K. Ching p. 252) [A] Forum [B] Agora [C] Piazza [D] Meidan</t>
-  </si>
-  <si>
-    <t>A large vaulted opening onto the central courtyard of a mosque (D.K. Ching p. 252) [A] Meidan [B] Iwan [C] Koran [D] Qibla</t>
-  </si>
-  <si>
-    <t>In muslim architecture, it is considered as the pulpit in early christial architecture (D.K. Ching p. 252) [A]Mirhab [B] Mimbar [C] Apse [D] Nave</t>
-  </si>
-  <si>
-    <t>A niche or decorative panel in a mosque designating the qibla (D.K. Ching p. 252) [A] Mimbar [B] Koran [C] Minaret [D] Mihrab</t>
-  </si>
-  <si>
-    <t>The central courtyard of a mosque (D.K. Ching p. 252) [A] Cortel [B] Piazza [C] Sahn [D] Patio</t>
-  </si>
-  <si>
-    <t>Mandira is (D.K. Ching p. 253) [A] Chinese Temple [B] Islamic Temple [C] Hindu Temple [D] Buddhist Temple</t>
-  </si>
-  <si>
-    <t>the oldest sacred writings in hinduism (D.K. Ching p. 253) [A] Heiroglyphics [B] Vedas [C] Alibata [D] Cuneiform</t>
-  </si>
-  <si>
-    <t>A freestanding memorial pillar in indian architecture. (D.K. Ching p. 253) [A] Pylons [B] Obelisks [C] Rostral Column [D] Stambha</t>
-  </si>
-  <si>
-    <t>An elaborately carved, ceremonial gateway in indian buddhist and hindu architecture (D.K. Ching p. 253) [A] Gopuram [B] Torana [C] Torii [D] Pai-Lou</t>
-  </si>
-  <si>
-    <t>Sanctuary of a hindu temple in which a deity is enshrined (D.K. Ching p. 253) [A] Cenotaphs [B] Stupa [C] Vimana [D] Sikhara</t>
-  </si>
-  <si>
-    <t>A tower of hindu temple, usually tapered convexly and capped by an amalaka (D.K. Ching p. 253) [A] Stupa [B] Torana [C] Gopuram [D] Sikhara</t>
-  </si>
-  <si>
-    <t>A monument, usually ornate gateway tower to a hindu temple, especially in southern india (D.K. Ching p. 253) [A] Gopuram [B] Torana [C] Torii [D] Propylaea</t>
-  </si>
-  <si>
-    <t>consist of artificially dome shaped mound raised in a platform, noted as a buddhist memorial mound erected to enshrined a relic. Called as dagoba in ceylon, dagoba in nepal. (D.K. Ching p. 253) [A] Minaret [B] Obelisks [C] Stupa [D] Sikhara</t>
-  </si>
-  <si>
-    <t>8 sided structure, erected as a memorial or to hold relics and is made of wood (D.K. Ching p. 254) [A] Pagoda [B] Stupa [C] Sikhara [D] Pai Lou</t>
-  </si>
-  <si>
-    <t>A monumental, freestanding gateway on the approach of a shinto shrine. Usually having a lintel curving upward (D.K. Ching p. 254) [A] Torana [B] Pai Lou [C] Torii [D] Pylon</t>
-  </si>
-  <si>
-    <t>Assembly hall for monks in a japanese buddhist temple (D.K. Ching p. 254) [A] Cha-Sit-Su [B] Tokonama [C] Kodo [D] Kondo</t>
-  </si>
-  <si>
-    <t>Golden hall, the sanctuary where the main image of worship is kept in. Jodo, Shinsu, and Necheiren sects of buddhism use the term hondo for this sanctuary (D.K. Ching p. 254) [A] Forbidden City [B] Persepolis [C] Kondo [D] Sikhara</t>
-  </si>
-  <si>
-    <t>The covered gallery sorrounding a precint of a japanese temple or shrine (D.K. Ching p. 254) [A] Kairo [B] Cairo [C] Kondo [D] Kodo</t>
-  </si>
-  <si>
-    <t>A structure from which the temple bell is hung in japanese architecture (D.K. Ching p. 254) [A] Spire [B] Shoro [C] Tokonama [D] Pylon</t>
-  </si>
-  <si>
-    <t>the hall of worship inside a shinto shrine (D.K. Ching p. 254) [A] Hikari [B] Kondo [C] Haiden [D] Cha-Sit-Su</t>
-  </si>
-  <si>
-    <t>Main sanctuary of a shinto shrine (D.K. Ching p. 254) [A] Masugumi [B] Tokonama [C] Konden [D] Kokoro</t>
-  </si>
-  <si>
-    <t>Which of the following is not true regarding greek and roman theaters? (D.K. Ching p. 256) [A] Greek theaters are usually located in a slope of a downhill, and Is backed by a skene. [B] Roman Theaters are build on level with ground, having a semi circular orchestra area [C] Greek and Roman theaters are open-air and is usually hollowed out [D] All of the about are true</t>
-  </si>
-  <si>
-    <t>A wedge shaped section of seats between two stepped passageways in an ancient greek theater (D.K. Ching p. 256) [A] Cercis [B] Velarium [C] Podium [D] Skene</t>
-  </si>
-  <si>
-    <t>A canvas awning drawn over an ancient roman amphitheater to protect the audience from rain or sun (D.K. Ching p. 256) [A] Thermae [B] Impluvium [C] Velarium [D] Canopy</t>
-  </si>
-  <si>
-    <t>A raised platform encircling the arena of an ancient roman amphitheater, having seats for privilaged people (D.K. Ching p. 256) [A] Podium [B] Plinth [C] Crepidoma [D] Base</t>
-  </si>
-  <si>
-    <t>What is the architectural style of the Barasoain Church's pediment? [A] Baroque [B] Romanesque [C] Rococo [D] Renaissance</t>
-  </si>
-  <si>
-    <t>What element of the facade (Barasoain Church) has the romanesque style? [A] Pilasters [B] Rose Window [C] Bell Tower [D] Door</t>
-  </si>
-  <si>
-    <t>What is the architectural style of the pilaster in the facade of Barasoain Church? [A] Anglo Saxon [B] Romanesque [C] Baroque [D] Gothic</t>
-  </si>
-  <si>
-    <t>Bernini's Royal Staircase at Vatican City, what is the style of its ceiling? [A] Cross Vault [B] Groin Vault [C] Sexpartite Vault [D] Barrel Vault</t>
-  </si>
-  <si>
-    <t>What type of order was used for the columns of Bermini's Royal Staircase? [A] Doric [B] Corinthian [C] Ionic [D] Composite</t>
-  </si>
-  <si>
-    <t>From what materials are the pyramids? [A] Stones [B] Marble [C] Clay [D] Bricks</t>
-  </si>
-  <si>
-    <t>What did the ancient egyptians used in lifting the materials of the pyramid? [A] Axe and Wooden Wheels [B] Lever [C] Wedge [D] Rope</t>
-  </si>
-  <si>
-    <t>What is the purpose of the flying butresses in Gothic Architecture? [A] Support the truss of the cathedral [B] Support the high wall and transfer the load to the ground [C] For Aesthetics [D] Intricate Favoritism</t>
-  </si>
-  <si>
-    <t>Industrial Revolution [A] 12th to 13th Century [B] 15th to 16th Century [C] 18th to 19th Century [D] 21th Century to the Present</t>
-  </si>
-  <si>
-    <t>Faux Arts is: [A] Decorative Arts [B] Immitation [C] Grandeur [D] Modern Arts</t>
-  </si>
-  <si>
-    <t>Where does muslim architecture originate? [A] Early Christian [B] Roman [C] Greek [D] Byzantine</t>
-  </si>
-  <si>
-    <t>What is the most predominant element feature in Muslim Architecture? [A] Pylons [B] Minarets [C] Ogee [D] Masjid</t>
-  </si>
-  <si>
-    <t>What design element of a Mosque summons the muslims for worship? [A] Qibla [B] Minaret [C] Mimbar [D] Pinnacles</t>
-  </si>
-  <si>
-    <t>It is the pulpit in Muslim Architecture [A] Qibla [B] Minaret [C] Masjid [D] Mimbar</t>
-  </si>
-  <si>
-    <t>Which become the first industrialized area in Manila? [A] Sta. Ana [B] Makati [C] Quezon City [D] Pandacan</t>
-  </si>
-  <si>
-    <t>During the 1900's why does the laborers and workers did not build their house inside Manila? [A] Because of Manila Zoning [B] Because of Himagsikan [C] Because of Local Ordinance [D] Because it's expensive to live there</t>
-  </si>
-  <si>
-    <t>Industrial Revolution [A] Railroads [B] Canal [C] Elevator [D] All of the above</t>
-  </si>
-  <si>
-    <t>Information about Otto Wagner, which is correct? [A] Jugendstil Architect [B] Rumbach St. Budapest [C] Majonga House [D] All of the above</t>
-  </si>
-  <si>
-    <t>What style mostly influences the churches in the philippines [A] Romanesque [B] Post Modern [C] Baroque [D] Renaissance</t>
-  </si>
-  <si>
-    <t>What do you call the recess found in the dome to make the structure lighter? [A] Podium [B] Coffers [C] Pendentive [D] Oculus</t>
-  </si>
-  <si>
-    <t>Tomb of standing stones usually capped with a large horizontal slab? [A] Menhir [B] Cromlech [C] Dolmen [D] Stonehenge</t>
-  </si>
-  <si>
-    <t>What style usually is influenced by Geometric Figures? [A] Renaissance [B] Gothic [C] Romanesque [D] All of the above</t>
-  </si>
-  <si>
-    <t>Who gave the statue of Liberty to the US? [A] Spain [B] France [C] Great Britain [D] Philippines</t>
-  </si>
-  <si>
-    <t>What do you call the corridor that radiates to the center? [A] Concentric [B] Radial [C] Radiocentric [D] Grid</t>
-  </si>
-  <si>
-    <t>What do you call the covered corridor in Bahay na bato? [A] Entrusuelo [B] Balcon [C] Galleria [D] Dapogan</t>
-  </si>
-  <si>
-    <t>The optical correction made in column [A] Plinth [B] Entasis [C] Hypotrachelion [D] Metope</t>
-  </si>
-  <si>
-    <t>In vernacular architecture, it is where the cups, utensils are kept [A] Cusina [B] Bilik [C] Azotea [D] Banguerahan</t>
-  </si>
-  <si>
-    <t>What is the frieze in modern times? [A] Gutter [B] Beam [C] Downspout [D] Architrave</t>
-  </si>
-  <si>
-    <t>It is also designed as a beam, to support [A] Corbels [B] Wall Footing [C] Slab [D] None of the above</t>
-  </si>
-  <si>
-    <t>The intersection at the center of the vault is [A] Key [B] Spandrel [C] Boss [D] Intrados</t>
-  </si>
-  <si>
-    <t>Style that is characterized by horizontal lines and window tracery [A] Gothic [B] Baroque [C] Mannerism [D] Rococo</t>
-  </si>
-  <si>
-    <t>A Spanish Architect who designed the Sagrada Familia [A] Walter Gropius [B] Frank Lloyd Wright [C] Antonio Gaudi [D] Otto Wagner</t>
-  </si>
-  <si>
-    <t>A pritzker prize architect [A] Walter Gropius [B] Otto Wagner [C] Frank Gehry [D] Le Corbusier</t>
-  </si>
-  <si>
-    <t>Guggenheim Museum, what kind of style? [A] International Style [B] Organic Architecture [C] Neoclassism [D] Deconstructivism</t>
-  </si>
-  <si>
-    <t>A semi circular column flushed in the wall [A] Post [B] Composite Column [C] Engaged Column [D] Lally Column</t>
-  </si>
-  <si>
-    <t>A style that is characterized by vertical / parallel and tracery of windows [A] Byzantine [B] Mannerism [C] Early Christian [D] Art Deco</t>
-  </si>
-  <si>
-    <t>What is the purpose of a fortress? [A] A military installation [B] To protect the owner from enemy attack [C] Start of civilization [D] War and tactics</t>
-  </si>
-  <si>
-    <t>A style that is characterized by tracery with foils and usually vertical with spires [A] Gothic [B] Mannerism [C] Early Christian [D] Art Deco</t>
-  </si>
-  <si>
-    <t>A period in architecture where religious structures have simple pediment and a dome on top [A] Byzantine [B] Gothic [C] Early Christian [D] Medieval</t>
-  </si>
-  <si>
-    <t>Where can be the pyramid of cheops be found? [A] Mexico [B] Brazil [C] Iraq [D] Egypt</t>
-  </si>
-  <si>
-    <t>It is the hindu gateway [A] Torana [B] Sikhara [C] Amalaka [D] Gopuram</t>
-  </si>
-  <si>
-    <t>The gateway of the buddhist in Indian Architecture [A] Amalaka [B] Gopuram [C] Torana [D] Sikhara</t>
-  </si>
-  <si>
-    <t>When the spaniards came, they noticed that the house where easily destroyed during typhoons, what type of house was introduced to them? [A] Domus [B] Bahay na Bato [C] Duplex [D] Ifugao House</t>
-  </si>
-  <si>
-    <t>A semi circular area on the end side of a church [A] Nave [B] Ambulatory [C] Apse [D] Naos</t>
-  </si>
-  <si>
-    <t>Mostly found in China and Japan [A] Torii [B] Pagoda [B] Pai Lou [D] All of the above</t>
-  </si>
-  <si>
-    <t>Who was the architect commissioned by French President Francois Mitterrand in 1984 to design the full framed glass structure that will serve as a museum? [A] Tadao Ando [B] IM Pei [C] Kenzo Tange [D] Norman Foster</t>
-  </si>
-  <si>
-    <t>Which is the vernacular term that stands for a house among with the Malay Origins? [A] Casa [B] Bahay [C] Balai [D] Kubo</t>
-  </si>
-  <si>
-    <t>What is the basis of a door which is in the modern today from our past generations? [A] Post and Lintel [B] Arcuated [C] Sober and Dignified [D] Arch and Vault</t>
-  </si>
-  <si>
-    <t>What influecens Contemporary Architecture [A] Building Materials [B] Existing Laws [C] Culture [D] All of the above</t>
-  </si>
-  <si>
-    <t>The nile river is the longest river in the world, stretching north for approximately 4,000 miles from east africa to the mediterranean. What material was used for the construction of the pyramids? [A] Compacted Sand [B] Clay [C] Stones [D] Mud</t>
-  </si>
-  <si>
-    <t>From the ealiest times, the waters of the nile, swollen by monsoon rains from Ehiopia, flooded the sorrounding valleys every year between June and September of the modern calendar. Since most of the egyptians were farmers, when the nile was at its highest, they were utilized to build the pyramids. how did the farmers transfer the materials from the production area to the construction? [A] Axle and Wheels [B] Wooden Wheels [C] Stone Wheels [D] Pulley and Wedge</t>
-  </si>
-  <si>
-    <t>In terms of construction, what is the similiarity of the Pyramid construction with the modern day construction today? [A] The use of Concrete [B] The use of Mechanical Equipment [C] Manual Labor [D] All of the above</t>
-  </si>
-  <si>
-    <t>The Pyramids at Gizeh, what is their dimension? [A] 700 x 500 [B] 730 x 500 [C] 450 x 480 [D] 800 x 600</t>
-  </si>
-  <si>
-    <t>The famous pyramids of egypt are generally considered to be the world's oldest monumental structures and where built as tombs for the pharoahs. The rice terraces of the Philippines are commonly referred as the Eight Wonder of the World and was named as a heritage site in 1995, how are they similar? [A] Both were built by nomads [B] They were both used for religious purposes [C] Both were built around 1000 BC [D] Both employed a unique system of construction</t>
-  </si>
-  <si>
-    <t>Temple of Amon, Karnak: What kind of temple? [A] Mortuary Temple [B] Cult Temple [C] Shrine [D] Mastaba</t>
-  </si>
-  <si>
-    <t>What was the design fo the columns on the Great Hypostyle Hall? [A} Corinthian [B] Palm Capital [C] Papyrus [D] Ionic</t>
-  </si>
-  <si>
-    <t>Columns at the Great Hypostyle Hall were built taller than the rest, why? [A] To direct people to the inner parts of the temple [B] To let in subdued light into the temple [C] To carry the heavy slab [D] For ceremonial purposes</t>
-  </si>
-  <si>
-    <t>What style did the muslim architects patterned their structures? [A] Renaissance [B] Early Christian [C] Gothic [D] Saracenic</t>
-  </si>
-  <si>
-    <t>What was the reason why Otto Wagner veered from being "Classist" to "Modernist"? [A] He wants to reinvent himself [B] He wants to teach his students In "Akadieme der Bildenden Kunste" at Viena Something new [C] He was commissioned for the project by the Government [D] He just wanted to do something with what materials that are available</t>
-  </si>
-  <si>
-    <t>In Germany, how was he influenced by the modern movement? [A] Sezzione [B] Stile Liberty [C] Jugendstil [D] Le Moderne Style</t>
-  </si>
-  <si>
-    <t>What was the greatest effect of Industrial Revolution? [A] Trains and Railways [B] Elevators [C] Suburbanization [D] All of the above</t>
-  </si>
-  <si>
-    <t>How is the Family in a Tawi Tawi Boat arranged to maintain its balance? [A] Single Row [B] By Two's [C] Clustered in the Middle [D] All of the above</t>
-  </si>
-  <si>
-    <t>What is used to balance the boat? [A] Vinta [B] Katig [C] Papag [D] Roof beams where fishnets are attached</t>
-  </si>
-  <si>
-    <t>What is the effect on the people living in the Tawi Tawi Boat? [A] The are short [B] It affected their posture [C] They are not good at verbal communications [D] They are always hungry</t>
-  </si>
-  <si>
-    <t>What kind of vaults was used in Bernini's Royal Staircase? [A] Cloister [B] Fan [C] Barrel [D] Groin</t>
-  </si>
-  <si>
-    <t>What style was used in the facade of the entrance way? (Royal Staircase) [A] Romanesque [B] Renaissance [C] Gothic [D] Gothic Revival</t>
-  </si>
-  <si>
-    <t>Bernini is known for what style? [A] Romanesque [B] Gothic [C] Renaissance [D] Gothic Revival</t>
-  </si>
-  <si>
-    <t>Le Corbusier , also known as Charles Edouard Jeanneret-Gris explicitly used the Golden Ratio in his Modulor System for the scale of Architectural Proportion. How did you describe his architectural style? [A] Modern Classic [B] White Box [C] Neo-Classicism [D] Minimalism</t>
-  </si>
-  <si>
-    <t>Who was the architect of the dome of the rock? [A] Caliph and Al Malik [B] John Utzon [C] Shah Jahan [D] Imhotep</t>
-  </si>
-  <si>
-    <t>Who was the architect of the Robie House? [A] Le Corbusier [B] Frank Lloyd Wright [C] Walter Gropius [D] Micheal Graves</t>
-  </si>
-  <si>
-    <t>Most works of Andrea Palladio are: [A] Radial [B] Symmetrical [C] Clustered [D] None of the above</t>
-  </si>
-  <si>
-    <t>Who was the architect of Seattle Museaum? [A] IM Pei [B] Minoru Yamasaki [C] Robert Venturi [D] Louis Khan</t>
-  </si>
-  <si>
-    <t>Who was the architect of the Bank of China, Louvre Pyramid, and Rock n` Roll Hall of Fame? [A] IM Pei [B] Frank Lloyd Wright [C] Richard Rogers [D] Victor Horta</t>
-  </si>
-  <si>
-    <t>What is the dominant feature of IM Pei's Works? [A] Glass and Steels [B] Squares [C] Triangles [D] Colors</t>
-  </si>
-  <si>
-    <t>What shape is prominent in the Bank of China and Louvre Pyramid? [A] rectangle [B] square [C] Triangle [D] Circle</t>
-  </si>
-  <si>
-    <t>Who was the architect of the Carpenter's Center? [A] Frank Lloyd Wright [B] Le Corbusier [C] IM Pei [D] Minoru Yamasaki</t>
-  </si>
-  <si>
-    <t>Who was the architect of the Tjibao Cultural Center? [A] Francisco Manosa [B] Gabriel Formoso [C] Juan Nakpil [D] Jean Marie Tjibao</t>
-  </si>
-  <si>
-    <t>Who was the architect of the Kuala Lampur Airport? [A] Kisho Kurukh [B] Norman Foster [C] IM Pei [D] Louis Khan</t>
-  </si>
-  <si>
-    <t>Who was the architect of the Quezon Memorial Pylon? [A] Lucio Tan [B] William Coscuella [C] Federico Llustre [D] Palafox</t>
-  </si>
-  <si>
-    <t>Who was the architect of the Chapel of Holy Sacrifice? The First thin shell in the Philippines? [A] Francisco Manosa [B] Gabriel Formoso [C] George Ramos [D] Leandro Locsin</t>
-  </si>
-  <si>
-    <t>Who was the architect of the New Toronto City Hall? [A] Frank Lloyd Wright [B] John Utzon [C] Viljo Revell [C] Frank Gehry</t>
-  </si>
-  <si>
-    <t>Who was the architect of Guggenheim Museum at Bilbao? [A] Otto Wagner [B] Frank Lloyd Wright [C] William Parsons [D] Frank Gehry</t>
-  </si>
-  <si>
-    <t>Who was the Architect of Zentralsparkasse Bank At Viena? [A] Otto Wagner [B] Antonio Gaudi [C] IM Pei [D] Gunther Domeng</t>
-  </si>
-  <si>
-    <t>Who was the architect of Bank Of New York? [A] Louis Sullivan [B] Philip Johnson [C] Voorhees, Gmelin and Walker [D] Skidmore and Owings</t>
-  </si>
-  <si>
-    <t>Who was the Architect of Sony Center? [A] Minoru Yamasaki [B] Norman Foster [C] Helmut Jahn [D] Le Corbusier</t>
-  </si>
-  <si>
-    <t>Who was the architect of the Notre Dame du Raincy? [A] Ludwig Mies Van De Rohe [B] Auguste and Gustave Perret [C] William Morris and John Ruskin [D] Walter Gropius</t>
-  </si>
-  <si>
-    <t>Who was the Architect of TWA Airport and the Dulles Airport? [A] Eero Saarinen [B] Eliel Saarienen [C] Gustave Eiffel [D] Skidmore and Owings</t>
-  </si>
-  <si>
-    <t>A Pritzker Prize Architect Winner on the year 1987 [A] Philip Johnson [B] IM Pei [C] Kenzo Tange [D] Frank Gehry</t>
-  </si>
-  <si>
-    <t>Who is the architect of San Miguel Building? [A] Leandro Locsin [B] Manosa Brothers [C] Gabriel Formoso [D] George Ramos</t>
-  </si>
-  <si>
-    <t>Who was the third Filipino Architect? [A] Carlos Barreto [B] Juan Nakpil [C] Antonio Toledo [D] Tomas Mapua</t>
-  </si>
-  <si>
-    <t>Who designed the Metropolitan Theater of Manila? [A] Juan Arellano [B] Antonio Toledo [C] Tomas Mapua [D] Francisco Manosa</t>
-  </si>
-  <si>
-    <t>What is the Architectural Character of the Metropolitan Theater? [A] Renaissance [B] Art Deco [C] Gothic [D] Art Moderne</t>
-  </si>
-  <si>
-    <t>Deconstructive Theory of Frank Gehry at Bilbao: [A] Opera House [B] Bank of China [C] Falling Water [D] Guggenheim Museum</t>
-  </si>
-  <si>
-    <t>This work is an example of Frank Lloyd Wrights Organic Architecture [A] Falling Water [B] Dulles Airport [C] Petronas Towers [D] Chicago Tribune Tower</t>
-  </si>
-  <si>
-    <t>Distinctive feature of Frank Lloyd Wrights Falling Water [A] Overhanging Slab [B] Cantilever [C] Falling Water [D] Steps</t>
-  </si>
-  <si>
-    <t>In the Falling Water, what is the function of the Overhanging Slab? [A] Terrace [B] Living Room [C] Bedroom [D] Dining</t>
-  </si>
-  <si>
-    <t>IF the greeks introduced the concept of proportion during the classical period, who was the famous architect who introduced the concept of proportion in modern times? [A] Ludwig Mies Van De Rohe [B] Eero Saarinen [C] Le Corbusier [D] Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>Famous structure designed by Le Corbusier in Marseilles France with rough cast concrete as steel frame proved too be expensive in light of post war shortages [A] Villa Savoye [B] Unite D` Habitation [C] Notre Dame Du Haut [D] Pilotis</t>
-  </si>
-  <si>
-    <t>Who was the architect that made the Chek Lap Kok Airport where natural light, tensioned membrane and Anthropometrically correct dimensions were emphasized? [A] Sir Norman Foster [B] Eero Saarinen [C] Richard Rogers [D] Fumihiko Maki</t>
-  </si>
-  <si>
-    <t>Who designed The Sagrada Familia? [A] Antonio Gaudi [B] Pierre Luigi Nervi [C] Leon Batista Alberti [D] Michealangelo</t>
-  </si>
-  <si>
-    <t>Who designed the interlocking thin shell, shark like concept that can be seen on the shore of Sydney, Australia? [A] Eero Saarien [B] Norman Foster [C] Skidmore and Owings [D] Jorn Utzon</t>
-  </si>
-  <si>
-    <t>He is the father of Prestress Concrete [A] Frank Gehry [B] Otto Wagner [C] Romans [D] Eugene Freysinnet</t>
-  </si>
-  <si>
-    <t>The standard size of an Ifugao House [A] 4 x 4 [B] 5 x 5 [C] 3 x 4 [D] 2 x 2</t>
-  </si>
-  <si>
-    <t>The kitchen of Bahay na Bato [A] Banguerahan [B] Cucina [C] Balcon [D] Entrasuelo</t>
-  </si>
-  <si>
-    <t>The mezzanine of Bahay na Bato [A] Aljibe [B] Dapogan [C] Bilik [D] Entrasuelo</t>
-  </si>
-  <si>
-    <t>What do you call the space underneath the Bahay na Bato? [A] Cuadra [B] Silong [C] Batalan [D] Meseta</t>
-  </si>
-  <si>
-    <t>What do you call the space pots, jars, and utensils that are kept in the Bahay na Bato? [A] Batalan [B] Cucina [C] Bangeurahan [D] Zaguan</t>
-  </si>
-  <si>
-    <t>What do you call the storage of rice in Bahay na Bato? [A] Azotea [B] Kamalig [C] Lanai [D] Verandah</t>
-  </si>
-  <si>
-    <t>Why do architects preferred to work in America? [A] Lots of oppurtunities to experiment and showcase their works [B] They need more money to support their families [C] They will be granted License for work in America after being able to serve for a number of years [D] Because Philippines suck</t>
-  </si>
-  <si>
-    <t>Temple with colonade along the front and rear [A] Prostyle [B] Pseudo Dipteral [C] Amphi Prostyle [D] Peripteral</t>
-  </si>
-  <si>
-    <t>The purpose of Rostral Columns [A] Respect to the Fallen Hero [B] For Victorious Campaigns [C] Landmark and Achievement [D] Congelemeration and Trophy</t>
-  </si>
-  <si>
-    <t>What is the structure in Rome where Roman Butresses are prominent? [A] Temple of Venus [B] Forum Romanum [C] Temple of Mars, Utor [D] Pantheon</t>
-  </si>
-  <si>
-    <t>What type of symmetry is prominent in Villa Capra? [A] Formal [B] Informal [C] Radial [D] Bilateral</t>
-  </si>
-  <si>
-    <t>From the image of Villa Capra, what is the focal point? [A] Circle in Center [B] Rectangular Center [C] 4 Columns at Sides [D] All of the above</t>
-  </si>
-  <si>
-    <t>The largest religious structure, beehive shaped towers [A] Borobudur [B] Ankor Wat [C] Stupa [D] Pagoda</t>
-  </si>
-  <si>
-    <t>Standing stones usually capped with Horizontal Slab [A] Menhir [B] Domus [C] Dolmen [D] Cromlech</t>
-  </si>
-  <si>
-    <t>A hindu gateway [A] Torii [B] Pailou [C] Torana [D] Gopuram</t>
-  </si>
-  <si>
-    <t>A cambodian gateway [A] Torii [B] Torana [C] Pailou [D] Propylaea</t>
-  </si>
-  <si>
-    <t>It is characterized by the grouping of small domes or semi enclosed domes around a large central dome [A] Islamic [B] Roman [C] Byzantine [D] Greek</t>
-  </si>
-  <si>
-    <t>During the 18th and 19th century, our country was influenced by what type of architecture? [A] Rococo [B] Renaissance [C] Gothic [D] Baroque</t>
-  </si>
-  <si>
-    <t>How would you describe the character of Romanesque Architecture? [A] Vastness and Ornateness [B] Sober and Dignified [C] Simplicity [D] Intricate Detail</t>
-  </si>
-  <si>
-    <t>How would you describe an Australian Colonial House? [A] Art Nouvea [B] Renaissace [C] Gothic [D] Baroque</t>
-  </si>
-  <si>
-    <t>What is the period which rose in Central Mexico and was destroyed by the Spanish Conquistadors? [A] Mogul Architecture [B] Inca Architecture [C] Aztec Architecture [D] Ottoman Architecture</t>
-  </si>
-  <si>
-    <t>The architectural style that was started at the middle of 16th century [A] Gothic [B] Baroque [C] Renaissance [D] Rococo</t>
-  </si>
-  <si>
-    <t>The oldest architectural style is: [A] Roman [B] Greek [C] Persian [D] China</t>
-  </si>
-  <si>
-    <t>It is the oldest inhabited city [A] Cairo [B] Beijing [C] Damascus [D] Manila</t>
-  </si>
-  <si>
-    <t>It is the most distinct character developed during the Byzantine Architecture [A] Vault [B] Arches [C] Domes [D] Beams</t>
-  </si>
-  <si>
-    <t>A style characterized by horizontal lines and window tracery [A] Minimalism [B] Gothic [C] Mannerism [D] Early Christian</t>
-  </si>
-  <si>
-    <t>A style characterized by vertical and parallel lines with window tracery [A] Gothic [B] Mannerism [C] Early Chrisitan [D] Renaissance</t>
-  </si>
-  <si>
-    <t>The Early Christian period is characterized by [A] Simple Pediment with dome on top [B] Greek Cross Planning [C] Central dome with satellite dome [D] All of the above</t>
-  </si>
-  <si>
-    <t>Structural innovation of the modern movement [A] Pre-Cast Concrete [B] Space Frame [C] Steel and Concrete [D] Glass and Wood</t>
-  </si>
-  <si>
-    <t>What is the architectural style of the Museum of Modern Art? [A] Neo-Classicism [B] Functionalism [C] Constructivism [D] Expressionism</t>
-  </si>
-  <si>
-    <t>Characteristics of Neo-Classical [A] Byzantine [B] Gothic [C] Greek [D] Chinese</t>
-  </si>
-  <si>
-    <t>Which style has moorish elements, excessive ornaments, and a deviation from the greeks and romans? [A] Rococo [B] Byzantine [C] Gothic [D] Early Christian</t>
-  </si>
-  <si>
-    <t>Who said Less Is More? [A] Philip Johnson [B] Ludwig Mies Van De Rohe [C] Minoru Yamasaki [D] Kenzo Tange</t>
-  </si>
-  <si>
-    <t>What style emerged in Constantinople as counterpart of the Roman Architecture in the East? [A] Art Nouveau [B] Byzantine [C] Early Christian [D] Roman</t>
-  </si>
-  <si>
-    <t>What is the similarity between the tracery windows in Early Christian Churches to our modern Churches? [A] Pilasters [B] Apse [C] Stained Glass [D] Doors</t>
-  </si>
-  <si>
-    <t>What do you call the central aisle of an Early Christian Basilican Church? [A] Ambulatory [B] Nave [C] Apse [D] Cella</t>
-  </si>
-  <si>
-    <t>The Basilica de Santa Maria del Fiore is world renonwed and has the largest brick dome every constructed. It is known as: [A] Sienna Cathedral [B] Florence Cathedral [C] Basilica of the Holy Blood [D] Basilica of the Holy Cross</t>
-  </si>
-  <si>
-    <t>Who presented the Greek Cross plan of St. Peter's Basilica? [A] Donato Bramante [B] Michealangelo [C] Rahael Urbino [D] Giuliano De Sangallo</t>
-  </si>
-  <si>
-    <t>It is a collective term for heritage schoolhouses built in the Philippines Between 1907 and 1946 that follow standard plans designed by Architect William Parsons [A] Liceo De Manila [B] University of Santo Tomas [C] Gabaldon School [D] Adamson University</t>
-  </si>
-  <si>
-    <t>It is the ancentral house of the upper class maranao in the lanao region of mindanao. It is the dwelling place of the datu along wtih his wives and children. There could not be any house larger than torogan of the datu within the sultanate, for this signifies rank, prestige and wealth. [A] Bahay Kubo [B] Torogan [C] Ifugao House [D] Antillian House</t>
-  </si>
-  <si>
-    <t>In the bahay na bato, it is where you can find the Dapogan, Bangahan and Batalan [A] Aljibe [B] Zaguan [C] Gilir [D] Cucina</t>
-  </si>
-  <si>
-    <t>Where the term Bahay Kubo came from? [A] Term given by the spaniards [B] Terminology of the Ancient Filipino [C] Vernacular Term from Batangas [D] From Balai for house and Kubo for Cube</t>
-  </si>
-  <si>
-    <t>It is the primary contribution of the Spaniards to the Philippines? [A] Government [B] Religion [C] Bahay na Bato [D] Law of the Indies</t>
-  </si>
-  <si>
-    <t>When the spaniards came, they noticed that the house where easily destroyed during typhoons, what type of house was introduced to them? [A] Bungalo [B] Bahay na Bato [C] Bahay Kubo [D] Teja Romana</t>
-  </si>
-  <si>
-    <t>The influece of Indian Stupa to the Buddhist of Japanese and Chinese Architecture [A] Temple [B] Pagoda [C] Bent Roof [D] Decorated Eaves</t>
-  </si>
-  <si>
-    <t>The similarities of Chinese and Japanese Architecture [A] Temple [B] Pagoda [C] Gateway [D] Civic Buildings</t>
-  </si>
-  <si>
-    <t>What is a japanese gate with 2 vertical post and 2 horizontal bars? [A] Pailou [B] Propylaea [C] Torii [D] Torana</t>
-  </si>
-  <si>
-    <t>Which of the following influecend Classical Architecture? [A] Styles [B] Orders [C] Religion [D] Culture</t>
-  </si>
-  <si>
-    <t>An indian structure inspired the Chinese and Japanese in building the Pagoda [A] Amanalaka [B] Sikhara [C] Stupa [D] Torana</t>
-  </si>
-  <si>
-    <t>A temple tower of the ancienyt assyrians and babylonians having a form of a terraced pyramid of successively receding storeys [A] Mastaba [B] Ziggurats [C] Pyramid [D] Temples</t>
-  </si>
-  <si>
-    <t>Ancient Egpyian Gateway [A] Portico [B] Pai-Lou [C] Torana [D] Pylon</t>
-  </si>
-  <si>
-    <t>Type of tomb in Egypt, which is the burial for the noble and eminent [A] Pyramid [B] Mastaba [C] Ziggurat [D] Cenotaph</t>
-  </si>
-  <si>
-    <t>What is the main purpose of a Medieval Castle? [A] Grandeur [B] Fortification [C] Assault for Warmongers [D] All of the above</t>
-  </si>
-  <si>
-    <t>The distinct feature of a roof that makes it recognizable as a Chinese House [A] Sui [B] Uplifted Roof [C] Curved Roof [D] Pagoda</t>
-  </si>
-  <si>
-    <t>This structure was built during the QIN Dynasty to guard againsts the Northern Invasion [A] Forbidden City [B] Great Wall of China [C] Yellow Turban [D] Underground Caves</t>
-  </si>
-  <si>
-    <t>A type of garden that is often primarily floral plants and completely free form in nature [A] Formal Garden [B] Informal Garden [C] Chinese Garden [D] Japanese Garden</t>
-  </si>
-  <si>
-    <t>A type of garden that is neat, ordered, and laid out in carefully planned geometric and symmetric lines. [A] Formal Garden [B] Informal Garden [C] Chinese Garden [D] Japanese Garden</t>
-  </si>
-  <si>
-    <t>Vermiculture is a simple and unusual way of using kitchen as rich castings for use in a garden. What is its main ingrident? [A] Chicken Manure [B] Red Wriggler Worms [C] Animal and Human Waste [D] All of the above</t>
-  </si>
-  <si>
-    <t>It is the traditional house of most southeast asian countries [A] Cubo [B] Igloo [C] Teepee [D] Balai</t>
-  </si>
-  <si>
-    <t>Type of construction characterized by the use of columns and a beam to carry a load over an opening [A] Arch and Vault [B] Post and Lintel [C] Arcuated [D] Thin Shell</t>
-  </si>
-  <si>
-    <t>A circular window usually of stained glass and decorated with tracery symmetrical about the center [A] Dormer Window [B] Transom Window [C] Rose Window [D] All of the above</t>
-  </si>
-  <si>
-    <t>What do you call the 4-centered gothic window? [A] Victorian Style [B] Decorative Style [C] Tudor Style [D] Rayonnant Style</t>
-  </si>
-  <si>
-    <t>A characteristic of Gothic Construction in which the lateral trusses of a roof or vault are taken up by a straight bar of masonry usually sloping, carried on an arch and a solid pier or butress sufficient to recieve the thrust [A] Pointed Arch [B] Vaults [C] Flying Buttresses [D] Spires</t>
-  </si>
-  <si>
-    <t>It is the pointed arch having two centers and radii greater than the span [A] Equilateral [B] Segmental [C] Lancet [D] None of the above</t>
-  </si>
-  <si>
-    <t>In the early times, what was used to achieve longer horizontal span? [A] Beam [B] Arc [C] Lintel Beam [D] Column</t>
-  </si>
-  <si>
-    <t>In Romanesque Architecture, how are the walls treated? [A] Decorative  Plaster [B] Alternate Columns and Piers [C] Colonnaded [D] Megastructures</t>
-  </si>
-  <si>
-    <t>If the diameter of the column is 0.90m and the intercolumnation would be areostyle, what would be the measurement of the intercolumnation? [A] 2.025m [B] 2.70m [C] 1.35m [D] 3.60m</t>
-  </si>
-  <si>
-    <t>What is the intercolumnation of columns if their clear distance is 1.5m of the diameter of the column? [A] Systyle [B] Eustyle [C] Pycnostyle [D] Areostyle</t>
-  </si>
-  <si>
-    <t>A greek temple has 6 columns in front and at the back. At its side, it has eleven columns, that includes the outermost columns at the front and back. What do you call this kind of temple? [A] Peripteral [B] Pseudodipteral [C] Decastyle [D] Tetrastyle</t>
-  </si>
-  <si>
-    <t>What do you call the style in which the column distance is 4D? [A] Eustyle [B] Systyle [C] Diastyle [D] Areostyle</t>
-  </si>
-  <si>
-    <t>What is systyle intercolumnation? [A] 1.5 x CD [B] 2.5 x CD [C] 2x CD [D] 3-4x CD</t>
-  </si>
-  <si>
-    <t>Intercolumnation of 1.5 Diameter Column [A] Systyle [B] Eustyle [C] Pycnostyle [D] Areostyle</t>
-  </si>
-  <si>
-    <t>Intercolumnation of 2 Diameter Column [A] Systyle [B] Eustyle [C] Pycnostyle [D] Areostyle</t>
-  </si>
-  <si>
-    <t>Intercolumnation of 3 Diameter Column [A] Systyle [B] Diastyle [C] Pycnostyle [D] Areostyle</t>
-  </si>
-  <si>
-    <t>If a greek column as a total of 14 columns whth a breakdown of 4 in front and 4 in the back, and the rest at both sides, what type of temple it is? [A] Peripteral [B] Prostyle [C] Amphiprostyle [D] Dipteral</t>
-  </si>
-  <si>
-    <t>Cubical block of stone above the capitals in a byzantine church, used to carry the arches and vault, the springing of which had a superficial area greatly in excess of the column which carried them. [A] Concrete Hollow Block [B] Titanium Block [C] Marble [D] Dosseret Block</t>
-  </si>
-  <si>
-    <t>What is the purpose of Fortification? [A] Military Installation [B] To Protect the owner from enemy attack [C] To protect the treasures [D] Public gateway</t>
-  </si>
-  <si>
-    <t>What element in classical architecture creates lines and shadows? [A] Roof [B] Moulding [C] People [D] Columns</t>
-  </si>
-  <si>
-    <t>Greatest influence of Chinese Architecture [A] Environment [B] Politics [C] Government [D] Religion</t>
-  </si>
-  <si>
-    <t>How did the romans create structures with great spans? [A] Use of Small Stones [B] Use of manual Labor [C] Use of Arch [D] Use of Power</t>
-  </si>
-  <si>
-    <t>Creation of cities and construction of churches during the roman empire is mostly considered at [A] East Roman [B] West Roman [C] South Roman [D] North Roman</t>
-  </si>
-  <si>
-    <t>Gutter in the modern times is a [A] Pediment [B] Girt [C] Truss [D] Frieze</t>
-  </si>
-  <si>
-    <t>Where did Gothic Architecture Originate? [A] France [B] Italy [C] Spain [D] Germany</t>
-  </si>
-  <si>
-    <t>The third phase of Gothic Architecture [A] Lancet [B] Decorative [C] Rayonnant [D] Flamboyant</t>
-  </si>
-  <si>
-    <t>In gothic architecture, what is the purpose of Flying Buttresses? [A] Aesthetics [B] Support the foundation [C] Support the truss [D] Support the high wall and transfer load</t>
-  </si>
-  <si>
-    <t>Characterized by horizontal elements supported by columns [A] Post [B] Columnar [C] Trabeated [D] Saracenic</t>
-  </si>
-  <si>
-    <t>In the modern day, what is considered as the architrave? [A] Gutter [B] Pediment [C] Lintel [D] Purlins</t>
-  </si>
-  <si>
-    <t>A roman order derived from the Greek's Doric order [A] Composite [B] Corinthian [C] Ionic [D] Tuscan</t>
-  </si>
-  <si>
-    <t>On the following, which is the simplest? [A] Doric [B] Corinthian [C] Tuscan [D] Composite</t>
-  </si>
-  <si>
-    <t>What kind of order was used in the Parthenon? [A] Doric [B] Corinthian [C] Tuscan [D] Composite</t>
-  </si>
-  <si>
-    <t>The classic order characterized by its volutes in capital with its elegant design [A] Ionic [B] Corinthian [C] Tuscan [D] Doric</t>
-  </si>
-  <si>
-    <t>Type of column which represents an inverted bell [A] Doric [B] Corinthian [C] Tuscan [D] Composite</t>
-  </si>
-  <si>
-    <t>What is the purpose of Bahay Kubo's Silong? [A] Ventilation and Drying of Clothes [B] Protection againsts rats and animals [C] Protection againts animals and insects [D] All of the above</t>
-  </si>
-  <si>
-    <t>Le corbusier planned a high density building that was "super building" that contained 337 dwellings in only ten acres of land. What is this structure that supposed to be located at Marseilles? [A] Unite de habitation [B] Brasilia [C] Mile High tower [D] Ecumenopolis</t>
-  </si>
-  <si>
-    <t>Refers to the ancestral dwelling of the sultan or datu in mindanao, symbolizing an exalted status. [A] Samal [B] Yakan [C] Badjao [D] Torogan</t>
-  </si>
-  <si>
-    <t>It is a curved structure for spanning an opening, designed to support a vertical load primarily by axial stress (D.K. Ching p. 12) [A] Voussoir [B] Arch [C] Crown [D] Keystone</t>
-  </si>
-  <si>
-    <t>An Arched structure of timber, steel, or reinforced concrete, constructed as rigid body capable of carrying bending stresses (D.K. Ching p. 13) [A] Fixed Arch [B] Rigid Arch [C] Arch [D] Triangular Arch</t>
-  </si>
-  <si>
-    <t>Early age when humans built rectangular houses and use stones as tool [A] Neolitic [B] Paleolithic [C] Gothic [D] Medieval</t>
-  </si>
-  <si>
-    <t>It is the site of the first human settlement in Southeast Asia [A] Philippines [B] Malaysia [C] Indonesia [D] China</t>
-  </si>
-  <si>
-    <t>Which part of Metro Manila has arcades? [A] Quezon City Memorial Circle [B] Recto [C] Espana [D] San Marcelino</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Forming the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF008000"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t>imposing entrance to the Acropolis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t xml:space="preserve"> and erected by the Architect Mnesicles is the. [A] Pai Lou [B] Torii [C] Propylaea [D] Torana</t>
     </r>
   </si>
 </sst>
@@ -3641,8 +3587,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="B397" sqref="B397"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A597" workbookViewId="0">
+      <selection activeCell="B600" sqref="B600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3834,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -21439,7 +21385,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>511</v>
+        <v>944</v>
       </c>
       <c r="C509" s="4" t="s">
         <v>1</v>
@@ -21474,7 +21420,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C510" s="4" t="s">
         <v>3</v>
@@ -21509,7 +21455,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C511" s="4" t="s">
         <v>1</v>
@@ -21544,7 +21490,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C512" s="4" t="s">
         <v>11</v>
@@ -21579,7 +21525,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C513" s="4" t="s">
         <v>11</v>
@@ -21614,7 +21560,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C514" s="4" t="s">
         <v>6</v>
@@ -21649,7 +21595,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C515" s="8" t="s">
         <v>1</v>
@@ -21684,7 +21630,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>518</v>
+        <v>945</v>
       </c>
       <c r="C516" s="8" t="s">
         <v>1</v>
@@ -21719,7 +21665,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C517" s="4" t="s">
         <v>1</v>
@@ -21754,7 +21700,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C518" s="4" t="s">
         <v>3</v>
@@ -21789,7 +21735,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>521</v>
+        <v>946</v>
       </c>
       <c r="C519" s="4" t="s">
         <v>1</v>
@@ -21824,7 +21770,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C520" s="4" t="s">
         <v>6</v>
@@ -21859,7 +21805,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C521" s="8" t="s">
         <v>1</v>
@@ -21894,7 +21840,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C522" s="8" t="s">
         <v>11</v>
@@ -21929,7 +21875,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C523" s="4" t="s">
         <v>6</v>
@@ -21964,7 +21910,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C524" s="4" t="s">
         <v>6</v>
@@ -21999,7 +21945,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>527</v>
+        <v>947</v>
       </c>
       <c r="C525" s="4" t="s">
         <v>6</v>
@@ -22034,7 +21980,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C526" s="4" t="s">
         <v>3</v>
@@ -22069,7 +22015,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C527" s="4" t="s">
         <v>6</v>
@@ -22104,7 +22050,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C528" s="8" t="s">
         <v>3</v>
@@ -22139,7 +22085,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C529" s="4" t="s">
         <v>6</v>
@@ -22174,7 +22120,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C530" s="4" t="s">
         <v>1</v>
@@ -22209,7 +22155,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C531" s="4" t="s">
         <v>1</v>
@@ -22244,7 +22190,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C532" s="4" t="s">
         <v>1</v>
@@ -22279,7 +22225,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C533" s="8" t="s">
         <v>1</v>
@@ -22314,7 +22260,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C534" s="4" t="s">
         <v>3</v>
@@ -22349,7 +22295,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C535" s="4" t="s">
         <v>6</v>
@@ -22384,7 +22330,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>538</v>
+        <v>948</v>
       </c>
       <c r="C536" s="4" t="s">
         <v>1</v>
@@ -22419,7 +22365,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C537" s="4" t="s">
         <v>1</v>
@@ -22454,7 +22400,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="9" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C538" s="4" t="s">
         <v>11</v>
@@ -22489,7 +22435,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="9" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C539" s="4" t="s">
         <v>3</v>
@@ -22524,7 +22470,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C540" s="4" t="s">
         <v>6</v>
@@ -22559,7 +22505,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C541" s="4" t="s">
         <v>1</v>
@@ -22594,7 +22540,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C542" s="4" t="s">
         <v>3</v>
@@ -22629,7 +22575,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C543" s="4" t="s">
         <v>6</v>
@@ -22664,7 +22610,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C544" s="4" t="s">
         <v>11</v>
@@ -22699,7 +22645,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C545" s="8" t="s">
         <v>6</v>
@@ -22734,7 +22680,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C546" s="4" t="s">
         <v>1</v>
@@ -22769,7 +22715,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C547" s="4" t="s">
         <v>1</v>
@@ -22804,7 +22750,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C548" s="8" t="s">
         <v>11</v>
@@ -22839,7 +22785,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C549" s="4" t="s">
         <v>3</v>
@@ -22874,7 +22820,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C550" s="8" t="s">
         <v>6</v>
@@ -22909,7 +22855,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C551" s="8" t="s">
         <v>1</v>
@@ -22944,7 +22890,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C552" s="4" t="s">
         <v>11</v>
@@ -22979,7 +22925,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C553" s="4" t="s">
         <v>1</v>
@@ -23014,7 +22960,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C554" s="8" t="s">
         <v>3</v>
@@ -23049,7 +22995,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>557</v>
+        <v>949</v>
       </c>
       <c r="C555" s="4" t="s">
         <v>1</v>
@@ -23084,7 +23030,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C556" s="8" t="s">
         <v>11</v>
@@ -23119,7 +23065,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C557" s="4" t="s">
         <v>6</v>
@@ -23154,7 +23100,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>560</v>
+        <v>950</v>
       </c>
       <c r="C558" s="4" t="s">
         <v>6</v>
@@ -23189,7 +23135,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C559" s="8" t="s">
         <v>3</v>
@@ -23224,7 +23170,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C560" s="4" t="s">
         <v>1</v>
@@ -23259,7 +23205,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="C561" s="4" t="s">
         <v>11</v>
@@ -23294,7 +23240,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C562" s="8" t="s">
         <v>3</v>
@@ -23329,7 +23275,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="C563" s="4" t="s">
         <v>1</v>
@@ -23364,7 +23310,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C564" s="4" t="s">
         <v>1</v>
@@ -23399,7 +23345,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C565" s="4" t="s">
         <v>3</v>
@@ -23434,7 +23380,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C566" s="4" t="s">
         <v>6</v>
@@ -23469,7 +23415,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C567" s="4" t="s">
         <v>6</v>
@@ -23504,7 +23450,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C568" s="4" t="s">
         <v>3</v>
@@ -23539,7 +23485,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="C569" s="4" t="s">
         <v>11</v>
@@ -23574,7 +23520,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C570" s="4" t="s">
         <v>1</v>
@@ -23609,7 +23555,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C571" s="4" t="s">
         <v>6</v>
@@ -23644,7 +23590,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C572" s="4" t="s">
         <v>6</v>
@@ -23679,7 +23625,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C573" s="4" t="s">
         <v>3</v>
@@ -23714,7 +23660,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C574" s="4" t="s">
         <v>1</v>
@@ -23749,7 +23695,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="C575" s="8" t="s">
         <v>11</v>
@@ -23784,7 +23730,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="C576" s="8" t="s">
         <v>11</v>
@@ -23819,7 +23765,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C577" s="8" t="s">
         <v>1</v>
@@ -23854,7 +23800,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C578" s="8" t="s">
         <v>3</v>
@@ -23889,7 +23835,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C579" s="8" t="s">
         <v>11</v>
@@ -23924,7 +23870,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C580" s="8" t="s">
         <v>1</v>
@@ -23959,7 +23905,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="C581" s="8" t="s">
         <v>3</v>
@@ -23994,7 +23940,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C582" s="8" t="s">
         <v>3</v>
@@ -24029,7 +23975,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C583" s="4" t="s">
         <v>6</v>
@@ -24064,7 +24010,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>11</v>
@@ -24099,7 +24045,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>11</v>
@@ -24134,7 +24080,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C586" s="2" t="s">
         <v>3</v>
@@ -24169,7 +24115,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>3</v>
@@ -24204,7 +24150,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C588" s="2" t="s">
         <v>1</v>
@@ -24239,7 +24185,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>1</v>
@@ -24274,7 +24220,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>3</v>
@@ -24309,7 +24255,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>1</v>
@@ -24344,7 +24290,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>11</v>
@@ -24379,7 +24325,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>6</v>
@@ -24414,7 +24360,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>1</v>
@@ -24449,7 +24395,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>3</v>
@@ -24484,7 +24430,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>6</v>
@@ -24519,7 +24465,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>3</v>
@@ -24554,7 +24500,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>11</v>
@@ -24589,7 +24535,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>3</v>
@@ -24624,7 +24570,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>11</v>
@@ -24659,7 +24605,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>3</v>
@@ -24694,7 +24640,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>1</v>
@@ -24729,7 +24675,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>6</v>
@@ -24764,7 +24710,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>3</v>
@@ -24799,7 +24745,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>11</v>
@@ -24834,7 +24780,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>1</v>
@@ -24869,7 +24815,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>3</v>
@@ -24904,7 +24850,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>6</v>
@@ -24939,7 +24885,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>11</v>
@@ -24974,7 +24920,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>3</v>
@@ -25009,7 +24955,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>1</v>
@@ -25044,7 +24990,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>3</v>
@@ -25079,7 +25025,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>6</v>
@@ -25114,7 +25060,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>1</v>
@@ -25149,7 +25095,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>11</v>
@@ -25184,7 +25130,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>6</v>
@@ -25219,7 +25165,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>1</v>
@@ -25254,7 +25200,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>11</v>
@@ -25289,7 +25235,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>6</v>
@@ -25324,7 +25270,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>3</v>
@@ -25359,7 +25305,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C621" s="7" t="s">
         <v>3</v>
@@ -25394,7 +25340,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>11</v>
@@ -25429,7 +25375,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>3</v>
@@ -25464,7 +25410,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>11</v>
@@ -25499,7 +25445,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>6</v>
@@ -25534,7 +25480,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>6</v>
@@ -25569,7 +25515,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>1</v>
@@ -25604,7 +25550,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>3</v>
@@ -25639,7 +25585,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>1</v>
@@ -25674,7 +25620,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>6</v>
@@ -25709,7 +25655,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>1</v>
@@ -25744,7 +25690,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>6</v>
@@ -25779,7 +25725,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>3</v>
@@ -25814,7 +25760,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>3</v>
@@ -25849,7 +25795,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>6</v>
@@ -25884,7 +25830,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>11</v>
@@ -25919,7 +25865,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>11</v>
@@ -25954,7 +25900,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>11</v>
@@ -25989,7 +25935,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>1</v>
@@ -26024,7 +25970,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>3</v>
@@ -26059,7 +26005,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>3</v>
@@ -26094,7 +26040,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>1</v>
@@ -26129,7 +26075,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>6</v>
@@ -26164,7 +26110,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>3</v>
@@ -26199,7 +26145,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>6</v>
@@ -26234,7 +26180,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>1</v>
@@ -26269,7 +26215,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>3</v>
@@ -26304,7 +26250,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>6</v>
@@ -26339,7 +26285,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>6</v>
@@ -26374,7 +26320,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>1</v>
@@ -26409,7 +26355,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>3</v>
@@ -26444,7 +26390,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>1</v>
@@ -26479,7 +26425,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>3</v>
@@ -26514,7 +26460,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>1</v>
@@ -26549,7 +26495,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>3</v>
@@ -26584,7 +26530,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>3</v>
@@ -26619,7 +26565,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>3</v>
@@ -26654,7 +26600,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>11</v>
@@ -26689,7 +26635,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>6</v>
@@ -26724,7 +26670,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>1</v>
@@ -26759,7 +26705,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>1</v>
@@ -26794,7 +26740,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>6</v>
@@ -26829,7 +26775,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>1</v>
@@ -26864,7 +26810,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>1</v>
@@ -26899,7 +26845,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>6</v>
@@ -26934,7 +26880,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>6</v>
@@ -26969,7 +26915,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>6</v>
@@ -27004,7 +26950,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>3</v>
@@ -27039,7 +26985,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>6</v>
@@ -27074,7 +27020,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>3</v>
@@ -27109,7 +27055,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>3</v>
@@ -27144,7 +27090,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>6</v>
@@ -27179,7 +27125,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>6</v>
@@ -27214,7 +27160,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>6</v>
@@ -27249,7 +27195,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>6</v>
@@ -27284,7 +27230,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>1</v>
@@ -27319,7 +27265,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>6</v>
@@ -27354,7 +27300,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>6</v>
@@ -27389,7 +27335,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>11</v>
@@ -27424,7 +27370,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>11</v>
@@ -27459,7 +27405,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>1</v>
@@ -27494,7 +27440,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>6</v>
@@ -27529,7 +27475,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>1</v>
@@ -27564,7 +27510,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>1</v>
@@ -27599,7 +27545,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>1</v>
@@ -27634,7 +27580,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>11</v>
@@ -27669,7 +27615,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>1</v>
@@ -27704,7 +27650,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>3</v>
@@ -27739,7 +27685,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>3</v>
@@ -27774,7 +27720,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>6</v>
@@ -27809,7 +27755,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>1</v>
@@ -27844,7 +27790,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>6</v>
@@ -27879,7 +27825,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>6</v>
@@ -27914,7 +27860,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>11</v>
@@ -27949,7 +27895,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>6</v>
@@ -27984,7 +27930,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="C696" s="2" t="s">
         <v>1</v>
@@ -28019,7 +27965,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>11</v>
@@ -28054,7 +28000,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>6</v>
@@ -28089,7 +28035,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="C699" s="2" t="s">
         <v>1</v>
@@ -28124,7 +28070,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>6</v>
@@ -28159,7 +28105,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>6</v>
@@ -28194,7 +28140,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C702" s="2" t="s">
         <v>6</v>
@@ -28229,7 +28175,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>6</v>
@@ -28264,7 +28210,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C704" s="2" t="s">
         <v>6</v>
@@ -28299,7 +28245,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="C705" s="2" t="s">
         <v>6</v>
@@ -28334,7 +28280,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C706" s="2" t="s">
         <v>6</v>
@@ -28369,7 +28315,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>1</v>
@@ -28404,7 +28350,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>6</v>
@@ -28439,7 +28385,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>6</v>
@@ -28474,7 +28420,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="C710" s="2" t="s">
         <v>6</v>
@@ -28509,7 +28455,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C711" s="2" t="s">
         <v>6</v>
@@ -28544,7 +28490,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C712" s="4" t="s">
         <v>11</v>
@@ -28579,7 +28525,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C713" s="4" t="s">
         <v>6</v>
@@ -28614,7 +28560,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="C714" s="4" t="s">
         <v>1</v>
@@ -28649,7 +28595,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C715" s="4" t="s">
         <v>3</v>
@@ -28684,7 +28630,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C716" s="4" t="s">
         <v>1</v>
@@ -28719,7 +28665,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C717" s="4" t="s">
         <v>6</v>
@@ -28754,7 +28700,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C718" s="4" t="s">
         <v>6</v>
@@ -28789,7 +28735,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="C719" s="4" t="s">
         <v>6</v>
@@ -28824,7 +28770,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C720" s="4" t="s">
         <v>6</v>
@@ -28859,7 +28805,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="C721" s="4" t="s">
         <v>11</v>
@@ -28894,7 +28840,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="C722" s="4" t="s">
         <v>1</v>
@@ -28929,7 +28875,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="C723" s="4" t="s">
         <v>1</v>
@@ -28964,7 +28910,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C724" s="4" t="s">
         <v>11</v>
@@ -28999,7 +28945,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C725" s="4" t="s">
         <v>6</v>
@@ -29034,7 +28980,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C726" s="4" t="s">
         <v>6</v>
@@ -29069,7 +29015,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C727" s="4" t="s">
         <v>1</v>
@@ -29104,7 +29050,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="C728" s="4" t="s">
         <v>11</v>
@@ -29139,7 +29085,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="C729" s="4" t="s">
         <v>1</v>
@@ -29174,7 +29120,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="11" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C730" s="4" t="s">
         <v>6</v>
@@ -29209,7 +29155,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="11" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C731" s="4" t="s">
         <v>11</v>
@@ -29244,7 +29190,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C732" s="4" t="s">
         <v>3</v>
@@ -29279,7 +29225,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="C733" s="4" t="s">
         <v>6</v>
@@ -29314,7 +29260,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C734" s="4" t="s">
         <v>3</v>
@@ -29349,7 +29295,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="11" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="C735" s="4" t="s">
         <v>6</v>
@@ -29384,7 +29330,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="11" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C736" s="4" t="s">
         <v>6</v>
@@ -29419,7 +29365,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C737" s="4" t="s">
         <v>6</v>
@@ -29454,7 +29400,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="C738" s="4" t="s">
         <v>3</v>
@@ -29489,7 +29435,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="4" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="C739" s="4" t="s">
         <v>1</v>
@@ -29524,7 +29470,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="C740" s="4" t="s">
         <v>6</v>
@@ -29559,7 +29505,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C741" s="4" t="s">
         <v>6</v>
@@ -29594,7 +29540,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C742" s="4" t="s">
         <v>11</v>
@@ -29629,7 +29575,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="C743" s="4" t="s">
         <v>3</v>
@@ -29664,7 +29610,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="4" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="C744" s="4" t="s">
         <v>6</v>
@@ -29699,7 +29645,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C745" s="4" t="s">
         <v>3</v>
@@ -29734,7 +29680,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="C746" s="4" t="s">
         <v>3</v>
@@ -29769,7 +29715,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="4" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C747" s="4" t="s">
         <v>1</v>
@@ -29804,7 +29750,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="4" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="C748" s="4" t="s">
         <v>1</v>
@@ -29839,7 +29785,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="C749" s="4" t="s">
         <v>11</v>
@@ -29874,7 +29820,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="4" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="C750" s="4" t="s">
         <v>11</v>
@@ -29909,7 +29855,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="11" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="C751" s="4" t="s">
         <v>3</v>
@@ -29944,7 +29890,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="11" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="C752" s="4" t="s">
         <v>1</v>
@@ -29979,7 +29925,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="11" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C753" s="4" t="s">
         <v>1</v>
@@ -30014,7 +29960,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="11" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C754" s="4" t="s">
         <v>6</v>
@@ -30049,7 +29995,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="11" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="C755" s="4" t="s">
         <v>1</v>
@@ -30084,7 +30030,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="11" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="C756" s="4" t="s">
         <v>11</v>
@@ -30119,7 +30065,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="4" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="C757" s="4" t="s">
         <v>1</v>
@@ -30154,7 +30100,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="11" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C758" s="4" t="s">
         <v>1</v>
@@ -30189,7 +30135,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="11" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="C759" s="4" t="s">
         <v>11</v>
@@ -30224,7 +30170,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="11" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="C760" s="4" t="s">
         <v>11</v>
@@ -30259,7 +30205,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="11" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C761" s="4" t="s">
         <v>6</v>
@@ -30294,7 +30240,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="11" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C762" s="4" t="s">
         <v>11</v>
@@ -30329,7 +30275,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="11" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C763" s="4" t="s">
         <v>11</v>
@@ -30364,7 +30310,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="11" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="C764" s="4" t="s">
         <v>6</v>
@@ -30399,7 +30345,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="11" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C765" s="4" t="s">
         <v>1</v>
@@ -30434,7 +30380,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="11" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="C766" s="4" t="s">
         <v>6</v>
@@ -30469,7 +30415,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="11" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="C767" s="4" t="s">
         <v>1</v>
@@ -30504,7 +30450,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="11" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="C768" s="4" t="s">
         <v>1</v>
@@ -30539,7 +30485,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="11" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C769" s="4" t="s">
         <v>6</v>
@@ -30574,7 +30520,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="11" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="C770" s="4" t="s">
         <v>6</v>
@@ -30609,7 +30555,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="11" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C771" s="4" t="s">
         <v>1</v>
@@ -30644,7 +30590,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="11" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C772" s="4" t="s">
         <v>11</v>
@@ -30679,7 +30625,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="11" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C773" s="4" t="s">
         <v>1</v>
@@ -30714,7 +30660,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="11" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="C774" s="4" t="s">
         <v>3</v>
@@ -30749,7 +30695,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="11" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C775" s="4" t="s">
         <v>6</v>
@@ -30784,7 +30730,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="11" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="C776" s="4" t="s">
         <v>6</v>
@@ -30819,7 +30765,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="11" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C777" s="4" t="s">
         <v>6</v>
@@ -30854,7 +30800,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="11" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="C778" s="4" t="s">
         <v>6</v>
@@ -30889,7 +30835,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="4" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="C779" s="4" t="s">
         <v>11</v>
@@ -30924,7 +30870,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="4" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="C780" s="4" t="s">
         <v>6</v>
@@ -30959,7 +30905,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="4" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="C781" s="4" t="s">
         <v>6</v>
@@ -30994,7 +30940,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="11" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="C782" s="4" t="s">
         <v>1</v>
@@ -31029,7 +30975,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="4" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C783" s="4" t="s">
         <v>3</v>
@@ -31064,7 +31010,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="11" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="C784" s="4" t="s">
         <v>6</v>
@@ -31099,7 +31045,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="11" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C785" s="4" t="s">
         <v>11</v>
@@ -31134,7 +31080,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="11" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="C786" s="4" t="s">
         <v>11</v>
@@ -31169,7 +31115,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="11" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="C787" s="4" t="s">
         <v>6</v>
@@ -31204,7 +31150,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="4" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="C788" s="8" t="s">
         <v>1</v>
@@ -31239,7 +31185,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="11" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="C789" s="4" t="s">
         <v>6</v>
@@ -31274,7 +31220,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="11" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="C790" s="4" t="s">
         <v>1</v>
@@ -31309,7 +31255,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="11" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="C791" s="4" t="s">
         <v>1</v>
@@ -31344,7 +31290,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="4" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="C792" s="4" t="s">
         <v>6</v>
@@ -31379,7 +31325,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="4" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="C793" s="4" t="s">
         <v>3</v>
@@ -31414,7 +31360,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="4" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C794" s="4" t="s">
         <v>3</v>
@@ -31449,7 +31395,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="4" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="C795" s="4" t="s">
         <v>6</v>
@@ -31484,7 +31430,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="4" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="C796" s="4" t="s">
         <v>6</v>
@@ -31519,7 +31465,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="4" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C797" s="4" t="s">
         <v>6</v>
@@ -31554,7 +31500,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="11" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C798" s="4" t="s">
         <v>1</v>
@@ -31589,7 +31535,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="11" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="C799" s="4" t="s">
         <v>11</v>
@@ -31624,7 +31570,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="11" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C800" s="4" t="s">
         <v>1</v>
@@ -31659,7 +31605,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="4" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="C801" s="4" t="s">
         <v>6</v>
@@ -31694,7 +31640,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="4" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="C802" s="4" t="s">
         <v>1</v>
@@ -31729,7 +31675,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="4" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="C803" s="4" t="s">
         <v>11</v>
@@ -31764,7 +31710,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="11" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="C804" s="4" t="s">
         <v>1</v>
@@ -31799,7 +31745,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="11" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="C805" s="4" t="s">
         <v>6</v>
@@ -31834,7 +31780,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="11" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="C806" s="4" t="s">
         <v>6</v>
@@ -31869,7 +31815,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="11" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C807" s="4" t="s">
         <v>6</v>
@@ -31904,7 +31850,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="11" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C808" s="4" t="s">
         <v>1</v>
@@ -31939,7 +31885,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="11" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="C809" s="4" t="s">
         <v>1</v>
@@ -31974,7 +31920,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="11" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C810" s="4" t="s">
         <v>6</v>
@@ -32009,7 +31955,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="11" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="C811" s="4" t="s">
         <v>1</v>
@@ -32044,7 +31990,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="11" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="C812" s="4" t="s">
         <v>6</v>
@@ -32079,7 +32025,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="11" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C813" s="4" t="s">
         <v>11</v>
@@ -32114,7 +32060,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="11" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="C814" s="4" t="s">
         <v>3</v>
@@ -32149,7 +32095,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="11" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="C815" s="4" t="s">
         <v>1</v>
@@ -32184,7 +32130,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="11" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="C816" s="4" t="s">
         <v>1</v>
@@ -32219,7 +32165,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="11" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C817" s="4" t="s">
         <v>6</v>
@@ -32254,7 +32200,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="11" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="C818" s="4" t="s">
         <v>3</v>
@@ -32289,7 +32235,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="11" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="C819" s="4" t="s">
         <v>6</v>
@@ -32324,7 +32270,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="11" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="C820" s="4" t="s">
         <v>6</v>
@@ -32359,7 +32305,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="11" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="C821" s="4" t="s">
         <v>1</v>
@@ -32394,7 +32340,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="11" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="C822" s="4" t="s">
         <v>11</v>
@@ -32429,7 +32375,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="11" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="C823" s="4" t="s">
         <v>3</v>
@@ -32464,7 +32410,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="11" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="C824" s="4" t="s">
         <v>6</v>
@@ -32499,7 +32445,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="11" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="C825" s="4" t="s">
         <v>11</v>
@@ -32534,7 +32480,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="11" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C826" s="4" t="s">
         <v>6</v>
@@ -32569,7 +32515,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="11" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="C827" s="4" t="s">
         <v>11</v>
@@ -32604,7 +32550,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="11" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="C828" s="4" t="s">
         <v>11</v>
@@ -32639,7 +32585,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="11" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="C829" s="4" t="s">
         <v>6</v>
@@ -32674,7 +32620,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="11" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="C830" s="4" t="s">
         <v>6</v>
@@ -32709,7 +32655,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="11" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="C831" s="4" t="s">
         <v>1</v>
@@ -32744,7 +32690,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="11" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="C832" s="4" t="s">
         <v>3</v>
@@ -32779,7 +32725,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="11" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="C833" s="4" t="s">
         <v>6</v>
@@ -32814,7 +32760,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="11" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="C834" s="4" t="s">
         <v>1</v>
@@ -32849,7 +32795,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="11" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="C835" s="4" t="s">
         <v>6</v>
@@ -32884,7 +32830,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="11" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="C836" s="4" t="s">
         <v>3</v>
@@ -32919,7 +32865,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="11" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="C837" s="4" t="s">
         <v>1</v>
@@ -32954,7 +32900,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="11" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C838" s="4" t="s">
         <v>11</v>
@@ -32989,7 +32935,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="11" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C839" s="4" t="s">
         <v>3</v>
@@ -33024,7 +32970,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="11" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="C840" s="4" t="s">
         <v>3</v>
@@ -33059,7 +33005,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="11" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="C841" s="4" t="s">
         <v>3</v>
@@ -33094,7 +33040,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="11" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C842" s="4" t="s">
         <v>6</v>
@@ -33129,7 +33075,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="11" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="C843" s="4" t="s">
         <v>1</v>
@@ -33164,7 +33110,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="11" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="C844" s="4" t="s">
         <v>3</v>
@@ -33199,7 +33145,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="11" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C845" s="4" t="s">
         <v>3</v>
@@ -33234,7 +33180,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="11" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="C846" s="4" t="s">
         <v>11</v>
@@ -33269,7 +33215,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="11" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="C847" s="4" t="s">
         <v>11</v>
@@ -33304,7 +33250,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="11" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="C848" s="4" t="s">
         <v>3</v>
@@ -33339,7 +33285,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="11" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="C849" s="4" t="s">
         <v>1</v>
@@ -33374,7 +33320,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="11" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="C850" s="4" t="s">
         <v>11</v>
@@ -33409,7 +33355,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="4" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="C851" s="4" t="s">
         <v>1</v>
@@ -33444,7 +33390,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="11" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="C852" s="4" t="s">
         <v>6</v>
@@ -33479,7 +33425,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="11" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="C853" s="4" t="s">
         <v>1</v>
@@ -33514,7 +33460,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="11" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="C854" s="4" t="s">
         <v>3</v>
@@ -33549,7 +33495,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="11" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="C855" s="4" t="s">
         <v>6</v>
@@ -33584,7 +33530,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="11" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="C856" s="4" t="s">
         <v>1</v>
@@ -33619,7 +33565,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="11" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="C857" s="4" t="s">
         <v>1</v>
@@ -33654,7 +33600,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="11" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="C858" s="4" t="s">
         <v>3</v>
@@ -33689,7 +33635,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="11" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="C859" s="4" t="s">
         <v>3</v>
@@ -33724,7 +33670,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="4" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="C860" s="4" t="s">
         <v>1</v>
@@ -33759,7 +33705,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="4" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="C861" s="4" t="s">
         <v>6</v>
@@ -33794,7 +33740,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="4" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C862" s="4" t="s">
         <v>1</v>
@@ -33829,7 +33775,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="4" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="C863" s="4" t="s">
         <v>6</v>
@@ -33864,7 +33810,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="11" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="C864" s="4" t="s">
         <v>1</v>
@@ -33899,7 +33845,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="11" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="C865" s="4" t="s">
         <v>6</v>
@@ -33934,7 +33880,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="11" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="C866" s="4" t="s">
         <v>11</v>
@@ -33969,7 +33915,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="11" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="C867" s="4" t="s">
         <v>1</v>
@@ -34004,7 +33950,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="11" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="C868" s="4" t="s">
         <v>6</v>
@@ -34039,7 +33985,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="4" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="C869" s="4" t="s">
         <v>6</v>
@@ -34074,7 +34020,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="4" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="C870" s="4" t="s">
         <v>6</v>
@@ -34109,7 +34055,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="11" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="C871" s="4" t="s">
         <v>6</v>
@@ -34144,7 +34090,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="11" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="C872" s="4" t="s">
         <v>6</v>
@@ -34179,7 +34125,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="11" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="C873" s="4" t="s">
         <v>6</v>
@@ -34214,7 +34160,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="4" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="C874" s="4" t="s">
         <v>6</v>
@@ -34249,7 +34195,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="4" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="C875" s="4" t="s">
         <v>3</v>
@@ -34284,7 +34230,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="11" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="C876" s="4" t="s">
         <v>1</v>
@@ -34319,7 +34265,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="11" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="C877" s="4" t="s">
         <v>6</v>
@@ -34354,7 +34300,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="11" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="C878" s="4" t="s">
         <v>6</v>
@@ -34389,7 +34335,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="11" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="C879" s="4" t="s">
         <v>6</v>
@@ -34424,7 +34370,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="11" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="C880" s="4" t="s">
         <v>3</v>
@@ -34459,7 +34405,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="11" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="C881" s="4" t="s">
         <v>1</v>
@@ -34494,7 +34440,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="11" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="C882" s="4" t="s">
         <v>1</v>
@@ -34529,7 +34475,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="11" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="C883" s="4" t="s">
         <v>6</v>
@@ -34564,7 +34510,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="11" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="C884" s="4" t="s">
         <v>1</v>
@@ -34599,7 +34545,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="11" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="C885" s="4" t="s">
         <v>1</v>
@@ -34634,7 +34580,7 @@
         <v>885</v>
       </c>
       <c r="B886" s="11" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="C886" s="4" t="s">
         <v>3</v>
@@ -34669,7 +34615,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="4" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="C887" s="4" t="s">
         <v>6</v>
@@ -34704,7 +34650,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="11" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="C888" s="4" t="s">
         <v>1</v>
@@ -34739,7 +34685,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="11" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="C889" s="4" t="s">
         <v>11</v>
@@ -34774,7 +34720,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="11" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="C890" s="4" t="s">
         <v>11</v>
@@ -34809,7 +34755,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="4" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C891" s="4" t="s">
         <v>1</v>
@@ -34844,7 +34790,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="11" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="C892" s="4" t="s">
         <v>1</v>
@@ -34879,7 +34825,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="11" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="C893" s="4" t="s">
         <v>1</v>
@@ -34914,7 +34860,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="11" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="C894" s="4" t="s">
         <v>1</v>
@@ -34949,7 +34895,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="11" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C895" s="4" t="s">
         <v>6</v>
@@ -34984,7 +34930,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="11" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="C896" s="4" t="s">
         <v>1</v>
@@ -35019,7 +34965,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="11" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="C897" s="4" t="s">
         <v>6</v>
@@ -35054,7 +35000,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="11" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="C898" s="4" t="s">
         <v>1</v>
@@ -35089,7 +35035,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="11" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="C899" s="4" t="s">
         <v>11</v>
@@ -35124,7 +35070,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="11" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="C900" s="4" t="s">
         <v>1</v>
@@ -35159,7 +35105,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="11" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="C901" s="4" t="s">
         <v>1</v>
@@ -35194,7 +35140,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="11" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="C902" s="4" t="s">
         <v>6</v>
@@ -35229,7 +35175,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="11" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="C903" s="4" t="s">
         <v>1</v>
@@ -35264,7 +35210,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="11" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="C904" s="4" t="s">
         <v>1</v>
@@ -35299,7 +35245,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="11" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="C905" s="4" t="s">
         <v>3</v>
@@ -35334,7 +35280,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="11" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="C906" s="4" t="s">
         <v>1</v>
@@ -35369,7 +35315,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="11" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="C907" s="4" t="s">
         <v>11</v>
@@ -35404,7 +35350,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="11" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="C908" s="4" t="s">
         <v>1</v>
@@ -35439,7 +35385,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="11" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="C909" s="4" t="s">
         <v>6</v>
@@ -35474,7 +35420,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="11" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="C910" s="4" t="s">
         <v>6</v>
@@ -35509,7 +35455,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="11" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="C911" s="4" t="s">
         <v>6</v>
@@ -35544,7 +35490,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="4" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="C912" s="4" t="s">
         <v>6</v>
@@ -35579,7 +35525,7 @@
         <v>912</v>
       </c>
       <c r="B913" s="4" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="C913" s="4" t="s">
         <v>1</v>
@@ -35614,7 +35560,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="C914" s="4" t="s">
         <v>6</v>
@@ -35649,7 +35595,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="11" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="C915" s="4" t="s">
         <v>11</v>
@@ -35684,7 +35630,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="11" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="C916" s="4" t="s">
         <v>6</v>
@@ -35719,7 +35665,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="11" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="C917" s="4" t="s">
         <v>1</v>
@@ -35754,7 +35700,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="11" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="C918" s="4" t="s">
         <v>11</v>
@@ -35789,7 +35735,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="11" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="C919" s="4" t="s">
         <v>6</v>
@@ -35824,7 +35770,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="11" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="C920" s="4" t="s">
         <v>6</v>
@@ -35859,7 +35805,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="11" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="C921" s="4" t="s">
         <v>3</v>
@@ -35894,7 +35840,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="11" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="C922" s="4" t="s">
         <v>1</v>
@@ -35929,7 +35875,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="4" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="C923" s="4" t="s">
         <v>3</v>
@@ -35964,7 +35910,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="11" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="C924" s="4" t="s">
         <v>11</v>
@@ -35999,7 +35945,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="11" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="C925" s="4" t="s">
         <v>3</v>
@@ -36034,7 +35980,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="11" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="C926" s="12" t="s">
         <v>11</v>
@@ -36069,7 +36015,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="11" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="C927" s="4" t="s">
         <v>11</v>
@@ -36104,7 +36050,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="11" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="C928" s="4" t="s">
         <v>6</v>
@@ -36139,7 +36085,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="4" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C929" s="4" t="s">
         <v>3</v>
@@ -36174,7 +36120,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="11" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="C930" s="4" t="s">
         <v>11</v>
@@ -36209,7 +36155,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="11" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="C931" s="4" t="s">
         <v>3</v>
@@ -36244,7 +36190,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="4" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="C932" s="4" t="s">
         <v>11</v>
@@ -36279,7 +36225,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="4" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="C933" s="4" t="s">
         <v>11</v>
@@ -36314,7 +36260,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="4" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="C934" s="4" t="s">
         <v>6</v>
@@ -36349,7 +36295,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="11" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="C935" s="4" t="s">
         <v>6</v>
@@ -36384,7 +36330,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="11" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="C936" s="4" t="s">
         <v>11</v>
@@ -36419,7 +36365,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="C937" s="2" t="s">
         <v>6</v>
@@ -36454,7 +36400,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="4" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="C938" s="4" t="s">
         <v>3</v>
@@ -36489,7 +36435,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="4" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="C939" s="4" t="s">
         <v>3</v>
@@ -36524,7 +36470,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="4" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="C940" s="4" t="s">
         <v>1</v>
@@ -36559,7 +36505,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="4" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="C941" s="4" t="s">
         <v>3</v>
@@ -36594,7 +36540,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="4" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="C942" s="4" t="s">
         <v>3</v>
@@ -36629,7 +36575,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="4" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="C943" s="4" t="s">
         <v>11</v>
@@ -36664,7 +36610,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="4" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="C944" s="4" t="s">
         <v>1</v>
@@ -36699,7 +36645,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="4" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="C945" s="4" t="s">
         <v>1</v>
@@ -36734,7 +36680,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="4" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="C946" s="4" t="s">
         <v>1</v>
@@ -36769,7 +36715,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="4" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="C947" s="4" t="s">
         <v>6</v>
@@ -36804,7 +36750,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="4" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="C948" s="4" t="s">
         <v>1</v>

--- a/PROCESSED FILES/HOA - CORRECT ANSWERS.xlsx
+++ b/PROCESSED FILES/HOA - CORRECT ANSWERS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivans\Desktop\Archi Reviewer\PROCESSED FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5CA20D-084B-44C9-959C-E8A11422A55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54406C46-51F1-462A-9413-E61283687E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3587,8 +3587,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A597" workbookViewId="0">
-      <selection activeCell="B600" sqref="B600"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A744" workbookViewId="0">
+      <selection activeCell="B744" sqref="B744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>

--- a/PROCESSED FILES/HOA - CORRECT ANSWERS.xlsx
+++ b/PROCESSED FILES/HOA - CORRECT ANSWERS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivans\Desktop\Archi Reviewer\PROCESSED FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54406C46-51F1-462A-9413-E61283687E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD672A1-619F-494E-9D28-BAED9D832A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3587,8 +3587,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A744" workbookViewId="0">
-      <selection activeCell="B744" sqref="B744"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A799" workbookViewId="0">
+      <selection activeCell="B800" sqref="B800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>

--- a/PROCESSED FILES/HOA - CORRECT ANSWERS.xlsx
+++ b/PROCESSED FILES/HOA - CORRECT ANSWERS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivans\Desktop\Archi Reviewer\PROCESSED FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD672A1-619F-494E-9D28-BAED9D832A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325702FF-DA8B-4A42-B8F1-462E96ED8386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2635,9 +2635,6 @@
   </si>
   <si>
     <t>What was the greatest effect of Industrial Revolution? [A] Trains and Railways [B] Elevators [C] Suburbanization [D] All of the above</t>
-  </si>
-  <si>
-    <t>How is the Family in a Tawi Tawi Boat arranged to maintain its balance? [A] Single Row [B] By Two's [C] Clustered in the Middle [D] All of the above</t>
   </si>
   <si>
     <t>What is used to balance the boat? [A] Vinta [B] Katig [C] Papag [D] Roof beams where fishnets are attached</t>
@@ -3231,6 +3228,9 @@
       </rPr>
       <t xml:space="preserve"> orders and decorative motifs (D.K. Ching p. 133) [A] Renaissance [B] Georgian [C] NeoClassicism [D] Tudor Architecture</t>
     </r>
+  </si>
+  <si>
+    <t>How is the FamiAly in a Tawi Tawi Boat arranged to maintain its balance? [A] Single Row [B] By Two's [C] Clustered in the Middle [D] All of the above</t>
   </si>
 </sst>
 </file>
@@ -3587,8 +3587,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A799" workbookViewId="0">
-      <selection activeCell="B800" sqref="B800"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A850" workbookViewId="0">
+      <selection activeCell="B850" sqref="B850"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3780,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -21385,7 +21385,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C509" s="4" t="s">
         <v>1</v>
@@ -21630,7 +21630,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C516" s="8" t="s">
         <v>1</v>
@@ -21735,7 +21735,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C519" s="4" t="s">
         <v>1</v>
@@ -21945,7 +21945,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C525" s="4" t="s">
         <v>6</v>
@@ -22330,7 +22330,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C536" s="4" t="s">
         <v>1</v>
@@ -22995,7 +22995,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C555" s="4" t="s">
         <v>1</v>
@@ -23100,7 +23100,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C558" s="4" t="s">
         <v>6</v>
@@ -31815,7 +31815,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="11" t="s">
-        <v>802</v>
+        <v>950</v>
       </c>
       <c r="C807" s="4" t="s">
         <v>6</v>
@@ -31850,7 +31850,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C808" s="4" t="s">
         <v>1</v>
@@ -31885,7 +31885,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C809" s="4" t="s">
         <v>1</v>
@@ -31920,7 +31920,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C810" s="4" t="s">
         <v>6</v>
@@ -31955,7 +31955,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C811" s="4" t="s">
         <v>1</v>
@@ -31990,7 +31990,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C812" s="4" t="s">
         <v>6</v>
@@ -32025,7 +32025,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C813" s="4" t="s">
         <v>11</v>
@@ -32060,7 +32060,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C814" s="4" t="s">
         <v>3</v>
@@ -32095,7 +32095,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C815" s="4" t="s">
         <v>1</v>
@@ -32130,7 +32130,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C816" s="4" t="s">
         <v>1</v>
@@ -32165,7 +32165,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C817" s="4" t="s">
         <v>6</v>
@@ -32200,7 +32200,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C818" s="4" t="s">
         <v>3</v>
@@ -32235,7 +32235,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C819" s="4" t="s">
         <v>6</v>
@@ -32270,7 +32270,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C820" s="4" t="s">
         <v>6</v>
@@ -32305,7 +32305,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C821" s="4" t="s">
         <v>1</v>
@@ -32340,7 +32340,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C822" s="4" t="s">
         <v>11</v>
@@ -32375,7 +32375,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C823" s="4" t="s">
         <v>3</v>
@@ -32410,7 +32410,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C824" s="4" t="s">
         <v>6</v>
@@ -32445,7 +32445,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C825" s="4" t="s">
         <v>11</v>
@@ -32480,7 +32480,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C826" s="4" t="s">
         <v>6</v>
@@ -32515,7 +32515,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C827" s="4" t="s">
         <v>11</v>
@@ -32550,7 +32550,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C828" s="4" t="s">
         <v>11</v>
@@ -32585,7 +32585,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C829" s="4" t="s">
         <v>6</v>
@@ -32620,7 +32620,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C830" s="4" t="s">
         <v>6</v>
@@ -32655,7 +32655,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C831" s="4" t="s">
         <v>1</v>
@@ -32690,7 +32690,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C832" s="4" t="s">
         <v>3</v>
@@ -32725,7 +32725,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C833" s="4" t="s">
         <v>6</v>
@@ -32760,7 +32760,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C834" s="4" t="s">
         <v>1</v>
@@ -32795,7 +32795,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C835" s="4" t="s">
         <v>6</v>
@@ -32830,7 +32830,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C836" s="4" t="s">
         <v>3</v>
@@ -32865,7 +32865,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C837" s="4" t="s">
         <v>1</v>
@@ -32900,7 +32900,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C838" s="4" t="s">
         <v>11</v>
@@ -32935,7 +32935,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C839" s="4" t="s">
         <v>3</v>
@@ -32970,7 +32970,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C840" s="4" t="s">
         <v>3</v>
@@ -33005,7 +33005,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C841" s="4" t="s">
         <v>3</v>
@@ -33040,7 +33040,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C842" s="4" t="s">
         <v>6</v>
@@ -33075,7 +33075,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C843" s="4" t="s">
         <v>1</v>
@@ -33110,7 +33110,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C844" s="4" t="s">
         <v>3</v>
@@ -33145,7 +33145,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C845" s="4" t="s">
         <v>3</v>
@@ -33180,7 +33180,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C846" s="4" t="s">
         <v>11</v>
@@ -33215,7 +33215,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C847" s="4" t="s">
         <v>11</v>
@@ -33250,7 +33250,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="11" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C848" s="4" t="s">
         <v>3</v>
@@ -33285,7 +33285,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C849" s="4" t="s">
         <v>1</v>
@@ -33320,7 +33320,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C850" s="4" t="s">
         <v>11</v>
@@ -33355,7 +33355,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C851" s="4" t="s">
         <v>1</v>
@@ -33390,7 +33390,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C852" s="4" t="s">
         <v>6</v>
@@ -33425,7 +33425,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C853" s="4" t="s">
         <v>1</v>
@@ -33460,7 +33460,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C854" s="4" t="s">
         <v>3</v>
@@ -33495,7 +33495,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="11" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C855" s="4" t="s">
         <v>6</v>
@@ -33530,7 +33530,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C856" s="4" t="s">
         <v>1</v>
@@ -33565,7 +33565,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C857" s="4" t="s">
         <v>1</v>
@@ -33600,7 +33600,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C858" s="4" t="s">
         <v>3</v>
@@ -33635,7 +33635,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="11" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C859" s="4" t="s">
         <v>3</v>
@@ -33670,7 +33670,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C860" s="4" t="s">
         <v>1</v>
@@ -33705,7 +33705,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C861" s="4" t="s">
         <v>6</v>
@@ -33775,7 +33775,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C863" s="4" t="s">
         <v>6</v>
@@ -33810,7 +33810,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C864" s="4" t="s">
         <v>1</v>
@@ -33845,7 +33845,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C865" s="4" t="s">
         <v>6</v>
@@ -33880,7 +33880,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C866" s="4" t="s">
         <v>11</v>
@@ -33915,7 +33915,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C867" s="4" t="s">
         <v>1</v>
@@ -33950,7 +33950,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C868" s="4" t="s">
         <v>6</v>
@@ -33985,7 +33985,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C869" s="4" t="s">
         <v>6</v>
@@ -34020,7 +34020,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C870" s="4" t="s">
         <v>6</v>
@@ -34055,7 +34055,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C871" s="4" t="s">
         <v>6</v>
@@ -34090,7 +34090,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C872" s="4" t="s">
         <v>6</v>
@@ -34125,7 +34125,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C873" s="4" t="s">
         <v>6</v>
@@ -34160,7 +34160,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C874" s="4" t="s">
         <v>6</v>
@@ -34195,7 +34195,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C875" s="4" t="s">
         <v>3</v>
@@ -34230,7 +34230,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C876" s="4" t="s">
         <v>1</v>
@@ -34265,7 +34265,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C877" s="4" t="s">
         <v>6</v>
@@ -34300,7 +34300,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C878" s="4" t="s">
         <v>6</v>
@@ -34335,7 +34335,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C879" s="4" t="s">
         <v>6</v>
@@ -34370,7 +34370,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C880" s="4" t="s">
         <v>3</v>
@@ -34405,7 +34405,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="11" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C881" s="4" t="s">
         <v>1</v>
@@ -34440,7 +34440,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="11" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C882" s="4" t="s">
         <v>1</v>
@@ -34475,7 +34475,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="11" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C883" s="4" t="s">
         <v>6</v>
@@ -34510,7 +34510,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="11" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C884" s="4" t="s">
         <v>1</v>
@@ -34545,7 +34545,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C885" s="4" t="s">
         <v>1</v>
@@ -34580,7 +34580,7 @@
         <v>885</v>
       </c>
       <c r="B886" s="11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C886" s="4" t="s">
         <v>3</v>
@@ -34615,7 +34615,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C887" s="4" t="s">
         <v>6</v>
@@ -34650,7 +34650,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C888" s="4" t="s">
         <v>1</v>
@@ -34685,7 +34685,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C889" s="4" t="s">
         <v>11</v>
@@ -34720,7 +34720,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C890" s="4" t="s">
         <v>11</v>
@@ -34755,7 +34755,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C891" s="4" t="s">
         <v>1</v>
@@ -34790,7 +34790,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C892" s="4" t="s">
         <v>1</v>
@@ -34825,7 +34825,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C893" s="4" t="s">
         <v>1</v>
@@ -34860,7 +34860,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="11" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C894" s="4" t="s">
         <v>1</v>
@@ -34895,7 +34895,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C895" s="4" t="s">
         <v>6</v>
@@ -34930,7 +34930,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="11" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C896" s="4" t="s">
         <v>1</v>
@@ -34965,7 +34965,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C897" s="4" t="s">
         <v>6</v>
@@ -35000,7 +35000,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="11" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C898" s="4" t="s">
         <v>1</v>
@@ -35035,7 +35035,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C899" s="4" t="s">
         <v>11</v>
@@ -35070,7 +35070,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="11" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C900" s="4" t="s">
         <v>1</v>
@@ -35105,7 +35105,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C901" s="4" t="s">
         <v>1</v>
@@ -35140,7 +35140,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C902" s="4" t="s">
         <v>6</v>
@@ -35175,7 +35175,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="11" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C903" s="4" t="s">
         <v>1</v>
@@ -35210,7 +35210,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C904" s="4" t="s">
         <v>1</v>
@@ -35245,7 +35245,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C905" s="4" t="s">
         <v>3</v>
@@ -35280,7 +35280,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="11" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C906" s="4" t="s">
         <v>1</v>
@@ -35315,7 +35315,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C907" s="4" t="s">
         <v>11</v>
@@ -35350,7 +35350,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C908" s="4" t="s">
         <v>1</v>
@@ -35385,7 +35385,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="11" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C909" s="4" t="s">
         <v>6</v>
@@ -35420,7 +35420,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="11" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C910" s="4" t="s">
         <v>6</v>
@@ -35455,7 +35455,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C911" s="4" t="s">
         <v>6</v>
@@ -35490,7 +35490,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C912" s="4" t="s">
         <v>6</v>
@@ -35525,7 +35525,7 @@
         <v>912</v>
       </c>
       <c r="B913" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C913" s="4" t="s">
         <v>1</v>
@@ -35560,7 +35560,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C914" s="4" t="s">
         <v>6</v>
@@ -35595,7 +35595,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="11" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C915" s="4" t="s">
         <v>11</v>
@@ -35630,7 +35630,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="11" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C916" s="4" t="s">
         <v>6</v>
@@ -35665,7 +35665,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="11" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C917" s="4" t="s">
         <v>1</v>
@@ -35700,7 +35700,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C918" s="4" t="s">
         <v>11</v>
@@ -35735,7 +35735,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C919" s="4" t="s">
         <v>6</v>
@@ -35770,7 +35770,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C920" s="4" t="s">
         <v>6</v>
@@ -35805,7 +35805,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C921" s="4" t="s">
         <v>3</v>
@@ -35840,7 +35840,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C922" s="4" t="s">
         <v>1</v>
@@ -35875,7 +35875,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C923" s="4" t="s">
         <v>3</v>
@@ -35910,7 +35910,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C924" s="4" t="s">
         <v>11</v>
@@ -35945,7 +35945,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C925" s="4" t="s">
         <v>3</v>
@@ -35980,7 +35980,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C926" s="12" t="s">
         <v>11</v>
@@ -36015,7 +36015,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C927" s="4" t="s">
         <v>11</v>
@@ -36050,7 +36050,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C928" s="4" t="s">
         <v>6</v>
@@ -36085,7 +36085,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C929" s="4" t="s">
         <v>3</v>
@@ -36120,7 +36120,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C930" s="4" t="s">
         <v>11</v>
@@ -36155,7 +36155,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C931" s="4" t="s">
         <v>3</v>
@@ -36190,7 +36190,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C932" s="4" t="s">
         <v>11</v>
@@ -36225,7 +36225,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C933" s="4" t="s">
         <v>11</v>
@@ -36260,7 +36260,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C934" s="4" t="s">
         <v>6</v>
@@ -36295,7 +36295,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C935" s="4" t="s">
         <v>6</v>
@@ -36330,7 +36330,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C936" s="4" t="s">
         <v>11</v>
@@ -36365,7 +36365,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C937" s="2" t="s">
         <v>6</v>
@@ -36400,7 +36400,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C938" s="4" t="s">
         <v>3</v>
@@ -36435,7 +36435,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C939" s="4" t="s">
         <v>3</v>
@@ -36470,7 +36470,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C940" s="4" t="s">
         <v>1</v>
@@ -36505,7 +36505,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C941" s="4" t="s">
         <v>3</v>
@@ -36540,7 +36540,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C942" s="4" t="s">
         <v>3</v>
@@ -36575,7 +36575,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C943" s="4" t="s">
         <v>11</v>
@@ -36610,7 +36610,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C944" s="4" t="s">
         <v>1</v>
@@ -36645,7 +36645,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C945" s="4" t="s">
         <v>1</v>
@@ -36680,7 +36680,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C946" s="4" t="s">
         <v>1</v>
@@ -36715,7 +36715,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C947" s="4" t="s">
         <v>6</v>
@@ -36750,7 +36750,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C948" s="4" t="s">
         <v>1</v>

--- a/PROCESSED FILES/HOA - CORRECT ANSWERS.xlsx
+++ b/PROCESSED FILES/HOA - CORRECT ANSWERS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivans\Desktop\Archi Reviewer\PROCESSED FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325702FF-DA8B-4A42-B8F1-462E96ED8386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AA42AF-9CA2-467C-BFE9-A02D4CC337B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3587,8 +3587,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A850" workbookViewId="0">
-      <selection activeCell="B850" sqref="B850"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A947" workbookViewId="0">
+      <selection activeCell="B948" sqref="B948"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
